--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C60034-472F-47FF-BD6D-00AD177A0525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E7595-C297-4517-8696-6FE0F61ED7D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9397" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="160">
   <si>
     <t>1)</t>
   </si>
@@ -736,19 +736,22 @@
   <si>
     <t xml:space="preserve">Gulmarkerade celler i protokollen markerar vilka celler som ska fyllas i. </t>
   </si>
+  <si>
+    <t>Protokollen uppdaterades senast 2019-03-28.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1609,389 +1612,368 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2025,278 +2007,251 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2304,8 +2259,8 @@
     <cellStyle name="Excel Built-in Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{A34DDE5D-5A83-4E36-8B3F-B90D48048A06}"/>
-    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2650,7 +2605,7 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2658,832 +2613,841 @@
     <col min="1" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="162" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:8" s="151" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="150" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="162" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="162" t="s">
+    <row r="2" spans="1:8" s="151" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="151" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="162" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="162" t="s">
+    <row r="3" spans="1:8" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="151" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="258" t="s">
+    <row r="4" spans="1:8" s="167" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="167" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="167" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="167" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="162" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" s="148" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="148" t="s">
+    <row r="6" spans="1:8" s="167" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" s="151" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" s="137" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="137" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="149"/>
+      <c r="A10" s="138"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="149"/>
-    </row>
-    <row r="12" spans="1:8" s="150" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="150" t="s">
+      <c r="A11" s="138"/>
+    </row>
+    <row r="12" spans="1:8" s="139" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="139" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="F13" s="151" t="s">
+      <c r="C13" s="138"/>
+      <c r="F13" s="140" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150" t="s">
+      <c r="E14" s="139"/>
+      <c r="F14" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="150" t="s">
+      <c r="G14" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="150" t="s">
+      <c r="H14" s="139" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="152" t="s">
+      <c r="E15" s="142"/>
+      <c r="F15" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="152" t="s">
+      <c r="H15" s="141" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="149"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-    </row>
-    <row r="17" spans="1:9" s="186" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="186" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+    </row>
+    <row r="17" spans="1:9" s="138" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="188"/>
-      <c r="F17" s="187" t="s">
+      <c r="E17" s="142"/>
+      <c r="F17" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="187" t="s">
+      <c r="G17" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="187" t="s">
+      <c r="H17" s="141" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="149"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="152" t="s">
+      <c r="E19" s="142"/>
+      <c r="F19" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="152" t="s">
+      <c r="H19" s="141" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="149"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-    </row>
-    <row r="22" spans="1:9" s="150" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="150" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+    </row>
+    <row r="22" spans="1:9" s="139" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="139" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="149"/>
-      <c r="F23" s="151" t="s">
+      <c r="C23" s="138"/>
+      <c r="F23" s="140" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="150" t="s">
+      <c r="D24" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="150" t="s">
+      <c r="E24" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="150" t="s">
+      <c r="F24" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="150" t="s">
+      <c r="G24" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="150" t="s">
+      <c r="H24" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="150" t="s">
+      <c r="I24" s="139" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="152" t="s">
+      <c r="C25" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="152" t="s">
+      <c r="D25" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="152" t="s">
+      <c r="E25" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="152" t="s">
+      <c r="F25" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="152" t="s">
+      <c r="G25" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="152" t="s">
+      <c r="H25" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="152" t="s">
+      <c r="I25" s="141" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="149"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-    </row>
-    <row r="27" spans="1:9" s="186" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="186" t="s">
+      <c r="A26" s="138"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+    </row>
+    <row r="27" spans="1:9" s="138" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="187" t="s">
+      <c r="B27" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="187" t="s">
+      <c r="D27" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="187" t="s">
+      <c r="E27" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="187" t="s">
+      <c r="F27" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="187" t="s">
+      <c r="G27" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="187" t="s">
+      <c r="H27" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="187" t="s">
+      <c r="I27" s="141" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="149"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="152" t="s">
+      <c r="B29" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="152" t="s">
+      <c r="C29" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="152" t="s">
+      <c r="D29" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="152" t="s">
+      <c r="E29" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="152" t="s">
+      <c r="F29" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="152" t="s">
+      <c r="G29" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="152" t="s">
+      <c r="H29" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="152" t="s">
+      <c r="I29" s="141" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
     </row>
     <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="139" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="149"/>
-      <c r="F35" s="151" t="s">
+      <c r="C35" s="138"/>
+      <c r="F35" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="151" t="s">
+      <c r="J35" s="140" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="150" t="s">
+      <c r="B36" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="150" t="s">
+      <c r="D36" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150" t="s">
+      <c r="E36" s="139"/>
+      <c r="F36" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="150" t="s">
+      <c r="G36" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="150" t="s">
+      <c r="H36" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="150" t="s">
+      <c r="J36" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="K36" s="150" t="s">
+      <c r="K36" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="L36" s="150" t="s">
+      <c r="L36" s="139" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="152" t="s">
+      <c r="C37" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="152" t="s">
+      <c r="D37" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="153"/>
-      <c r="F37" s="152" t="s">
+      <c r="E37" s="142"/>
+      <c r="F37" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="152" t="s">
+      <c r="G37" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="152" t="s">
+      <c r="H37" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="152" t="s">
+      <c r="J37" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="152" t="s">
+      <c r="K37" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="L37" s="152" t="s">
+      <c r="L37" s="141" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="149"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
-    </row>
-    <row r="39" spans="1:17" s="186" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="186" t="s">
+      <c r="A38" s="138"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+    </row>
+    <row r="39" spans="1:17" s="138" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="187" t="s">
+      <c r="D39" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="188"/>
-      <c r="F39" s="187" t="s">
+      <c r="E39" s="142"/>
+      <c r="F39" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="187" t="s">
+      <c r="G39" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="187" t="s">
+      <c r="H39" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="187" t="s">
+      <c r="J39" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="K39" s="187" t="s">
+      <c r="K39" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="187" t="s">
+      <c r="L39" s="141" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="149"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="154"/>
-      <c r="L40" s="154"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="143"/>
     </row>
     <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="152" t="s">
+      <c r="B41" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="152" t="s">
+      <c r="C41" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="152" t="s">
+      <c r="D41" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="153"/>
-      <c r="F41" s="152" t="s">
+      <c r="E41" s="142"/>
+      <c r="F41" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="152" t="s">
+      <c r="G41" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="152" t="s">
+      <c r="H41" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="152" t="s">
+      <c r="J41" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="K41" s="152" t="s">
+      <c r="K41" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="L41" s="152" t="s">
+      <c r="L41" s="141" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="149"/>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="185"/>
-      <c r="L42" s="185"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="166"/>
     </row>
     <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="149"/>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="185"/>
-      <c r="L43" s="185"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
     </row>
     <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="150" t="s">
+      <c r="A45" s="139" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="151" t="s">
+      <c r="B47" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="149"/>
-      <c r="F47" s="151" t="s">
+      <c r="C47" s="138"/>
+      <c r="F47" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="J47" s="151" t="s">
+      <c r="J47" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="K47" s="149"/>
-      <c r="N47" s="151"/>
+      <c r="K47" s="138"/>
+      <c r="N47" s="140"/>
     </row>
     <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="150" t="s">
+      <c r="C48" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="150" t="s">
+      <c r="D48" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="150" t="s">
+      <c r="E48" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="150" t="s">
+      <c r="F48" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="150" t="s">
+      <c r="G48" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="H48" s="150" t="s">
+      <c r="H48" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="150" t="s">
+      <c r="I48" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="J48" s="150" t="s">
+      <c r="J48" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="K48" s="150" t="s">
+      <c r="K48" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="L48" s="150" t="s">
+      <c r="L48" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="M48" s="150" t="s">
+      <c r="M48" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="N48" s="150"/>
-      <c r="O48" s="150"/>
-      <c r="P48" s="150"/>
-      <c r="Q48" s="150"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="139"/>
+      <c r="P48" s="139"/>
+      <c r="Q48" s="139"/>
     </row>
     <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="149" t="s">
+      <c r="A49" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="152" t="s">
+      <c r="B49" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="152" t="s">
+      <c r="C49" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="152" t="s">
+      <c r="D49" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="152" t="s">
+      <c r="E49" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="152" t="s">
+      <c r="F49" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="152" t="s">
+      <c r="G49" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="H49" s="152" t="s">
+      <c r="H49" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="152" t="s">
+      <c r="I49" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="J49" s="152" t="s">
+      <c r="J49" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="K49" s="152" t="s">
+      <c r="K49" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="L49" s="152" t="s">
+      <c r="L49" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="M49" s="152" t="s">
+      <c r="M49" s="141" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="149"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="154"/>
-      <c r="K50" s="154"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
-    </row>
-    <row r="51" spans="1:13" s="186" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="186" t="s">
+      <c r="A50" s="138"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="143"/>
+      <c r="M50" s="143"/>
+    </row>
+    <row r="51" spans="1:13" s="138" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="187" t="s">
+      <c r="B51" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="187" t="s">
+      <c r="C51" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="187" t="s">
+      <c r="D51" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="187" t="s">
+      <c r="E51" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="187" t="s">
+      <c r="F51" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="187" t="s">
+      <c r="G51" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="H51" s="187" t="s">
+      <c r="H51" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="187" t="s">
+      <c r="I51" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J51" s="187" t="s">
+      <c r="J51" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="K51" s="187" t="s">
+      <c r="K51" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="L51" s="187" t="s">
+      <c r="L51" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="M51" s="187" t="s">
+      <c r="M51" s="141" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="149"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="154"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="143"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="143"/>
+      <c r="M52" s="143"/>
     </row>
     <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="149" t="s">
+      <c r="A53" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="152" t="s">
+      <c r="B53" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="152" t="s">
+      <c r="C53" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="152" t="s">
+      <c r="D53" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="E53" s="152" t="s">
+      <c r="E53" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="152" t="s">
+      <c r="F53" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="G53" s="152" t="s">
+      <c r="G53" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="H53" s="152" t="s">
+      <c r="H53" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="I53" s="152" t="s">
+      <c r="I53" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="J53" s="152" t="s">
+      <c r="J53" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="K53" s="152" t="s">
+      <c r="K53" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="L53" s="152" t="s">
+      <c r="L53" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="M53" s="152" t="s">
+      <c r="M53" s="141" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="162" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A56" s="160" t="s">
+    <row r="56" spans="1:13" s="151" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A56" s="149" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="159" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="158"/>
-      <c r="B57" s="158" t="s">
+    <row r="57" spans="1:13" s="148" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="147"/>
+      <c r="B57" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="158" t="s">
+      <c r="C57" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="158" t="s">
+      <c r="D57" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="E57" s="158" t="s">
+      <c r="E57" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="F57" s="158" t="s">
+      <c r="F57" s="147" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="157" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="156" t="s">
+    <row r="58" spans="1:13" s="146" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="156" t="s">
+      <c r="B58" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="156" t="s">
+      <c r="C58" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="156" t="s">
+      <c r="D58" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="156" t="s">
+      <c r="E58" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="156" t="s">
+      <c r="F58" s="145" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="157" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="156" t="s">
+    <row r="59" spans="1:13" s="146" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="156" t="s">
+      <c r="C59" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="156" t="s">
+      <c r="D59" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="156" t="s">
+      <c r="E59" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="F59" s="156" t="s">
+      <c r="F59" s="145" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="157" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="156"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156" t="s">
+    <row r="60" spans="1:13" s="146" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="145"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3491,471 +3455,471 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A21" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:K7"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.73046875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="7.265625" style="50" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="7" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="5.73046875" style="50" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="7.1328125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="7.265625" style="50" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="50"/>
+    <col min="1" max="1" width="5.73046875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="7.265625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="7" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="5.73046875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="5.59765625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="7.265625" style="44" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="G7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="190"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="192"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="171"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="G8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="G9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="G9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="G10" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="G10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="196"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="189"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="196"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="175"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18"/>
-      <c r="G12" s="17" t="s">
+      <c r="C12" s="15"/>
+      <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="189"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="196"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="175"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="18"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="C13" s="15"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="207" t="s">
+      <c r="G14" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="208"/>
-      <c r="I14" s="209" t="s">
+      <c r="H14" s="187"/>
+      <c r="I14" s="188" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="210"/>
-      <c r="K14" s="211"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="190"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="216" t="s">
+      <c r="D15" s="194"/>
+      <c r="E15" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="217"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="218" t="s">
+      <c r="F15" s="196"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="202"/>
-      <c r="K15" s="197">
+      <c r="J15" s="181"/>
+      <c r="K15" s="176">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199" t="s">
+      <c r="A16" s="192"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="200" t="s">
+      <c r="D16" s="178"/>
+      <c r="E16" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="201"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="198"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="177"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="213"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199" t="s">
+      <c r="A17" s="192"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="178"/>
+      <c r="E17" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="201"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="198"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="177"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="213"/>
-      <c r="B18" s="220" t="s">
+      <c r="A18" s="192"/>
+      <c r="B18" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="199" t="s">
+      <c r="C18" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="201"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="219" t="s">
+      <c r="F18" s="180"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="203"/>
-      <c r="K18" s="198">
+      <c r="J18" s="182"/>
+      <c r="K18" s="177">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="213"/>
-      <c r="B19" s="221"/>
-      <c r="C19" s="199" t="s">
+      <c r="A19" s="192"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200" t="s">
+      <c r="D19" s="178"/>
+      <c r="E19" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="201"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="198"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="177"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="214"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="224" t="s">
+      <c r="A20" s="193"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225" t="s">
+      <c r="D20" s="203"/>
+      <c r="E20" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="226"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="205"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="215" t="s">
+      <c r="C21" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="E21" s="232" t="s">
+      <c r="D21" s="194"/>
+      <c r="E21" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="233"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="218" t="s">
+      <c r="F21" s="212"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="202"/>
-      <c r="K21" s="197">
+      <c r="J21" s="181"/>
+      <c r="K21" s="176">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="213"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="199" t="s">
+      <c r="A22" s="192"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="200" t="s">
+      <c r="D22" s="178"/>
+      <c r="E22" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="201"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="198"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="177"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="213"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="199" t="s">
+      <c r="A23" s="192"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="199"/>
-      <c r="E23" s="200" t="s">
+      <c r="D23" s="178"/>
+      <c r="E23" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="201"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="198"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="177"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="214"/>
-      <c r="B24" s="63" t="s">
+      <c r="A24" s="193"/>
+      <c r="B24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="225" t="s">
+      <c r="C24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="226"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66" t="s">
+      <c r="F24" s="205"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="166"/>
-      <c r="K24" s="163">
+      <c r="J24" s="154"/>
+      <c r="K24" s="152">
         <f>ROUND(J24*0.15,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="206" t="s">
+      <c r="C25" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="206"/>
-      <c r="E25" s="227" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="228"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70" t="s">
+      <c r="F25" s="207"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="167"/>
-      <c r="K25" s="71">
+      <c r="J25" s="155"/>
+      <c r="K25" s="65">
         <f>ROUND(J25*0.05,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="1:11" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="193">
+      <c r="I27" s="68"/>
+      <c r="J27" s="172">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="194"/>
+      <c r="K27" s="173"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="7" t="s">
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4015,17 +3979,18 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4042,459 +4007,428 @@
     <col min="14" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="177"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="165"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="J5" s="131"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="H7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="17" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="196"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="H9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="196"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="H10" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="196"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="17" t="s">
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="196"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="17" t="s">
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
-    </row>
-    <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="22">
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>2</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>3</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="18">
         <v>4</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="18">
         <v>5</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="18">
         <v>6</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="234"/>
-      <c r="B15" s="235" t="s">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="213"/>
+      <c r="B15" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="24">
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="20">
         <f>SUM(F15:K15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="237" t="s">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="213"/>
+      <c r="B16" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="24">
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="20">
         <f t="shared" ref="L16:L22" si="0">SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="24">
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="24">
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="237" t="s">
+      <c r="B19" s="216" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="24">
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="24">
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="24">
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="238" t="s">
+      <c r="B22" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="24">
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="K24" s="30" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="24"/>
+      <c r="K24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="20">
         <f>SUM(L15:L22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33" t="s">
+      <c r="B25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="28">
         <f>ROUND(+L24/6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="37"/>
+      <c r="B26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="39"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="33" t="s">
+      <c r="H27" s="33"/>
+      <c r="K27" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="36"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="2:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="45"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="79" t="s">
+      <c r="F29" s="39"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="80"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="44">
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="38">
         <f>ROUND(+L25/8,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="45"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="8"/>
+      <c r="F30" s="39"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="45"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="8"/>
+      <c r="F31" s="39"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="45"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="2" t="s">
         <v>37</v>
       </c>
@@ -4503,32 +4437,16 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="45"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="39"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4554,7 +4472,9 @@
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -4562,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4582,459 +4502,428 @@
     <col min="14" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="177"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="165"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="J5" s="131"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="H7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="17" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="196"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="H9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="196"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="H10" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="196"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="17" t="s">
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="196"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
-    </row>
-    <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="22">
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>2</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>3</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="18">
         <v>4</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="18">
         <v>5</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="18">
         <v>6</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="234"/>
-      <c r="B15" s="235" t="s">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="213"/>
+      <c r="B15" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="24">
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="20">
         <f>SUM(F15:K15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="237" t="s">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="213"/>
+      <c r="B16" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="24">
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="20">
         <f t="shared" ref="L16:L22" si="0">SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="24">
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="244" t="s">
+      <c r="B18" s="223" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="24">
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="24">
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="237" t="s">
+      <c r="B20" s="216" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="24">
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="24">
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="238" t="s">
+      <c r="B22" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="24">
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="K24" s="30" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="24"/>
+      <c r="K24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="20">
         <f>SUM(L15:L22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33" t="s">
+      <c r="B25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="28">
         <f>ROUND(L24/6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="37"/>
+      <c r="B26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="39"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="33" t="s">
+      <c r="H27" s="33"/>
+      <c r="K27" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="36"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="45"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="79" t="s">
+      <c r="F29" s="39"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="80"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="44">
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="38">
         <f>ROUND(+L25/8,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="45"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="8"/>
+      <c r="F30" s="39"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="45"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="8"/>
+      <c r="F31" s="39"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="45"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
@@ -5043,29 +4932,21 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="45"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="45"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="8"/>
+    <row r="33" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="39"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="39"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5089,21 +4970,23 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="7.874015748031496E-2"/>
+  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5120,449 +5003,419 @@
     <col min="14" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="177"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="165"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="J5" s="131"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="H7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="17" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="H9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="H10" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="195"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="17" t="s">
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="195"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="22">
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="18">
         <v>1</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="18">
         <v>2</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="18">
         <v>3</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="18">
         <v>4</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="18">
         <v>5</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="18">
         <v>6</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="235" t="s">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="213"/>
+      <c r="B16" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="24">
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="20">
         <f>SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="234"/>
-      <c r="B17" s="237" t="s">
+      <c r="A17" s="213"/>
+      <c r="B17" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="24">
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="20">
         <f t="shared" ref="L17:L21" si="0">SUM(F17:K17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="24">
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="244" t="s">
+      <c r="B19" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="24">
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="237" t="s">
+      <c r="B20" s="216" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="24">
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="237" t="s">
+      <c r="B21" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="236"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="24">
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="238" t="s">
+      <c r="B22" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="24">
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="20">
         <f>SUM(F22:K22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="26"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="K24" s="30" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="24"/>
+      <c r="K24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="20">
         <f>SUM(L16:L22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="30" t="s">
+      <c r="B25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="28">
         <f>ROUND(+L24/6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="L26" s="37"/>
+      <c r="B26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="39"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="30" t="s">
+      <c r="H27" s="33"/>
+      <c r="K27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="36"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H29" s="40"/>
-      <c r="I29" s="41" t="s">
+      <c r="H29" s="34"/>
+      <c r="I29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44">
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38">
         <f>ROUND(+L25/7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="45"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="8"/>
+      <c r="F30" s="39"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="45"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="8"/>
+      <c r="F31" s="39"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="45"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="39"/>
       <c r="H33" s="2" t="s">
         <v>37</v>
       </c>
@@ -5572,31 +5425,27 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="45"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="8"/>
+      <c r="F34" s="39"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
     </row>
     <row r="36" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5639,7 +5488,9 @@
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="35" max="16383" man="1"/>
@@ -5649,11 +5500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BC1CAD-575A-4EAE-A5CC-D41DF158ED33}">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5674,487 +5525,432 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="177"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="165"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="H7" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="181" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="196"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="H9" s="181" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="196"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="H10" s="181" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="196"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="181" t="s">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="196"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="181" t="s">
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="85"/>
+      <c r="A15" s="26"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="143" t="s">
+      <c r="A16" s="26"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="135" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="27"/>
+      <c r="H19" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="K19" s="22" t="s">
+      <c r="I19" s="80"/>
+      <c r="K19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="122" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="182"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="123">
+      <c r="C20" s="70"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="114">
         <v>0.5</v>
       </c>
-      <c r="G20" s="136"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="127">
+      <c r="G20" s="126"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="122" t="s">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="123">
+      <c r="C21" s="70"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="114">
         <v>0.3</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127">
+      <c r="G21" s="126"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="122" t="s">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="182"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="123">
+      <c r="C22" s="70"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="114">
         <v>0.1</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127">
+      <c r="G22" s="126"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118">
         <f>F22*H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="182" t="s">
+    <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="94">
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="86">
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="105" t="s">
+      <c r="F23" s="117"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="128">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
-      <c r="L24" s="108">
+      <c r="L24" s="99">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="182" t="s">
+    <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="182" t="s">
+      <c r="C27" s="71"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="184"/>
-      <c r="H27" s="95">
+      <c r="G27" s="85"/>
+      <c r="H27" s="87">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I27" s="96">
+      <c r="I27" s="88">
         <f>IFERROR(E27/H27,10)</f>
         <v>10</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="97">
+      <c r="J27" s="83"/>
+      <c r="K27" s="89">
         <f>10-I27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="101" t="s">
+    <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="170"/>
-    </row>
-    <row r="31" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="88"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="105" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="158"/>
+    </row>
+    <row r="31" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="92"/>
+      <c r="L31" s="81"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="98">
         <f>K27-K30</f>
         <v>0</v>
       </c>
-      <c r="L32" s="108">
+      <c r="L32" s="99">
         <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I34" s="79" t="s">
+      <c r="I34" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="139">
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="129">
         <f>ROUND(K24*0.3 + K32*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="140"/>
+      <c r="L35" s="130"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="140"/>
+      <c r="L36" s="130"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L37" s="140"/>
+      <c r="L37" s="130"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
       <c r="H42" s="2" t="s">
         <v>37</v>
       </c>
@@ -6180,18 +5976,20 @@
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6212,487 +6010,432 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="177"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="165"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="H7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="17" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="196"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="H9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="196"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="H10" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="196"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="196"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="85"/>
+      <c r="A15" s="26"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="143" t="s">
+      <c r="A16" s="26"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="135" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="27"/>
+      <c r="H19" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="K19" s="22" t="s">
+      <c r="I19" s="80"/>
+      <c r="K19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="122" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="123">
+      <c r="C20" s="70"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="114">
         <v>0.5</v>
       </c>
-      <c r="G20" s="136"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="127">
+      <c r="G20" s="126"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="122" t="s">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="123">
+      <c r="C21" s="70"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="114">
         <v>0.3</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127">
+      <c r="G21" s="126"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="122" t="s">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="123">
+      <c r="C22" s="70"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="114">
         <v>0.1</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127">
+      <c r="G22" s="126"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118">
         <f>F22*H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="76" t="s">
+    <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="94">
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="86">
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="105" t="s">
+      <c r="F23" s="117"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="128">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
-      <c r="L24" s="108">
+      <c r="L24" s="99">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="76" t="s">
+    <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="76" t="s">
+      <c r="C27" s="71"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="95">
+      <c r="G27" s="85"/>
+      <c r="H27" s="87">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I27" s="96">
+      <c r="I27" s="88">
         <f>IFERROR(E27/H27,10)</f>
         <v>10</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="97">
+      <c r="J27" s="83"/>
+      <c r="K27" s="89">
         <f>10-I27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="101" t="s">
+    <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="170"/>
-    </row>
-    <row r="31" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="88"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="105" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="158"/>
+    </row>
+    <row r="31" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="92"/>
+      <c r="L31" s="81"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="98">
         <f>K27-K30</f>
         <v>0</v>
       </c>
-      <c r="L32" s="108">
+      <c r="L32" s="99">
         <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I34" s="79" t="s">
+      <c r="I34" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="139">
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="129">
         <f>ROUND(K24*0.3 + K32*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="140"/>
+      <c r="L35" s="130"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="140"/>
+      <c r="L36" s="130"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L37" s="140"/>
+      <c r="L37" s="130"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
       <c r="H42" s="2" t="s">
         <v>37</v>
       </c>
@@ -6719,18 +6462,20 @@
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6751,488 +6496,433 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="177"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="165"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="H7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="17" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="196"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="H9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="196"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="H10" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="196"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="196"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="85"/>
+      <c r="A15" s="26"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="143" t="s">
+      <c r="A16" s="26"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="121" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="27"/>
+      <c r="H19" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="K19" s="22" t="s">
+      <c r="I19" s="80"/>
+      <c r="K19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="122" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="123">
+      <c r="C20" s="70"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="114">
         <v>0.4</v>
       </c>
-      <c r="G20" s="124"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="127">
+      <c r="G20" s="115"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118">
         <f>F20*H20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="122" t="s">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="123">
+      <c r="C21" s="70"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="114">
         <v>0.3</v>
       </c>
-      <c r="G21" s="124"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127">
+      <c r="G21" s="115"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118">
         <f>F21*H21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="122" t="s">
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="123">
+      <c r="C22" s="70"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="114">
         <v>0.1</v>
       </c>
-      <c r="G22" s="124"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127">
+      <c r="G22" s="115"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118">
         <f>F22*H22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="76" t="s">
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="94">
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="86">
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="128" t="s">
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="107">
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="98">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
-      <c r="L24" s="108">
+      <c r="L24" s="99">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="108"/>
-    </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="25" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="99"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="76" t="s">
+    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="76" t="s">
+      <c r="C28" s="71"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="95">
+      <c r="G28" s="85"/>
+      <c r="H28" s="87">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I28" s="96">
+      <c r="I28" s="88">
         <f>IFERROR(E28/H28,10)</f>
         <v>10</v>
       </c>
-      <c r="J28" s="91"/>
-      <c r="K28" s="97">
+      <c r="J28" s="83"/>
+      <c r="K28" s="89">
         <f>10-I28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="100"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="101" t="s">
+    <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="170"/>
-    </row>
-    <row r="32" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="88"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="158"/>
+    </row>
+    <row r="32" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="92"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G33" s="105" t="s">
+      <c r="G33" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="98">
         <f>K28-K31</f>
         <v>0</v>
       </c>
-      <c r="L33" s="108">
+      <c r="L33" s="99">
         <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="79" t="s">
+      <c r="I35" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="110">
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="101">
         <f>ROUND(K24*0.3 + K33*0.7,3)</f>
         <v>0</v>
       </c>
@@ -7241,10 +6931,10 @@
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
       <c r="H42" s="2" t="s">
         <v>37</v>
       </c>
@@ -7270,18 +6960,20 @@
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A18" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7302,331 +6994,327 @@
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="177"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="165"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="H7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="17" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="189"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="196"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="H9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="189"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="196"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="H10" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="189"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="196"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="196"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="C12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="196"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="18"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="C13" s="15"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="249" t="s">
+      <c r="B15" s="228" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="250"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="250"/>
-      <c r="F15" s="250"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="250"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="111" t="s">
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="171"/>
-      <c r="L15" s="112">
+      <c r="K15" s="159"/>
+      <c r="L15" s="103">
         <f>K15*0.25</f>
         <v>0</v>
       </c>
-      <c r="M15" s="113"/>
+      <c r="M15" s="104"/>
     </row>
     <row r="16" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="247"/>
-      <c r="B16" s="252" t="s">
+      <c r="A16" s="226"/>
+      <c r="B16" s="231" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="253"/>
-      <c r="D16" s="253"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="114" t="s">
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="232"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="172"/>
-      <c r="L16" s="115">
+      <c r="K16" s="160"/>
+      <c r="L16" s="106">
         <f>K16*0.25</f>
         <v>0</v>
       </c>
-      <c r="M16" s="113"/>
+      <c r="M16" s="104"/>
     </row>
     <row r="17" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="254" t="s">
+      <c r="B17" s="233" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="255"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="111" t="s">
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="173"/>
-      <c r="L17" s="116">
+      <c r="K17" s="161"/>
+      <c r="L17" s="107">
         <f>K17*0.2</f>
         <v>0</v>
       </c>
-      <c r="M17" s="113"/>
+      <c r="M17" s="104"/>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="248"/>
-      <c r="B18" s="256" t="s">
+      <c r="A18" s="227"/>
+      <c r="B18" s="235" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="117" t="s">
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="236"/>
+      <c r="J18" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="174"/>
-      <c r="L18" s="118">
+      <c r="K18" s="162"/>
+      <c r="L18" s="109">
         <f>K18*0.2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="113"/>
+      <c r="M18" s="104"/>
     </row>
     <row r="19" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="247"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="226"/>
+      <c r="B19" s="231" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="253"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="114" t="s">
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="175"/>
-      <c r="L19" s="119">
+      <c r="K19" s="163"/>
+      <c r="L19" s="110">
         <f>K19*0.1</f>
         <v>0</v>
       </c>
-      <c r="M19" s="113"/>
+      <c r="M19" s="104"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="120">
+      <c r="L20" s="111">
         <f>SUM(L15:L19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="104"/>
+      <c r="L21" s="92"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="176"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="164"/>
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L23" s="104"/>
+      <c r="L23" s="92"/>
     </row>
     <row r="24" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="79" t="s">
+      <c r="I24" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="110">
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="101">
         <f>SUM(L15:L19)-L22</f>
         <v>0</v>
       </c>
@@ -7635,10 +7323,10 @@
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="H27" s="2" t="s">
         <v>37</v>
       </c>
@@ -7671,31 +7359,15 @@
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7761,30 +7433,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7799,4 +7466,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E7595-C297-4517-8696-6FE0F61ED7D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058A3C12-0AFF-4CFD-BD93-DAD765ABF7F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9397" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="159">
   <si>
     <t>1)</t>
   </si>
@@ -577,9 +577,6 @@
   </si>
   <si>
     <t>Lag kür tekn sr</t>
-  </si>
-  <si>
-    <t>Grund 1</t>
   </si>
   <si>
     <t xml:space="preserve">Svår klass seniorlag kür </t>
@@ -710,9 +707,6 @@
     <t>Sving baklänges, inkl avgång</t>
   </si>
   <si>
-    <t>Avhopp, inåt</t>
-  </si>
-  <si>
     <t>Avhopp, utåt</t>
   </si>
   <si>
@@ -738,6 +732,9 @@
   </si>
   <si>
     <t>Protokollen uppdaterades senast 2019-03-28.</t>
+  </si>
+  <si>
+    <t>Sidhopp del 1 och avgång inåt med tryck</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1617,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2053,11 +2050,103 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2067,23 +2156,12 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2099,86 +2177,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2186,12 +2195,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2201,15 +2204,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2251,6 +2245,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2604,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2625,17 +2628,17 @@
     </row>
     <row r="3" spans="1:8" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="167" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="167" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="167" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="167" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="167" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2694,17 +2697,17 @@
         <v>114</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="142"/>
       <c r="F15" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G15" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H15" s="141" t="s">
         <v>118</v>
@@ -2728,17 +2731,17 @@
         <v>114</v>
       </c>
       <c r="C17" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="142"/>
       <c r="F17" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G17" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17" s="141" t="s">
         <v>118</v>
@@ -2762,10 +2765,10 @@
         <v>114</v>
       </c>
       <c r="C19" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D19" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" s="142"/>
       <c r="F19" s="141" t="s">
@@ -2836,25 +2839,25 @@
         <v>114</v>
       </c>
       <c r="C25" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E25" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G25" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H25" s="141" t="s">
         <v>118</v>
       </c>
       <c r="I25" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2876,25 +2879,25 @@
         <v>114</v>
       </c>
       <c r="C27" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E27" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G27" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H27" s="141" t="s">
         <v>118</v>
       </c>
       <c r="I27" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2916,13 +2919,13 @@
         <v>114</v>
       </c>
       <c r="C29" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F29" s="141" t="s">
         <v>114</v>
@@ -3010,17 +3013,17 @@
         <v>114</v>
       </c>
       <c r="C37" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D37" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E37" s="142"/>
       <c r="F37" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G37" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="141" t="s">
         <v>118</v>
@@ -3029,7 +3032,7 @@
         <v>114</v>
       </c>
       <c r="K37" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L37" s="141" t="s">
         <v>118</v>
@@ -3056,17 +3059,17 @@
         <v>114</v>
       </c>
       <c r="C39" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E39" s="142"/>
       <c r="F39" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G39" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H39" s="141" t="s">
         <v>118</v>
@@ -3075,7 +3078,7 @@
         <v>114</v>
       </c>
       <c r="K39" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L39" s="141" t="s">
         <v>118</v>
@@ -3102,10 +3105,10 @@
         <v>114</v>
       </c>
       <c r="C41" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D41" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E41" s="142"/>
       <c r="F41" s="141" t="s">
@@ -3222,37 +3225,37 @@
         <v>114</v>
       </c>
       <c r="C49" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E49" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F49" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G49" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H49" s="141" t="s">
         <v>118</v>
       </c>
       <c r="I49" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J49" s="141" t="s">
         <v>114</v>
       </c>
       <c r="K49" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L49" s="141" t="s">
         <v>118</v>
       </c>
       <c r="M49" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3278,37 +3281,37 @@
         <v>114</v>
       </c>
       <c r="C51" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" s="141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F51" s="141" t="s">
         <v>114</v>
       </c>
       <c r="G51" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H51" s="141" t="s">
         <v>118</v>
       </c>
       <c r="I51" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J51" s="141" t="s">
         <v>114</v>
       </c>
       <c r="K51" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L51" s="141" t="s">
         <v>118</v>
       </c>
       <c r="M51" s="141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3334,13 +3337,13 @@
         <v>114</v>
       </c>
       <c r="C53" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E53" s="141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F53" s="141" t="s">
         <v>114</v>
@@ -3446,7 +3449,8 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3455,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3522,9 +3526,9 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14" t="s">
         <v>17</v>
@@ -3538,9 +3542,9 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3556,77 +3560,77 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="171"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
       <c r="G8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
       <c r="G9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="168"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
       <c r="G10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="168"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="196"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="175"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="196"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="15"/>
       <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="168"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="175"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="196"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="15"/>
@@ -3637,44 +3641,44 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="186" t="s">
+      <c r="G14" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188" t="s">
+      <c r="H14" s="198"/>
+      <c r="I14" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="189"/>
-      <c r="K14" s="190"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
     </row>
     <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="195" t="s">
+      <c r="D15" s="184"/>
+      <c r="E15" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="196"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="45"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="197" t="s">
+      <c r="I15" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="181"/>
-      <c r="K15" s="176">
+      <c r="J15" s="208"/>
+      <c r="K15" s="206">
         <f>ROUND(J15*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="192"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="178"/>
       <c r="C16" s="178" t="s">
         <v>27</v>
@@ -3686,12 +3690,12 @@
       <c r="F16" s="180"/>
       <c r="G16" s="47"/>
       <c r="H16" s="48"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="207"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="192"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="178"/>
       <c r="C17" s="178" t="s">
         <v>26</v>
@@ -3703,13 +3707,13 @@
       <c r="F17" s="180"/>
       <c r="G17" s="49"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="207"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="192"/>
-      <c r="B18" s="199" t="s">
+      <c r="A18" s="171"/>
+      <c r="B18" s="189" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="178" t="s">
@@ -3722,18 +3726,18 @@
       <c r="F18" s="180"/>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="198" t="s">
+      <c r="I18" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="182"/>
-      <c r="K18" s="177">
+      <c r="J18" s="209"/>
+      <c r="K18" s="207">
         <f>ROUND(J18*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="192"/>
-      <c r="B19" s="200"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="190"/>
       <c r="C19" s="178" t="s">
         <v>28</v>
       </c>
@@ -3744,56 +3748,56 @@
       <c r="F19" s="180"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="207"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="193"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="203" t="s">
+      <c r="A20" s="172"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="204" t="s">
+      <c r="D20" s="181"/>
+      <c r="E20" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="205"/>
+      <c r="F20" s="183"/>
       <c r="G20" s="53"/>
       <c r="H20" s="54"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="211"/>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="194" t="s">
+      <c r="C21" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="194"/>
-      <c r="E21" s="211" t="s">
+      <c r="D21" s="184"/>
+      <c r="E21" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="212"/>
+      <c r="F21" s="186"/>
       <c r="G21" s="55"/>
       <c r="H21" s="56"/>
-      <c r="I21" s="197" t="s">
+      <c r="I21" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="181"/>
-      <c r="K21" s="176">
+      <c r="J21" s="208"/>
+      <c r="K21" s="206">
         <f>ROUND(J21*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="192"/>
-      <c r="B22" s="209"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="178" t="s">
         <v>31</v>
       </c>
@@ -3804,13 +3808,13 @@
       <c r="F22" s="180"/>
       <c r="G22" s="47"/>
       <c r="H22" s="48"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="207"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="192"/>
-      <c r="B23" s="210"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="178" t="s">
         <v>32</v>
       </c>
@@ -3821,21 +3825,21 @@
       <c r="F23" s="180"/>
       <c r="G23" s="49"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="207"/>
     </row>
     <row r="24" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="193"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="203"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204" t="s">
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="205"/>
+      <c r="F24" s="183"/>
       <c r="G24" s="58"/>
       <c r="H24" s="59"/>
       <c r="I24" s="60" t="s">
@@ -3854,14 +3858,14 @@
       <c r="B25" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="206" t="s">
+      <c r="D25" s="212"/>
+      <c r="E25" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="207"/>
+      <c r="F25" s="169"/>
       <c r="G25" s="62"/>
       <c r="H25" s="63"/>
       <c r="I25" s="64" t="s">
@@ -3898,11 +3902,11 @@
         <v>16</v>
       </c>
       <c r="I27" s="68"/>
-      <c r="J27" s="172">
+      <c r="J27" s="204">
         <f>SUM(K15:K25)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="173"/>
+      <c r="K27" s="205"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
@@ -3923,40 +3927,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C6:E6"/>
@@ -3973,13 +3943,48 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -3989,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4022,7 +4027,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="14" t="s">
@@ -4054,10 +4059,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
         <v>17</v>
@@ -4071,10 +4076,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4091,79 +4096,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
       <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
@@ -4193,12 +4198,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="214" t="s">
+      <c r="A15" s="217"/>
+      <c r="B15" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="19"/>
       <c r="F15" s="156"/>
       <c r="G15" s="156"/>
@@ -4212,12 +4217,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="216" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="19"/>
       <c r="F16" s="156"/>
       <c r="G16" s="156"/>
@@ -4231,11 +4236,11 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="213" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="19"/>
       <c r="F17" s="156"/>
       <c r="G17" s="156"/>
@@ -4249,11 +4254,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="220" t="s">
+      <c r="B18" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
       <c r="E18" s="19"/>
       <c r="F18" s="156"/>
       <c r="G18" s="156"/>
@@ -4267,11 +4272,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="21"/>
       <c r="F19" s="156"/>
       <c r="G19" s="156"/>
@@ -4321,12 +4326,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="217" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
+      <c r="B22" s="219" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="221"/>
       <c r="F22" s="156"/>
       <c r="G22" s="156"/>
       <c r="H22" s="156"/>
@@ -4450,6 +4455,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4463,18 +4473,14 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -4484,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="14" t="s">
@@ -4549,10 +4555,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
         <v>17</v>
@@ -4566,10 +4572,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4586,80 +4592,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
       <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="15"/>
       <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
@@ -4689,12 +4695,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="214" t="s">
+      <c r="A15" s="217"/>
+      <c r="B15" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="19"/>
       <c r="F15" s="156"/>
       <c r="G15" s="156"/>
@@ -4708,12 +4714,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="216" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="19"/>
       <c r="F16" s="156"/>
       <c r="G16" s="156"/>
@@ -4727,11 +4733,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="19"/>
       <c r="F17" s="156"/>
       <c r="G17" s="156"/>
@@ -4745,11 +4751,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="19"/>
       <c r="F18" s="156"/>
       <c r="G18" s="156"/>
@@ -4763,11 +4769,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="21"/>
       <c r="F19" s="156"/>
       <c r="G19" s="156"/>
@@ -4781,11 +4787,11 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="216" t="s">
+      <c r="B20" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="19"/>
       <c r="F20" s="156"/>
       <c r="G20" s="156"/>
@@ -4816,12 +4822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="217" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
+    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="236" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="237"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="72"/>
       <c r="F22" s="156"/>
       <c r="G22" s="156"/>
@@ -4950,6 +4956,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -4962,20 +4975,14 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -4985,8 +4992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5018,7 +5025,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="14" t="s">
@@ -5050,10 +5057,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
         <v>17</v>
@@ -5067,10 +5074,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5087,80 +5094,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
       <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="195"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="15"/>
       <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5197,12 +5204,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="214" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="19"/>
       <c r="F16" s="156"/>
       <c r="G16" s="156"/>
@@ -5216,12 +5223,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="213"/>
-      <c r="B17" s="216" t="s">
+      <c r="A17" s="217"/>
+      <c r="B17" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="19"/>
       <c r="F17" s="156"/>
       <c r="G17" s="156"/>
@@ -5235,11 +5242,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="19"/>
       <c r="F18" s="156"/>
       <c r="G18" s="156"/>
@@ -5253,11 +5260,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="19"/>
       <c r="F19" s="156"/>
       <c r="G19" s="156"/>
@@ -5271,12 +5278,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="216" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="224"/>
+      <c r="B20" s="213" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="223"/>
       <c r="F20" s="156"/>
       <c r="G20" s="156"/>
       <c r="H20" s="156"/>
@@ -5289,11 +5296,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="19"/>
       <c r="F21" s="156"/>
       <c r="G21" s="156"/>
@@ -5307,12 +5314,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="217" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
+      <c r="B22" s="219" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="221"/>
       <c r="F22" s="156"/>
       <c r="G22" s="156"/>
       <c r="H22" s="156"/>
@@ -5465,6 +5472,13 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5477,20 +5491,14 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="35" max="16383" man="1"/>
@@ -5503,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5526,7 +5534,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="14" t="s">
@@ -5570,10 +5578,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
         <v>17</v>
@@ -5587,10 +5595,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5607,79 +5615,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
       <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5978,7 +5986,8 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -5988,8 +5997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6011,7 +6020,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="14" t="s">
@@ -6055,10 +6064,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
         <v>17</v>
@@ -6072,10 +6081,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
@@ -6092,79 +6101,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
       <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6464,7 +6473,8 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -6474,8 +6484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6497,7 +6507,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="14" t="s">
@@ -6541,10 +6551,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
         <v>17</v>
@@ -6558,10 +6568,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
@@ -6578,79 +6588,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
       <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6721,12 +6731,17 @@
       </c>
       <c r="C20" s="70"/>
       <c r="D20" s="85"/>
-      <c r="E20" s="157"/>
+      <c r="E20" s="157">
+        <v>0</v>
+      </c>
       <c r="F20" s="114">
         <v>0.4</v>
       </c>
       <c r="G20" s="115"/>
-      <c r="H20" s="157"/>
+      <c r="H20" s="238">
+        <f>IF(E20&gt;24,25,E20)</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="116"/>
       <c r="J20" s="117"/>
       <c r="K20" s="118">
@@ -6741,12 +6756,17 @@
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="85"/>
-      <c r="E21" s="157"/>
+      <c r="E21" s="157">
+        <v>0</v>
+      </c>
       <c r="F21" s="114">
         <v>0.3</v>
       </c>
       <c r="G21" s="115"/>
-      <c r="H21" s="157"/>
+      <c r="H21" s="238">
+        <f>IF(SUM(E20:E21)&gt;24,25-H20,E21)</f>
+        <v>0</v>
+      </c>
       <c r="I21" s="116"/>
       <c r="J21" s="117"/>
       <c r="K21" s="118">
@@ -6761,12 +6781,17 @@
       </c>
       <c r="C22" s="70"/>
       <c r="D22" s="85"/>
-      <c r="E22" s="157"/>
+      <c r="E22" s="157">
+        <v>0</v>
+      </c>
       <c r="F22" s="114">
         <v>0.1</v>
       </c>
       <c r="G22" s="115"/>
-      <c r="H22" s="157"/>
+      <c r="H22" s="238">
+        <f>IF(SUM(E20:E22)&gt;24,IF(25-SUM(H20:H21)&gt;0,25-SUM(H20:H21),0),E22)</f>
+        <v>0</v>
+      </c>
       <c r="I22" s="116"/>
       <c r="J22" s="117"/>
       <c r="K22" s="118">
@@ -6849,7 +6874,9 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="85"/>
-      <c r="E28" s="157"/>
+      <c r="E28" s="157">
+        <v>0</v>
+      </c>
       <c r="F28" s="70" t="s">
         <v>80</v>
       </c>
@@ -6894,7 +6921,9 @@
       <c r="H31" s="13"/>
       <c r="I31" s="94"/>
       <c r="J31" s="95"/>
-      <c r="K31" s="158"/>
+      <c r="K31" s="158">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K32" s="92"/>
@@ -6962,7 +6991,8 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -6972,8 +7002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7039,10 +7069,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
         <v>17</v>
@@ -7056,10 +7086,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7076,80 +7106,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
       <c r="H8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="H10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="175"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="15"/>
       <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="15"/>
@@ -7165,19 +7195,19 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="225" t="s">
+      <c r="A15" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="228" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="229"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="230"/>
+      <c r="B15" s="227" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="229"/>
       <c r="J15" s="102" t="s">
         <v>7</v>
       </c>
@@ -7189,17 +7219,17 @@
       <c r="M15" s="104"/>
     </row>
     <row r="16" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="226"/>
-      <c r="B16" s="231" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
+      <c r="A16" s="225"/>
+      <c r="B16" s="230" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="231"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
       <c r="J16" s="105" t="s">
         <v>8</v>
       </c>
@@ -7211,19 +7241,19 @@
       <c r="M16" s="104"/>
     </row>
     <row r="17" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="225" t="s">
+      <c r="A17" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="233" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="234"/>
+      <c r="B17" s="232" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
       <c r="J17" s="102" t="s">
         <v>9</v>
       </c>
@@ -7235,17 +7265,17 @@
       <c r="M17" s="104"/>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="227"/>
-      <c r="B18" s="235" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="236"/>
-      <c r="G18" s="236"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="236"/>
+      <c r="A18" s="226"/>
+      <c r="B18" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
       <c r="J18" s="108" t="s">
         <v>10</v>
       </c>
@@ -7257,17 +7287,17 @@
       <c r="M18" s="104"/>
     </row>
     <row r="19" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="226"/>
-      <c r="B19" s="231" t="s">
+      <c r="A19" s="225"/>
+      <c r="B19" s="230" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="232"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="231"/>
       <c r="J19" s="105" t="s">
         <v>11</v>
       </c>
@@ -7337,6 +7367,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7348,26 +7385,38 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter xml:space="preserve">&amp;R2019-06-01
+</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7433,37 +7482,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7484,9 +7506,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6E0A0-54DB-49BC-A76C-D1059549E787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2716D4-2526-4675-A551-15D8CD10307A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2105,103 +2105,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2222,255 +2125,352 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C25329-D17D-4FF2-BF65-A450782F317F}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:I26"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3757,406 +3757,428 @@
     <col min="13" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="177" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" s="177" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="178" t="s">
+    <row r="1" spans="1:12" s="142" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" s="142" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="179"/>
-      <c r="H2" s="180" t="s">
+      <c r="G2" s="144"/>
+      <c r="H2" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183"/>
-    </row>
-    <row r="3" spans="1:12" s="177" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184" t="s">
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="148"/>
+    </row>
+    <row r="3" spans="1:12" s="142" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="179"/>
-      <c r="H3" s="180" t="s">
+      <c r="G3" s="144"/>
+      <c r="H3" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="183"/>
-    </row>
-    <row r="4" spans="1:12" s="177" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="185" t="s">
+      <c r="I3" s="146"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
+    </row>
+    <row r="4" spans="1:12" s="142" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="187"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="180" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="151"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="181"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="183"/>
-    </row>
-    <row r="5" spans="1:12" s="177" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="188" t="s">
+      <c r="I4" s="146"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
+    </row>
+    <row r="5" spans="1:12" s="142" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="180" t="s">
+      <c r="B5" s="152"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="190"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="183"/>
-    </row>
-    <row r="6" spans="1:12" s="177" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188" t="s">
+      <c r="I5" s="153"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="148"/>
+    </row>
+    <row r="6" spans="1:12" s="142" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="G6" s="177" t="s">
+      <c r="B6" s="152"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="G6" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="191"/>
-    </row>
-    <row r="7" spans="1:12" s="177" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188" t="s">
+      <c r="K6" s="154"/>
+    </row>
+    <row r="7" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="G7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
-    </row>
-    <row r="8" spans="1:12" s="177" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="G7" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="233"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="235"/>
+    </row>
+    <row r="8" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="G8" s="188" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="G8" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
-    </row>
-    <row r="9" spans="1:12" s="177" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188" t="s">
+      <c r="H8" s="229"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
+    </row>
+    <row r="9" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="G9" s="188" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="G9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-    </row>
-    <row r="10" spans="1:12" s="177" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="188" t="s">
+      <c r="H9" s="229"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="231"/>
+    </row>
+    <row r="10" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="G10" s="188" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="G10" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="197"/>
-    </row>
-    <row r="11" spans="1:12" s="177" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="188" t="s">
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="231"/>
+    </row>
+    <row r="11" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="189"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
-    </row>
-    <row r="12" spans="1:12" s="177" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="198"/>
-      <c r="G12" s="188" t="s">
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="231"/>
+    </row>
+    <row r="12" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="156"/>
+      <c r="G12" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="189"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="197"/>
-    </row>
-    <row r="13" spans="1:12" s="177" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="198"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="199"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="231"/>
+    </row>
+    <row r="13" spans="1:12" s="142" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="177"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="202" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="203"/>
-      <c r="J14" s="204" t="s">
+      <c r="I14" s="205"/>
+      <c r="J14" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="205"/>
-      <c r="L14" s="206"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="208"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="208"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="211" t="s">
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="212">
+      <c r="K15" s="225">
         <f>SUM(B20:G20)/6</f>
         <v>0</v>
       </c>
-      <c r="L15" s="213">
+      <c r="L15" s="203">
         <f>ROUND(K15*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="214"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="220"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="185"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="214"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="220"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="185"/>
     </row>
     <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="151"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="220"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="185"/>
     </row>
     <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="221"/>
-      <c r="B19" s="222" t="s">
+      <c r="A19" s="211"/>
+      <c r="B19" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="223" t="s">
+      <c r="E19" s="161" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="223" t="s">
+      <c r="F19" s="161" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="225" t="s">
+      <c r="G19" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="216"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="220"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="185"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="226"/>
-      <c r="B20" s="227">
-        <v>0</v>
-      </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="234"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="164">
+        <v>0</v>
+      </c>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="228"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="235" t="s">
+      <c r="A21" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="236" t="s">
+      <c r="B21" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="236"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="238"/>
-      <c r="J21" s="239" t="s">
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="240"/>
-      <c r="L21" s="213">
-        <f>ROUND((K21-K24)*0.25,3)</f>
+      <c r="K21" s="201">
+        <v>0</v>
+      </c>
+      <c r="L21" s="203">
+        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="241"/>
-      <c r="B22" s="242"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="243"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="246"/>
-      <c r="L22" s="220"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="185"/>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="241"/>
-      <c r="B23" s="247"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="220"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="185"/>
     </row>
     <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="248"/>
-      <c r="B24" s="249" t="s">
+      <c r="A24" s="175"/>
+      <c r="B24" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="250"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="254">
+      <c r="C24" s="168">
+        <v>0</v>
+      </c>
+      <c r="D24" s="168">
+        <v>0</v>
+      </c>
+      <c r="E24" s="168">
+        <v>0</v>
+      </c>
+      <c r="F24" s="168">
+        <v>0</v>
+      </c>
+      <c r="G24" s="168">
+        <v>0</v>
+      </c>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="169">
         <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="255"/>
+      <c r="L24" s="186"/>
     </row>
     <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="236" t="s">
+      <c r="B25" s="176" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="258"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="218" t="s">
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="260"/>
-      <c r="L25" s="220">
-        <f>ROUND((K25-K26)*0.15,3)</f>
+      <c r="K25" s="170">
+        <v>0</v>
+      </c>
+      <c r="L25" s="185">
+        <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="248"/>
-      <c r="B26" s="261" t="s">
+      <c r="A26" s="175"/>
+      <c r="B26" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="262"/>
-      <c r="I26" s="263"/>
-      <c r="J26" s="264"/>
-      <c r="K26" s="254">
+      <c r="C26" s="168">
+        <v>0</v>
+      </c>
+      <c r="D26" s="168">
+        <v>0</v>
+      </c>
+      <c r="E26" s="168">
+        <v>0</v>
+      </c>
+      <c r="F26" s="168">
+        <v>0</v>
+      </c>
+      <c r="G26" s="168"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="169">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="255"/>
+      <c r="L26" s="186"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4174,37 +4196,52 @@
         <v>14</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="146">
+      <c r="K28" s="187">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="147"/>
+      <c r="L28" s="188"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="265" t="s">
+      <c r="A32" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="265"/>
-      <c r="C32" s="265"/>
-      <c r="D32" s="265"/>
-      <c r="E32" s="265"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="185" t="s">
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A21:A24"/>
@@ -4213,26 +4250,11 @@
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L21:L24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4314,10 +4336,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4331,10 +4353,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4351,79 +4373,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4453,12 +4475,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="153" t="s">
+      <c r="A15" s="246"/>
+      <c r="B15" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4472,12 +4494,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="155" t="s">
+      <c r="A16" s="246"/>
+      <c r="B16" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -4491,11 +4513,11 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -4509,11 +4531,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="245"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -4527,11 +4549,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -4581,12 +4603,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="248" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="158"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="250"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -4710,6 +4732,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4723,11 +4750,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4810,10 +4832,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4827,10 +4849,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4847,80 +4869,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4950,12 +4972,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="153" t="s">
+      <c r="A15" s="246"/>
+      <c r="B15" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4969,12 +4991,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="155" t="s">
+      <c r="A16" s="246"/>
+      <c r="B16" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -4988,11 +5010,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5006,11 +5028,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5024,11 +5046,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5042,11 +5064,11 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="18"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -5078,11 +5100,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="251" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
+      <c r="C22" s="252"/>
+      <c r="D22" s="252"/>
       <c r="E22" s="49"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
@@ -5211,6 +5233,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5223,13 +5252,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5312,10 +5334,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5329,10 +5351,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5349,80 +5371,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5459,12 +5481,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="153" t="s">
+      <c r="A16" s="246"/>
+      <c r="B16" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -5478,12 +5500,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="155" t="s">
+      <c r="A17" s="246"/>
+      <c r="B17" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5497,11 +5519,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5515,11 +5537,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="18"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5533,12 +5555,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="164"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
+      <c r="E20" s="254"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
       <c r="H20" s="129"/>
@@ -5551,11 +5573,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="18"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -5569,12 +5591,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="248" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="158"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="250"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -5727,6 +5749,13 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5739,13 +5768,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5833,10 +5855,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5850,10 +5872,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5870,79 +5892,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6319,10 +6341,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6336,10 +6358,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6356,79 +6378,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6806,10 +6828,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6823,10 +6845,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6843,79 +6865,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -7324,10 +7346,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -7341,10 +7363,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7361,80 +7383,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="142"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7450,19 +7472,19 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="168" t="s">
+      <c r="B15" s="258" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="260"/>
       <c r="J15" s="79" t="s">
         <v>7</v>
       </c>
@@ -7474,17 +7496,17 @@
       <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="166"/>
-      <c r="B16" s="171" t="s">
+      <c r="A16" s="256"/>
+      <c r="B16" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="262"/>
+      <c r="I16" s="262"/>
       <c r="J16" s="82" t="s">
         <v>8</v>
       </c>
@@ -7496,19 +7518,19 @@
       <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="264"/>
+      <c r="I17" s="264"/>
       <c r="J17" s="79" t="s">
         <v>9</v>
       </c>
@@ -7520,17 +7542,17 @@
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="167"/>
-      <c r="B18" s="175" t="s">
+      <c r="A18" s="257"/>
+      <c r="B18" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="266"/>
       <c r="J18" s="85" t="s">
         <v>10</v>
       </c>
@@ -7542,17 +7564,17 @@
       <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="166"/>
-      <c r="B19" s="171" t="s">
+      <c r="A19" s="256"/>
+      <c r="B19" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
+      <c r="C19" s="262"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="262"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="262"/>
       <c r="J19" s="82" t="s">
         <v>11</v>
       </c>
@@ -7622,6 +7644,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7633,13 +7662,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7654,24 +7676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7737,30 +7741,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7775,4 +7774,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2716D4-2526-4675-A551-15D8CD10307A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B8F40-7E8E-43BD-B02F-368D60E53801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="5400" windowHeight="3172" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <definedName name="moment" localSheetId="6">'Lag kür tekn junior'!$L$5</definedName>
     <definedName name="moment" localSheetId="5">'Lag kür tekn mellan'!$L$5</definedName>
     <definedName name="moment" localSheetId="7">'Lag kür tekn sr'!$L$5</definedName>
-    <definedName name="result" localSheetId="1">'Häst, lag'!#REF!</definedName>
+    <definedName name="result" localSheetId="1">'Häst, lag'!$K$28</definedName>
     <definedName name="result" localSheetId="2">'Lag grund A'!$L$29</definedName>
     <definedName name="result" localSheetId="3">'Lag grund B'!$L$29</definedName>
     <definedName name="result" localSheetId="4">'Lag grund D'!$L$29</definedName>
@@ -2192,19 +2192,180 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2223,181 +2384,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2408,21 +2423,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C25329-D17D-4FF2-BF65-A450782F317F}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="E25" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3787,8 +3787,8 @@
         <v>16</v>
       </c>
       <c r="B4" s="150"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="151"/>
       <c r="G4" s="144"/>
       <c r="H4" s="145" t="s">
@@ -3803,9 +3803,9 @@
         <v>17</v>
       </c>
       <c r="B5" s="152"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
       <c r="G5" s="144"/>
       <c r="H5" s="145" t="s">
         <v>15</v>
@@ -3819,9 +3819,9 @@
         <v>18</v>
       </c>
       <c r="B6" s="152"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
       <c r="G6" s="142" t="s">
         <v>20</v>
       </c>
@@ -3838,77 +3838,77 @@
       <c r="G7" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="233"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="235"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
     </row>
     <row r="8" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="150" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="150"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
       <c r="G8" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="229"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="231"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="152"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
       <c r="G9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="229"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="231"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
     </row>
     <row r="10" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="152" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="152"/>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
       <c r="G10" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="229"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="230"/>
-      <c r="K10" s="231"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
     </row>
     <row r="11" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="229"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="230"/>
-      <c r="K11" s="231"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="175"/>
     </row>
     <row r="12" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="156"/>
       <c r="G12" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="230"/>
-      <c r="K12" s="231"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="175"/>
     </row>
     <row r="13" spans="1:12" s="142" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="156"/>
@@ -3926,86 +3926,86 @@
       <c r="E14" s="159"/>
       <c r="F14" s="159"/>
       <c r="G14" s="142"/>
-      <c r="H14" s="204" t="s">
+      <c r="H14" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206" t="s">
+      <c r="I14" s="181"/>
+      <c r="J14" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="207"/>
-      <c r="L14" s="208"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="184"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="209" t="s">
+      <c r="A15" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="223" t="s">
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="199" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="225">
+      <c r="K15" s="202">
         <f>SUM(B20:G20)/6</f>
         <v>0</v>
       </c>
-      <c r="L15" s="203">
+      <c r="L15" s="205">
         <f>ROUND(K15*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="210"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="185"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="206"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="185"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="206"/>
     </row>
     <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="210"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="185"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="206"/>
     </row>
     <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="211"/>
+      <c r="A19" s="187"/>
       <c r="B19" s="160" t="s">
         <v>132</v>
       </c>
@@ -4024,14 +4024,14 @@
       <c r="G19" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="219"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="226"/>
-      <c r="L19" s="185"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="206"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="212"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="164">
         <v>0</v>
       </c>
@@ -4040,67 +4040,67 @@
       <c r="E20" s="165"/>
       <c r="F20" s="165"/>
       <c r="G20" s="166"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="222"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="228"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="207"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="174" t="s">
+      <c r="A21" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="214" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="198" t="s">
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="201">
-        <v>0</v>
-      </c>
-      <c r="L21" s="203">
+      <c r="K21" s="226">
+        <v>0</v>
+      </c>
+      <c r="L21" s="205">
         <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="189"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="185"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="206"/>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="189"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="185"/>
+      <c r="A23" s="212"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="206"/>
     </row>
     <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="175"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="167" t="s">
         <v>139</v>
       </c>
@@ -4119,42 +4119,42 @@
       <c r="G24" s="168">
         <v>0</v>
       </c>
-      <c r="H24" s="196"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="200"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="225"/>
       <c r="K24" s="169">
         <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="186"/>
+      <c r="L24" s="208"/>
     </row>
     <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="176" t="s">
+      <c r="B25" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="183" t="s">
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="200" t="s">
         <v>141</v>
       </c>
       <c r="K25" s="170">
         <v>0</v>
       </c>
-      <c r="L25" s="185">
+      <c r="L25" s="206">
         <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="175"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="171" t="s">
         <v>139</v>
       </c>
@@ -4171,14 +4171,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="168"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="184"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="235"/>
       <c r="K26" s="169">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="186"/>
+      <c r="L26" s="208"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4196,20 +4196,20 @@
         <v>14</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="187">
+      <c r="K28" s="209">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="188"/>
+      <c r="L28" s="210"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="173" t="s">
+      <c r="A32" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
+      <c r="B32" s="228"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="228"/>
       <c r="F32" s="172"/>
       <c r="G32" s="142"/>
       <c r="H32" s="150" t="s">
@@ -4222,6 +4222,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:G23"/>
+    <mergeCell ref="H21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:E5"/>
@@ -4234,27 +4255,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:G23"/>
-    <mergeCell ref="H21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4271,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4336,10 +4336,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4353,10 +4353,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4373,79 +4373,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4475,12 +4475,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="246"/>
-      <c r="B15" s="247" t="s">
+      <c r="A15" s="236"/>
+      <c r="B15" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4494,12 +4494,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
+      <c r="A16" s="236"/>
       <c r="B16" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -4516,8 +4516,8 @@
       <c r="B17" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -4531,11 +4531,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="244" t="s">
+      <c r="B18" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="245"/>
-      <c r="D18" s="245"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -4552,8 +4552,8 @@
       <c r="B19" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -4603,12 +4603,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="240" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="250"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -4732,11 +4732,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4750,6 +4745,11 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4832,10 +4832,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4849,10 +4849,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4869,80 +4869,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4972,12 +4972,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="246"/>
-      <c r="B15" s="247" t="s">
+      <c r="A15" s="236"/>
+      <c r="B15" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4991,12 +4991,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
+      <c r="A16" s="236"/>
       <c r="B16" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -5013,8 +5013,8 @@
       <c r="B17" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5031,8 +5031,8 @@
       <c r="B18" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5046,11 +5046,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="244" t="s">
+      <c r="B19" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5067,8 +5067,8 @@
       <c r="B20" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="18"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -5233,13 +5233,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5252,6 +5245,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5334,10 +5334,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5351,10 +5351,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5371,80 +5371,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="237"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="244"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="244"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5481,12 +5481,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
-      <c r="B16" s="247" t="s">
+      <c r="A16" s="236"/>
+      <c r="B16" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -5500,12 +5500,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
+      <c r="A17" s="236"/>
       <c r="B17" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5522,8 +5522,8 @@
       <c r="B18" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5540,8 +5540,8 @@
       <c r="B19" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="18"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5558,8 +5558,8 @@
       <c r="B20" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="254"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -5576,8 +5576,8 @@
       <c r="B21" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="240"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
       <c r="E21" s="18"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -5591,12 +5591,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="250"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -5749,13 +5749,6 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5768,6 +5761,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5855,10 +5855,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5872,10 +5872,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5892,79 +5892,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6341,10 +6341,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6358,10 +6358,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6378,79 +6378,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6828,10 +6828,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6845,10 +6845,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6865,79 +6865,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -7346,10 +7346,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -7363,10 +7363,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7383,80 +7383,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7644,13 +7644,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7662,6 +7655,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7676,6 +7676,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7741,15 +7750,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -7760,6 +7760,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7772,14 +7780,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B8F40-7E8E-43BD-B02F-368D60E53801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F3BA6-C802-436D-8698-B255735E49D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="5400" windowHeight="3172" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="383" yWindow="1860" windowWidth="20684" windowHeight="10657" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="datum" localSheetId="6">'Lag kür tekn junior'!$C$4</definedName>
     <definedName name="datum" localSheetId="5">'Lag kür tekn mellan'!$C$4</definedName>
     <definedName name="datum" localSheetId="7">'Lag kür tekn sr'!$C$4</definedName>
-    <definedName name="domare" localSheetId="1">'Häst, lag'!#REF!</definedName>
+    <definedName name="domare" localSheetId="1">'Häst, lag'!$C$32</definedName>
     <definedName name="domare" localSheetId="2">'Lag grund A'!$C$33</definedName>
     <definedName name="domare" localSheetId="3">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="4">'Lag grund D'!$C$33</definedName>
@@ -2192,6 +2192,177 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2216,203 +2387,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2423,6 +2408,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3736,10 +3736,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C25329-D17D-4FF2-BF65-A450782F317F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="E25" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L28"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3787,8 +3790,8 @@
         <v>16</v>
       </c>
       <c r="B4" s="150"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
       <c r="E4" s="151"/>
       <c r="G4" s="144"/>
       <c r="H4" s="145" t="s">
@@ -3803,9 +3806,9 @@
         <v>17</v>
       </c>
       <c r="B5" s="152"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
       <c r="G5" s="144"/>
       <c r="H5" s="145" t="s">
         <v>15</v>
@@ -3819,9 +3822,9 @@
         <v>18</v>
       </c>
       <c r="B6" s="152"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
       <c r="G6" s="142" t="s">
         <v>20</v>
       </c>
@@ -3838,77 +3841,77 @@
       <c r="G7" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="179"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="235"/>
     </row>
     <row r="8" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="150" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="150"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
       <c r="G8" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
     </row>
     <row r="9" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="152"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
       <c r="G9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="173"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="231"/>
     </row>
     <row r="10" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="152" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="152"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
       <c r="G10" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="173"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="231"/>
     </row>
     <row r="11" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="173"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="175"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="231"/>
     </row>
     <row r="12" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="156"/>
       <c r="G12" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="173"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="175"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="231"/>
     </row>
     <row r="13" spans="1:12" s="142" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="156"/>
@@ -3926,86 +3929,86 @@
       <c r="E14" s="159"/>
       <c r="F14" s="159"/>
       <c r="G14" s="142"/>
-      <c r="H14" s="180" t="s">
+      <c r="H14" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182" t="s">
+      <c r="I14" s="205"/>
+      <c r="J14" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="183"/>
-      <c r="L14" s="184"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="208"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="199" t="s">
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="202">
+      <c r="K15" s="225">
         <f>SUM(B20:G20)/6</f>
         <v>0</v>
       </c>
-      <c r="L15" s="205">
+      <c r="L15" s="203">
         <f>ROUND(K15*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="186"/>
-      <c r="B16" s="191"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="206"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="185"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="186"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="206"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="185"/>
     </row>
     <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="186"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="206"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="185"/>
     </row>
     <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="187"/>
+      <c r="A19" s="211"/>
       <c r="B19" s="160" t="s">
         <v>132</v>
       </c>
@@ -4024,14 +4027,14 @@
       <c r="G19" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="195"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="206"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="185"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="188"/>
+      <c r="A20" s="212"/>
       <c r="B20" s="164">
         <v>0</v>
       </c>
@@ -4040,67 +4043,67 @@
       <c r="E20" s="165"/>
       <c r="F20" s="165"/>
       <c r="G20" s="166"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="207"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="228"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="214" t="s">
+      <c r="B21" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="214"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="223" t="s">
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="226">
-        <v>0</v>
-      </c>
-      <c r="L21" s="205">
+      <c r="K21" s="201">
+        <v>0</v>
+      </c>
+      <c r="L21" s="203">
         <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="212"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="224"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="206"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="185"/>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="212"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="224"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="206"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="185"/>
     </row>
     <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="213"/>
+      <c r="A24" s="175"/>
       <c r="B24" s="167" t="s">
         <v>139</v>
       </c>
@@ -4119,42 +4122,42 @@
       <c r="G24" s="168">
         <v>0</v>
       </c>
-      <c r="H24" s="221"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="225"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="200"/>
       <c r="K24" s="169">
         <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="208"/>
+      <c r="L24" s="186"/>
     </row>
     <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="211" t="s">
+      <c r="A25" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="214" t="s">
+      <c r="B25" s="176" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="229"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="200" t="s">
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="183" t="s">
         <v>141</v>
       </c>
       <c r="K25" s="170">
         <v>0</v>
       </c>
-      <c r="L25" s="206">
+      <c r="L25" s="185">
         <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="213"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="171" t="s">
         <v>139</v>
       </c>
@@ -4171,14 +4174,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="168"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="235"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="184"/>
       <c r="K26" s="169">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="208"/>
+      <c r="L26" s="186"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4196,20 +4199,20 @@
         <v>14</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="209">
+      <c r="K28" s="187">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="210"/>
+      <c r="L28" s="188"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="228"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
       <c r="F32" s="172"/>
       <c r="G32" s="142"/>
       <c r="H32" s="150" t="s">
@@ -4221,28 +4224,7 @@
       <c r="L32" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:G23"/>
-    <mergeCell ref="H21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
+  <mergeCells count="32">
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:E5"/>
@@ -4255,6 +4237,26 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:G23"/>
+    <mergeCell ref="H21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4271,7 +4273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -4336,10 +4338,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4353,10 +4355,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4373,79 +4375,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4475,12 +4477,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="236"/>
-      <c r="B15" s="237" t="s">
+      <c r="A15" s="246"/>
+      <c r="B15" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4494,12 +4496,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
+      <c r="A16" s="246"/>
       <c r="B16" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -4516,8 +4518,8 @@
       <c r="B17" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -4531,11 +4533,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="249" t="s">
+      <c r="B18" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="245"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -4552,8 +4554,8 @@
       <c r="B19" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -4603,12 +4605,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="240" t="s">
+      <c r="B22" s="248" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="250"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -4732,6 +4734,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4745,11 +4752,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4832,10 +4834,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4849,10 +4851,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4869,80 +4871,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4972,12 +4974,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="236"/>
-      <c r="B15" s="237" t="s">
+      <c r="A15" s="246"/>
+      <c r="B15" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4991,12 +4993,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
+      <c r="A16" s="246"/>
       <c r="B16" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -5013,8 +5015,8 @@
       <c r="B17" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5031,8 +5033,8 @@
       <c r="B18" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5046,11 +5048,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="249" t="s">
+      <c r="B19" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="250"/>
-      <c r="D19" s="250"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5067,8 +5069,8 @@
       <c r="B20" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="18"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -5233,6 +5235,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5245,13 +5254,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5334,10 +5336,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5351,10 +5353,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5371,80 +5373,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="247"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="244"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="244"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="244"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5481,12 +5483,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237" t="s">
+      <c r="A16" s="246"/>
+      <c r="B16" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -5500,12 +5502,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="236"/>
+      <c r="A17" s="246"/>
       <c r="B17" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5522,8 +5524,8 @@
       <c r="B18" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5540,8 +5542,8 @@
       <c r="B19" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="18"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5558,8 +5560,8 @@
       <c r="B20" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="254"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -5576,8 +5578,8 @@
       <c r="B21" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="18"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -5591,12 +5593,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="240" t="s">
+      <c r="B22" s="248" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="250"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -5749,6 +5751,13 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5761,13 +5770,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5855,10 +5857,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5872,10 +5874,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5892,79 +5894,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6341,10 +6343,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6358,10 +6360,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6378,79 +6380,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6828,10 +6830,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6845,10 +6847,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6865,79 +6867,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -7346,10 +7348,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -7363,10 +7365,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7383,80 +7385,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="238"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7644,6 +7646,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7655,13 +7664,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7676,12 +7678,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7751,18 +7753,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7785,16 +7794,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F3BA6-C802-436D-8698-B255735E49D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468D0BA4-030B-4A12-965E-4D23247CCF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="383" yWindow="1860" windowWidth="20684" windowHeight="10657" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -623,9 +623,6 @@
   </si>
   <si>
     <t>Protokollen uppdaterades senast 2019-03-28.</t>
-  </si>
-  <si>
-    <t>Sidhopp del 1 och avgång inåt med tryck</t>
   </si>
   <si>
     <t xml:space="preserve">Galoppkvalitet samt nivå av genomarbetad häst </t>
@@ -845,6 +842,9 @@
   <si>
     <t>A3
 15%</t>
+  </si>
+  <si>
+    <t>Sidhopp del 1, tryck av inåt</t>
   </si>
 </sst>
 </file>
@@ -2196,53 +2196,134 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2285,119 +2366,53 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2408,21 +2423,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3741,7 +3741,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3790,8 +3790,8 @@
         <v>16</v>
       </c>
       <c r="B4" s="150"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
       <c r="E4" s="151"/>
       <c r="G4" s="144"/>
       <c r="H4" s="145" t="s">
@@ -3806,9 +3806,9 @@
         <v>17</v>
       </c>
       <c r="B5" s="152"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="G5" s="144"/>
       <c r="H5" s="145" t="s">
         <v>15</v>
@@ -3822,9 +3822,9 @@
         <v>18</v>
       </c>
       <c r="B6" s="152"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
       <c r="G6" s="142" t="s">
         <v>20</v>
       </c>
@@ -3841,77 +3841,77 @@
       <c r="G7" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="233"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="235"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
     </row>
     <row r="8" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="150" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="150"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
       <c r="G8" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="229"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="231"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
     </row>
     <row r="9" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="152"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
       <c r="G9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="229"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="231"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="176"/>
     </row>
     <row r="10" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="152" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="152"/>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
       <c r="G10" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="229"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="230"/>
-      <c r="K10" s="231"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="176"/>
     </row>
     <row r="11" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="229"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="230"/>
-      <c r="K11" s="231"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="176"/>
     </row>
     <row r="12" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="156"/>
       <c r="G12" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="230"/>
-      <c r="K12" s="231"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="176"/>
     </row>
     <row r="13" spans="1:12" s="142" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="156"/>
@@ -3929,112 +3929,112 @@
       <c r="E14" s="159"/>
       <c r="F14" s="159"/>
       <c r="G14" s="142"/>
-      <c r="H14" s="204" t="s">
+      <c r="H14" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206" t="s">
+      <c r="I14" s="182"/>
+      <c r="J14" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="207"/>
-      <c r="L14" s="208"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="185"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="209" t="s">
+      <c r="A15" s="186" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="213" t="s">
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="223" t="s">
+      <c r="K15" s="203">
+        <f>SUM(B20:G20)/6</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="206">
+        <f>ROUND(K15*0.6,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="187"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="207"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="187"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="207"/>
+    </row>
+    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="187"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="207"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="188"/>
+      <c r="B19" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="225">
-        <f>SUM(B20:G20)/6</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="203">
-        <f>ROUND(K15*0.6,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="210"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="185"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="185"/>
-    </row>
-    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="210"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="185"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="211"/>
-      <c r="B19" s="160" t="s">
+      <c r="C19" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="161" t="s">
+      <c r="D19" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="162" t="s">
+      <c r="E19" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="161" t="s">
+      <c r="F19" s="161" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="161" t="s">
+      <c r="G19" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="163" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="219"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="226"/>
-      <c r="L19" s="185"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="207"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="212"/>
+      <c r="A20" s="189"/>
       <c r="B20" s="164">
         <v>0</v>
       </c>
@@ -4043,70 +4043,70 @@
       <c r="E20" s="165"/>
       <c r="F20" s="165"/>
       <c r="G20" s="166"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="222"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="228"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="208"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="174" t="s">
+      <c r="A21" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="215" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="224" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="227">
+        <v>0</v>
+      </c>
+      <c r="L21" s="206">
+        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="213"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="207"/>
+    </row>
+    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="213"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="207"/>
+    </row>
+    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="214"/>
+      <c r="B24" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="198" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="201">
-        <v>0</v>
-      </c>
-      <c r="L21" s="203">
-        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="189"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="185"/>
-    </row>
-    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="189"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="185"/>
-    </row>
-    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="175"/>
-      <c r="B24" s="167" t="s">
-        <v>139</v>
-      </c>
       <c r="C24" s="168">
         <v>0</v>
       </c>
@@ -4122,44 +4122,44 @@
       <c r="G24" s="168">
         <v>0</v>
       </c>
-      <c r="H24" s="196"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="200"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="226"/>
       <c r="K24" s="169">
         <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="186"/>
+      <c r="L24" s="209"/>
     </row>
     <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="176" t="s">
+      <c r="B25" s="215" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="183" t="s">
-        <v>141</v>
-      </c>
       <c r="K25" s="170">
         <v>0</v>
       </c>
-      <c r="L25" s="185">
+      <c r="L25" s="207">
         <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="175"/>
+      <c r="A26" s="214"/>
       <c r="B26" s="171" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="168">
         <v>0</v>
@@ -4174,14 +4174,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="168"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="184"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="235"/>
       <c r="K26" s="169">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="186"/>
+      <c r="L26" s="209"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4199,11 +4199,11 @@
         <v>14</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="187">
+      <c r="K28" s="210">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="188"/>
+      <c r="L28" s="211"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="173" t="s">
@@ -4225,6 +4225,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:G23"/>
+    <mergeCell ref="H21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:E5"/>
@@ -4237,26 +4257,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:G23"/>
-    <mergeCell ref="H21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4338,10 +4338,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4355,10 +4355,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4375,79 +4375,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4477,12 +4477,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="246"/>
-      <c r="B15" s="247" t="s">
+      <c r="A15" s="236"/>
+      <c r="B15" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4496,12 +4496,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
+      <c r="A16" s="236"/>
       <c r="B16" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -4518,8 +4518,8 @@
       <c r="B17" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -4533,11 +4533,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="244" t="s">
+      <c r="B18" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="245"/>
-      <c r="D18" s="245"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -4554,8 +4554,8 @@
       <c r="B19" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -4605,12 +4605,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="240" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="250"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -4734,11 +4734,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4752,6 +4747,11 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4769,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4834,10 +4834,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -4851,10 +4851,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4871,80 +4871,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4974,12 +4974,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="246"/>
-      <c r="B15" s="247" t="s">
+      <c r="A15" s="236"/>
+      <c r="B15" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="18"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129"/>
@@ -4993,12 +4993,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
+      <c r="A16" s="236"/>
       <c r="B16" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -5015,8 +5015,8 @@
       <c r="B17" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5033,8 +5033,8 @@
       <c r="B18" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5048,11 +5048,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="244" t="s">
+      <c r="B19" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="20"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5069,8 +5069,8 @@
       <c r="B20" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="18"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="251" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C22" s="252"/>
       <c r="D22" s="252"/>
@@ -5235,13 +5235,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5254,6 +5247,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5336,10 +5336,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5353,10 +5353,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5373,80 +5373,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="237"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="244"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="244"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5483,12 +5483,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
-      <c r="B16" s="247" t="s">
+      <c r="A16" s="236"/>
+      <c r="B16" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="18"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
@@ -5502,12 +5502,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
+      <c r="A17" s="236"/>
       <c r="B17" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="18"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129"/>
@@ -5524,8 +5524,8 @@
       <c r="B18" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="18"/>
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
@@ -5542,8 +5542,8 @@
       <c r="B19" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="18"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129"/>
@@ -5560,8 +5560,8 @@
       <c r="B20" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="254"/>
       <c r="F20" s="129"/>
       <c r="G20" s="129"/>
@@ -5578,8 +5578,8 @@
       <c r="B21" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="240"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
       <c r="E21" s="18"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -5593,12 +5593,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="250"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="129"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129"/>
@@ -5751,13 +5751,6 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5770,6 +5763,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5857,10 +5857,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -5874,10 +5874,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5894,79 +5894,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6343,10 +6343,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6360,10 +6360,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6380,79 +6380,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6830,10 +6830,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -6847,10 +6847,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6867,79 +6867,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -7348,10 +7348,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>15</v>
@@ -7365,10 +7365,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7385,80 +7385,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7646,13 +7646,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7664,6 +7657,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7678,12 +7678,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7753,25 +7753,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7794,9 +7787,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468D0BA4-030B-4A12-965E-4D23247CCF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9B558-01B7-4EEB-97A9-C0F7A7189254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9982" yWindow="5483" windowWidth="16200" windowHeight="9397" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="domare" localSheetId="2">'Lag grund A'!$C$33</definedName>
     <definedName name="domare" localSheetId="3">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="4">'Lag grund D'!$C$33</definedName>
-    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$27</definedName>
+    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$26</definedName>
     <definedName name="domare" localSheetId="6">'Lag kür tekn junior'!$C$42</definedName>
     <definedName name="domare" localSheetId="5">'Lag kür tekn mellan'!$C$42</definedName>
     <definedName name="domare" localSheetId="7">'Lag kür tekn sr'!$C$42</definedName>
@@ -90,7 +90,7 @@
     <definedName name="result" localSheetId="2">'Lag grund A'!$L$29</definedName>
     <definedName name="result" localSheetId="3">'Lag grund B'!$L$29</definedName>
     <definedName name="result" localSheetId="4">'Lag grund D'!$L$29</definedName>
-    <definedName name="result" localSheetId="8">'Lag kür art'!$L$24</definedName>
+    <definedName name="result" localSheetId="8">'Lag kür art'!$L$23</definedName>
     <definedName name="result" localSheetId="6">'Lag kür tekn junior'!$L$34</definedName>
     <definedName name="result" localSheetId="5">'Lag kür tekn mellan'!$L$34</definedName>
     <definedName name="result" localSheetId="7">'Lag kür tekn sr'!$L$35</definedName>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="140">
   <si>
     <t>1)</t>
   </si>
@@ -142,18 +142,10 @@
 25%</t>
   </si>
   <si>
-    <t>C3
-20%</t>
-  </si>
-  <si>
     <t>C4
 20%</t>
   </si>
   <si>
-    <t>C5
-10%</t>
-  </si>
-  <si>
     <t>A2
 25%</t>
   </si>
@@ -321,30 +313,6 @@
   </si>
   <si>
     <t>Artistisk poäng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kreatitivitet &amp; originalitet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Använder unika övergångar, övningar, positioner, kombinationer och sekvenser av övningar.
-• Höjdpunkter
-• Individualitet</t>
-    </r>
   </si>
   <si>
     <t>Linförare:</t>
@@ -532,32 +500,6 @@
 • Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
 • Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat mellanhopp.
 • Jämnt deltagande av alla voltigörer, ingen överanvändning av en eller två voltigörer.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sammanhållning av sammansättning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Mjuka övergångar och rörelser som visar samband och flyt.
-• Undvikande av tom häst 
-• Övningar som inte överbelastar hästen
-• Urval av övningar och övergångar i harmoni med hästen.
-</t>
     </r>
   </si>
   <si>
@@ -845,6 +787,37 @@
   </si>
   <si>
     <t>Sidhopp del 1, tryck av inåt</t>
+  </si>
+  <si>
+    <t>C3
+30%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning och komplexitet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Val av element och sekvenser i harmoni med hästen.
+• Mjuka övergångar och rörelser som visar på sammanhållning och flyt.
+• Hög komplexitet av element, övergångar, positioner och kombinationer av övningar.
+• Förmåga att kontrollera och länka samman röresler och positioner i instabil jämvikt. Rörelsefrihet. 
+• Undviker tom häst
+• Övningar som inte överbelastar hästen</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1036,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1735,6 +1708,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1966,9 +1952,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,9 +2072,6 @@
     <xf numFmtId="169" fontId="3" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2196,6 +2176,173 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2220,199 +2367,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2424,6 +2389,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2442,9 +2422,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -2460,17 +2437,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2886,7 +2872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
@@ -2895,831 +2881,831 @@
     <col min="1" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="127" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="126" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="127" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="127" t="s">
+    <row r="1" spans="1:8" s="126" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="125" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="126" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="126" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="127" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="127" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="140" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="140" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="140" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="140" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="127" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" s="113" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="113" t="s">
+    <row r="4" spans="1:8" s="138" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="138" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" s="112" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="113"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="113"/>
+    </row>
+    <row r="12" spans="1:8" s="114" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="114" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="F13" s="115" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="114"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="114"/>
-    </row>
-    <row r="12" spans="1:8" s="115" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="115" t="s">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="114" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="116" t="s">
+      <c r="C14" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="F13" s="116" t="s">
+      <c r="D14" s="114" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="115" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="117"/>
+      <c r="F15" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="113"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+    </row>
+    <row r="17" spans="1:9" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="117"/>
+      <c r="F17" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="113"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="117"/>
+      <c r="F19" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="113"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+    </row>
+    <row r="22" spans="1:9" s="114" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="115" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="F23" s="115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="F24" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="113"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+    </row>
+    <row r="27" spans="1:9" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="113"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+    </row>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+    </row>
+    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="115" t="s">
+    </row>
+    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="113"/>
+      <c r="F35" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="117"/>
+      <c r="F37" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="113"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+    </row>
+    <row r="39" spans="1:17" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="117"/>
+      <c r="F39" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="L39" s="116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="113"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+    </row>
+    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="117"/>
+      <c r="F41" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="L41" s="116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="113"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+    </row>
+    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="113"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+    </row>
+    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="113"/>
+      <c r="F47" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47" s="113"/>
+      <c r="N47" s="115"/>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="115" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114" t="s">
+      <c r="F48" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" s="114"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+    </row>
+    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="I49" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="L49" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49" s="116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="113"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="118"/>
+    </row>
+    <row r="51" spans="1:13" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" s="116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="113"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+    </row>
+    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-    </row>
-    <row r="17" spans="1:9" s="114" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="114"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="114"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-    </row>
-    <row r="22" spans="1:9" s="115" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="115" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="116" t="s">
+      <c r="B53" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="L53" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="M53" s="116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="126" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A56" s="124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="123" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="122"/>
+      <c r="B57" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="F23" s="116" t="s">
+      <c r="D57" s="122" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="115" t="s">
+      <c r="E57" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="115" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="117" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-    </row>
-    <row r="27" spans="1:9" s="114" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-    </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="115" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="114"/>
-      <c r="F35" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="116" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="115" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="118"/>
-      <c r="F37" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="J37" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="K37" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="L37" s="117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="114"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-    </row>
-    <row r="39" spans="1:17" s="114" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="L39" s="117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="114"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-    </row>
-    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="L41" s="117" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="114"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
-    </row>
-    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="114"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="115" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="114"/>
-      <c r="F47" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="J47" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="K47" s="114"/>
-      <c r="N47" s="116"/>
-    </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="N48" s="115"/>
-      <c r="O48" s="115"/>
-      <c r="P48" s="115"/>
-      <c r="Q48" s="115"/>
-    </row>
-    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="J49" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="K49" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="L49" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="M49" s="117" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="114"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-    </row>
-    <row r="51" spans="1:13" s="114" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="I51" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="J51" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="K51" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="L51" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="M51" s="117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="114"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-    </row>
-    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="H53" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="I53" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="K53" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="L53" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="M53" s="117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="127" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A56" s="125" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="124" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="123"/>
-      <c r="B57" s="123" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="123" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="123" t="s">
+      <c r="F57" s="122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="120" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" s="122" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="121" t="s">
+      <c r="D58" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="121" t="s">
+      <c r="F58" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="121" t="s">
+    </row>
+    <row r="59" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="121" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="121" t="s">
+      <c r="B59" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="121" t="s">
+      <c r="D59" s="120" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="122" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="121" t="s">
+      <c r="E59" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="121" t="s">
+      <c r="F59" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="121" t="s">
+    </row>
+    <row r="60" spans="1:13" s="121" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="120"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120" t="s">
         <v>101</v>
-      </c>
-      <c r="D59" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="121" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="122" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="121"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3760,428 +3746,428 @@
     <col min="13" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="142" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" s="142" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="143" t="s">
+    <row r="1" spans="1:12" s="140" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" s="140" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="1:12" s="140" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
+    </row>
+    <row r="4" spans="1:12" s="140" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="148"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="149"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="144"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="146"/>
+    </row>
+    <row r="5" spans="1:12" s="140" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="150"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148"/>
-    </row>
-    <row r="3" spans="1:12" s="142" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
-    </row>
-    <row r="4" spans="1:12" s="142" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="150" t="s">
+      <c r="I5" s="151"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="146"/>
+    </row>
+    <row r="6" spans="1:12" s="140" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="151"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148"/>
-    </row>
-    <row r="5" spans="1:12" s="142" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="152" t="s">
+      <c r="B6" s="150"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="G6" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="152"/>
+    </row>
+    <row r="7" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="150"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="G7" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="231"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="233"/>
+    </row>
+    <row r="8" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="148"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="G8" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="227"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="229"/>
+    </row>
+    <row r="9" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="145" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="148"/>
-    </row>
-    <row r="6" spans="1:12" s="142" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="G6" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="154"/>
-    </row>
-    <row r="7" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="G7" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
-    </row>
-    <row r="8" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="G8" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="176"/>
-    </row>
-    <row r="9" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="152" t="s">
+      <c r="B9" s="150"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="G9" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="227"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="229"/>
+    </row>
+    <row r="10" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="150"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="G10" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="229"/>
+    </row>
+    <row r="11" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="227"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="229"/>
+    </row>
+    <row r="12" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="154"/>
+      <c r="G12" s="150" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="227"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="229"/>
+    </row>
+    <row r="13" spans="1:12" s="140" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="154"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="205"/>
+      <c r="L14" s="206"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="211" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="221" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="223">
+        <f>SUM(B20:G20)/6</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="193">
+        <f>ROUND(K15*0.6,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="208"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="172"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="208"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="172"/>
+    </row>
+    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="208"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="172"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="209"/>
+      <c r="B19" s="158" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="159" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="217"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="172"/>
+    </row>
+    <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="210"/>
+      <c r="B20" s="162">
+        <v>0</v>
+      </c>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="226"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="188" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="191">
+        <v>0</v>
+      </c>
+      <c r="L21" s="193">
+        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="177"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="172"/>
+    </row>
+    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="177"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="178"/>
+      <c r="B24" s="165" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="166">
+        <v>0</v>
+      </c>
+      <c r="D24" s="166">
+        <v>0</v>
+      </c>
+      <c r="E24" s="166">
+        <v>0</v>
+      </c>
+      <c r="F24" s="166">
+        <v>0</v>
+      </c>
+      <c r="G24" s="166">
+        <v>0</v>
+      </c>
+      <c r="H24" s="186"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="167">
+        <f>SUM(C24:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="173"/>
+    </row>
+    <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="G9" s="152" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="174"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="176"/>
-    </row>
-    <row r="10" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="G10" s="152" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="176"/>
-    </row>
-    <row r="11" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="152" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="174"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="176"/>
-    </row>
-    <row r="12" spans="1:12" s="142" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="156"/>
-      <c r="G12" s="152" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="174"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="176"/>
-    </row>
-    <row r="13" spans="1:12" s="142" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="156"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="142"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="181" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="184"/>
-      <c r="L14" s="185"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="186" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="190" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="203">
-        <f>SUM(B20:G20)/6</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="206">
-        <f>ROUND(K15*0.6,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="207"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="207"/>
-    </row>
-    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="187"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="207"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="188"/>
-      <c r="B19" s="160" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="162" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="161" t="s">
+      <c r="B25" s="179" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="200" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="168">
+        <v>0</v>
+      </c>
+      <c r="L25" s="172">
+        <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="178"/>
+      <c r="B26" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="161" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="163" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="207"/>
-    </row>
-    <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="189"/>
-      <c r="B20" s="164">
-        <v>0</v>
-      </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="208"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="212" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="215" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="224" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="227">
-        <v>0</v>
-      </c>
-      <c r="L21" s="206">
-        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="213"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="225"/>
-      <c r="K22" s="228"/>
-      <c r="L22" s="207"/>
-    </row>
-    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="213"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="207"/>
-    </row>
-    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="214"/>
-      <c r="B24" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="168">
-        <v>0</v>
-      </c>
-      <c r="D24" s="168">
-        <v>0</v>
-      </c>
-      <c r="E24" s="168">
-        <v>0</v>
-      </c>
-      <c r="F24" s="168">
-        <v>0</v>
-      </c>
-      <c r="G24" s="168">
-        <v>0</v>
-      </c>
-      <c r="H24" s="222"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="226"/>
-      <c r="K24" s="169">
-        <f>SUM(C24:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="209"/>
-    </row>
-    <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="215" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="229"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="201" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="170">
-        <v>0</v>
-      </c>
-      <c r="L25" s="207">
-        <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="214"/>
-      <c r="B26" s="171" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="168">
-        <v>0</v>
-      </c>
-      <c r="D26" s="168">
-        <v>0</v>
-      </c>
-      <c r="E26" s="168">
-        <v>0</v>
-      </c>
-      <c r="F26" s="168">
-        <v>0</v>
-      </c>
-      <c r="G26" s="168"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="169">
+      <c r="C26" s="166">
+        <v>0</v>
+      </c>
+      <c r="D26" s="166">
+        <v>0</v>
+      </c>
+      <c r="E26" s="166">
+        <v>0</v>
+      </c>
+      <c r="F26" s="166">
+        <v>0</v>
+      </c>
+      <c r="G26" s="166"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="167">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="209"/>
+      <c r="L26" s="173"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4196,35 +4182,55 @@
     </row>
     <row r="28" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I28" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="210">
+      <c r="K28" s="174">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="211"/>
+      <c r="L28" s="175"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="173" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
+      <c r="A32" s="171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A21:A24"/>
@@ -4237,26 +4243,6 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H25:I26"/>
     <mergeCell ref="J25:J26"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4294,11 +4280,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -4306,11 +4292,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -4318,54 +4304,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="107"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="71"/>
@@ -4375,79 +4361,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4473,96 +4459,96 @@
         <v>6</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="236"/>
-      <c r="B15" s="237" t="s">
-        <v>27</v>
+      <c r="A15" s="244"/>
+      <c r="B15" s="245" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="238"/>
       <c r="D15" s="238"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
       <c r="L15" s="19">
         <f>SUM(F15:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="239" t="s">
-        <v>29</v>
+      <c r="A16" s="244"/>
+      <c r="B16" s="237" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="238"/>
       <c r="D16" s="238"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="19">
         <f t="shared" ref="L16:L22" si="0">SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="239" t="s">
-        <v>37</v>
+      <c r="B17" s="237" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="238"/>
       <c r="D17" s="238"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
       <c r="L17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="249" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
+      <c r="B18" s="242" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="239" t="s">
-        <v>39</v>
+      <c r="B19" s="237" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="238"/>
       <c r="D19" s="238"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
       <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4570,17 +4556,17 @@
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
       <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4588,35 +4574,35 @@
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
       <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="240" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
+      <c r="B22" s="246" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="247"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
       <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4625,7 +4611,7 @@
     <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4634,7 +4620,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L15:L22)</f>
@@ -4646,7 +4632,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(+L24/6,3)</f>
@@ -4669,7 +4655,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -4678,7 +4664,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="I29" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J29" s="51"/>
       <c r="K29" s="52"/>
@@ -4706,7 +4692,7 @@
     <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4714,7 +4700,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4734,6 +4720,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4747,11 +4738,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4769,7 +4755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4790,11 +4776,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -4802,11 +4788,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -4814,54 +4800,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="107"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="71"/>
@@ -4871,80 +4857,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4970,114 +4956,114 @@
         <v>6</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="236"/>
-      <c r="B15" s="237" t="s">
-        <v>27</v>
+      <c r="A15" s="244"/>
+      <c r="B15" s="245" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="238"/>
       <c r="D15" s="238"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
       <c r="L15" s="19">
         <f>SUM(F15:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="239" t="s">
-        <v>28</v>
+      <c r="A16" s="244"/>
+      <c r="B16" s="237" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="238"/>
       <c r="D16" s="238"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="19">
         <f t="shared" ref="L16:L22" si="0">SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="239" t="s">
-        <v>29</v>
+      <c r="B17" s="237" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="238"/>
       <c r="D17" s="238"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
       <c r="L17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="253" t="s">
-        <v>37</v>
+      <c r="B18" s="251" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="238"/>
       <c r="D18" s="238"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="249" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="250"/>
-      <c r="D19" s="250"/>
+      <c r="B19" s="242" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
       <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="239" t="s">
-        <v>39</v>
+      <c r="B20" s="237" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="238"/>
       <c r="D20" s="238"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
       <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5085,35 +5071,35 @@
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
       <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="251" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="252"/>
-      <c r="D22" s="252"/>
+      <c r="B22" s="249" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="250"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
       <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5122,7 +5108,7 @@
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5131,7 +5117,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L15:L22)</f>
@@ -5143,7 +5129,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(L24/6,3)</f>
@@ -5166,7 +5152,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -5175,7 +5161,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="I29" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J29" s="51"/>
       <c r="K29" s="52"/>
@@ -5202,7 +5188,7 @@
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -5210,7 +5196,7 @@
       <c r="E32" s="40"/>
       <c r="F32" s="38"/>
       <c r="H32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5235,6 +5221,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5247,13 +5240,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5292,11 +5278,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5304,11 +5290,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5316,54 +5302,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="107"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="71"/>
@@ -5373,80 +5359,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="247"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="244"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="244"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="244"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5479,132 +5465,132 @@
         <v>6</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237" t="s">
-        <v>27</v>
+      <c r="A16" s="244"/>
+      <c r="B16" s="245" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="238"/>
       <c r="D16" s="238"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
       <c r="L16" s="19">
         <f>SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="236"/>
-      <c r="B17" s="239" t="s">
-        <v>28</v>
+      <c r="A17" s="244"/>
+      <c r="B17" s="237" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="238"/>
       <c r="D17" s="238"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
       <c r="L17" s="19">
         <f t="shared" ref="L17:L21" si="0">SUM(F17:K17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="239" t="s">
-        <v>29</v>
+      <c r="B18" s="237" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="238"/>
       <c r="D18" s="238"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="253" t="s">
-        <v>30</v>
+      <c r="B19" s="251" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="238"/>
       <c r="D19" s="238"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
       <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="239" t="s">
-        <v>117</v>
+      <c r="B20" s="237" t="s">
+        <v>113</v>
       </c>
       <c r="C20" s="238"/>
       <c r="D20" s="238"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
       <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="239" t="s">
-        <v>31</v>
+      <c r="B21" s="237" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="238"/>
       <c r="D21" s="238"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
       <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="240" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
+      <c r="B22" s="246" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="247"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
       <c r="L22" s="19">
         <f>SUM(F22:K22)</f>
         <v>0</v>
@@ -5615,7 +5601,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5624,7 +5610,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L16:L22)</f>
@@ -5636,7 +5622,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(+L24/6,3)</f>
@@ -5659,7 +5645,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -5667,7 +5653,7 @@
     <row r="29" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="33"/>
       <c r="I29" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="36"/>
@@ -5695,7 +5681,7 @@
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -5703,7 +5689,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5751,6 +5737,13 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5763,13 +5756,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5813,11 +5799,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5825,11 +5811,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5837,54 +5823,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="107"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="71"/>
@@ -5894,79 +5880,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5977,7 +5963,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6001,10 +5987,10 @@
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="110"/>
+      <c r="A17" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="109"/>
       <c r="C17" s="70"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -6013,84 +5999,84 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="112"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
-      <c r="H19" s="102" t="s">
-        <v>58</v>
+      <c r="H19" s="101" t="s">
+        <v>56</v>
       </c>
       <c r="I19" s="57"/>
       <c r="K19" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90" t="s">
-        <v>54</v>
+      <c r="B20" s="89" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="62"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="91">
+      <c r="E20" s="129"/>
+      <c r="F20" s="90">
         <v>0.5</v>
       </c>
-      <c r="G20" s="103"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95">
+      <c r="G20" s="102"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="90" t="s">
-        <v>55</v>
+      <c r="B21" s="89" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="62"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="91">
+      <c r="E21" s="129"/>
+      <c r="F21" s="90">
         <v>0.3</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95">
+      <c r="G21" s="102"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
-        <v>56</v>
+      <c r="B22" s="89" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="62"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="91">
+      <c r="E22" s="129"/>
+      <c r="F22" s="90">
         <v>0.1</v>
       </c>
-      <c r="G22" s="103"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95">
+      <c r="G22" s="102"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94">
         <f>F22*H22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -6098,7 +6084,7 @@
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="94"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -6107,12 +6093,12 @@
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G24" s="73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105">
+      <c r="J24" s="103"/>
+      <c r="K24" s="104">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
@@ -6122,7 +6108,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6139,13 +6125,13 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="62"/>
-      <c r="E27" s="130"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" s="62"/>
       <c r="H27" s="64">
@@ -6181,14 +6167,14 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="71"/>
       <c r="J30" s="72"/>
-      <c r="K30" s="131"/>
+      <c r="K30" s="130"/>
     </row>
     <row r="31" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K31" s="69"/>
@@ -6196,7 +6182,7 @@
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -6212,34 +6198,34 @@
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I34" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J34" s="77"/>
       <c r="K34" s="77"/>
-      <c r="L34" s="106">
+      <c r="L34" s="105">
         <f>ROUND(K24*0.3 + K32*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="107"/>
+      <c r="L35" s="106"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="107"/>
+      <c r="L36" s="106"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L37" s="107"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="H42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -6299,11 +6285,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6311,11 +6297,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6323,54 +6309,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="107"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="71"/>
@@ -6380,79 +6366,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6463,7 +6449,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6487,10 +6473,10 @@
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="110"/>
+      <c r="A17" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="109"/>
       <c r="C17" s="70"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -6499,84 +6485,84 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="112"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
-      <c r="H19" s="102" t="s">
-        <v>58</v>
+      <c r="H19" s="101" t="s">
+        <v>56</v>
       </c>
       <c r="I19" s="57"/>
       <c r="K19" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90" t="s">
-        <v>54</v>
+      <c r="B20" s="89" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="62"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="91">
+      <c r="E20" s="129"/>
+      <c r="F20" s="90">
         <v>0.5</v>
       </c>
-      <c r="G20" s="103"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95">
+      <c r="G20" s="102"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="90" t="s">
-        <v>55</v>
+      <c r="B21" s="89" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="62"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="91">
+      <c r="E21" s="129"/>
+      <c r="F21" s="90">
         <v>0.3</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95">
+      <c r="G21" s="102"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
-        <v>56</v>
+      <c r="B22" s="89" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="62"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="91">
+      <c r="E22" s="129"/>
+      <c r="F22" s="90">
         <v>0.1</v>
       </c>
-      <c r="G22" s="103"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95">
+      <c r="G22" s="102"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94">
         <f>F22*H22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -6584,7 +6570,7 @@
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="94"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -6593,12 +6579,12 @@
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G24" s="73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105">
+      <c r="J24" s="103"/>
+      <c r="K24" s="104">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
@@ -6608,7 +6594,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6625,13 +6611,13 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="62"/>
-      <c r="E27" s="130"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" s="62"/>
       <c r="H27" s="64">
@@ -6667,14 +6653,14 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="71"/>
       <c r="J30" s="72"/>
-      <c r="K30" s="131"/>
+      <c r="K30" s="130"/>
     </row>
     <row r="31" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K31" s="69"/>
@@ -6682,7 +6668,7 @@
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -6698,34 +6684,34 @@
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I34" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J34" s="77"/>
       <c r="K34" s="77"/>
-      <c r="L34" s="106">
+      <c r="L34" s="105">
         <f>ROUND(K24*0.3 + K32*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="107"/>
+      <c r="L35" s="106"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="107"/>
+      <c r="L36" s="106"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L37" s="107"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="H42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -6786,11 +6772,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6798,11 +6784,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6810,54 +6796,54 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="107"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="71"/>
@@ -6867,79 +6853,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6950,7 +6936,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6974,10 +6960,10 @@
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="110"/>
+      <c r="A17" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="109"/>
       <c r="C17" s="70"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -6986,94 +6972,94 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="112"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
-      <c r="H19" s="89" t="s">
-        <v>61</v>
+      <c r="H19" s="88" t="s">
+        <v>59</v>
       </c>
       <c r="I19" s="57"/>
       <c r="K19" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90" t="s">
-        <v>54</v>
+      <c r="B20" s="89" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="62"/>
-      <c r="E20" s="130">
-        <v>0</v>
-      </c>
-      <c r="F20" s="91">
+      <c r="E20" s="129">
+        <v>0</v>
+      </c>
+      <c r="F20" s="90">
         <v>0.4</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="141">
+      <c r="G20" s="91"/>
+      <c r="H20" s="139">
         <f>IF(E20&gt;24,25,E20)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95">
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94">
         <f>F20*H20</f>
         <v>0</v>
       </c>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="90" t="s">
-        <v>55</v>
+      <c r="B21" s="89" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="62"/>
-      <c r="E21" s="130">
-        <v>0</v>
-      </c>
-      <c r="F21" s="91">
+      <c r="E21" s="129">
+        <v>0</v>
+      </c>
+      <c r="F21" s="90">
         <v>0.3</v>
       </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="141">
+      <c r="G21" s="91"/>
+      <c r="H21" s="139">
         <f>IF(SUM(E20:E21)&gt;24,25-H20,E21)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95">
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94">
         <f>F21*H21</f>
         <v>0</v>
       </c>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
-        <v>56</v>
+      <c r="B22" s="89" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="62"/>
-      <c r="E22" s="130">
-        <v>0</v>
-      </c>
-      <c r="F22" s="91">
+      <c r="E22" s="129">
+        <v>0</v>
+      </c>
+      <c r="F22" s="90">
         <v>0.1</v>
       </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="141">
+      <c r="G22" s="91"/>
+      <c r="H22" s="139">
         <f>IF(SUM(E20:E22)&gt;24,IF(25-SUM(H20:H21)&gt;0,25-SUM(H20:H21),0),E22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95">
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94">
         <f>F22*H22</f>
         <v>0</v>
       </c>
@@ -7081,7 +7067,7 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -7089,26 +7075,26 @@
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
       <c r="K24" s="75">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
@@ -7121,18 +7107,18 @@
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
       <c r="L25" s="76"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7149,15 +7135,15 @@
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="62"/>
-      <c r="E28" s="130">
+      <c r="E28" s="129">
         <v>0</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G28" s="62"/>
       <c r="H28" s="64">
@@ -7193,14 +7179,14 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="71"/>
       <c r="J31" s="72"/>
-      <c r="K31" s="131">
+      <c r="K31" s="130">
         <v>0</v>
       </c>
     </row>
@@ -7210,7 +7196,7 @@
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -7226,7 +7212,7 @@
     <row r="34" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I35" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J35" s="77"/>
       <c r="K35" s="77"/>
@@ -7237,14 +7223,14 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="H42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -7279,10 +7265,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="B10" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7304,11 +7290,11 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7316,11 +7302,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7328,54 +7314,54 @@
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="138"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="107"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="71"/>
@@ -7385,80 +7371,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7470,27 +7456,27 @@
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K14" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="258" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="260"/>
+    </row>
+    <row r="15" spans="1:13" ht="57.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="253" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="255" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="256"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="257"/>
       <c r="J15" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="132"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="80">
         <f>K15*0.25</f>
         <v>0</v>
@@ -7498,154 +7484,138 @@
       <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="256"/>
-      <c r="B16" s="261" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="262"/>
-      <c r="I16" s="262"/>
+      <c r="A16" s="254"/>
+      <c r="B16" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="259"/>
       <c r="J16" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="133"/>
+      <c r="K16" s="132"/>
       <c r="L16" s="83">
         <f>K16*0.25</f>
         <v>0</v>
       </c>
       <c r="M16" s="81"/>
     </row>
-    <row r="17" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="255" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="263" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="264"/>
+    <row r="17" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="265" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="262" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="263"/>
       <c r="I17" s="264"/>
       <c r="J17" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="133"/>
+      <c r="L17" s="84">
+        <f>K17*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="266"/>
+      <c r="B18" s="260" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="134"/>
-      <c r="L17" s="84">
-        <f>K17*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="81"/>
-    </row>
-    <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="257"/>
-      <c r="B18" s="265" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="135"/>
+      <c r="K18" s="134"/>
       <c r="L18" s="86">
         <f>K18*0.2</f>
         <v>0</v>
       </c>
       <c r="M18" s="81"/>
     </row>
-    <row r="19" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="256"/>
-      <c r="B19" s="261" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="262"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="136"/>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L19" s="87">
-        <f>K19*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="81"/>
-    </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="1" t="s">
+        <f>SUM(L15:L18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="69"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="135"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78">
+        <f>SUM(L15:L18)-L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="H26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="88">
-        <f>SUM(L15:L19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="69"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="137"/>
-    </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L23" s="69"/>
-    </row>
-    <row r="24" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78">
-        <f>SUM(L15:L19)-L22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="H27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7657,20 +7627,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter xml:space="preserve">&amp;R2019-06-01
+    <oddFooter xml:space="preserve">&amp;R2022-01-01
 </oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -7687,6 +7650,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7752,15 +7724,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
@@ -7770,6 +7733,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7784,19 +7762,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9B558-01B7-4EEB-97A9-C0F7A7189254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555A08D-8DC5-412B-8A2C-041C63AC520C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9982" yWindow="5483" windowWidth="16200" windowHeight="9397" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -1734,7 +1734,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2176,7 +2176,112 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,9 +2346,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2262,122 +2364,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2389,21 +2404,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2422,6 +2422,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -2437,27 +2443,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3776,8 +3780,8 @@
         <v>14</v>
       </c>
       <c r="B4" s="148"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="149"/>
       <c r="G4" s="142"/>
       <c r="H4" s="143" t="s">
@@ -3792,9 +3796,9 @@
         <v>15</v>
       </c>
       <c r="B5" s="150"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
       <c r="G5" s="142"/>
       <c r="H5" s="143" t="s">
         <v>13</v>
@@ -3808,9 +3812,9 @@
         <v>16</v>
       </c>
       <c r="B6" s="150"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
       <c r="G6" s="140" t="s">
         <v>18</v>
       </c>
@@ -3827,77 +3831,77 @@
       <c r="G7" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="231"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="233"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
     </row>
     <row r="8" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="148" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="148"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
       <c r="G8" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="227"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="229"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="174"/>
     </row>
     <row r="9" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="150" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="150"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
       <c r="G9" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="227"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="228"/>
-      <c r="K9" s="229"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="174"/>
     </row>
     <row r="10" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="150" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="150"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="227"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
       <c r="G10" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="227"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="229"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="174"/>
     </row>
     <row r="11" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="227"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="229"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="174"/>
     </row>
     <row r="12" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="154"/>
       <c r="G12" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="227"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="229"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="174"/>
     </row>
     <row r="13" spans="1:12" s="140" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="154"/>
@@ -3915,86 +3919,86 @@
       <c r="E14" s="157"/>
       <c r="F14" s="157"/>
       <c r="G14" s="140"/>
-      <c r="H14" s="202" t="s">
+      <c r="H14" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="203"/>
-      <c r="J14" s="204" t="s">
+      <c r="I14" s="180"/>
+      <c r="J14" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="205"/>
-      <c r="L14" s="206"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="183"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="211" t="s">
+      <c r="B15" s="188" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="221" t="s">
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="223">
+      <c r="K15" s="201">
         <f>SUM(B20:G20)/6</f>
         <v>0</v>
       </c>
-      <c r="L15" s="193">
+      <c r="L15" s="204">
         <f>ROUND(K15*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="208"/>
-      <c r="B16" s="213"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="172"/>
+      <c r="A16" s="185"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="205"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="208"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="172"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="205"/>
     </row>
     <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="208"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="172"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="205"/>
     </row>
     <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="209"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="158" t="s">
         <v>127</v>
       </c>
@@ -4013,14 +4017,14 @@
       <c r="G19" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="217"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="172"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="205"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="210"/>
+      <c r="A20" s="187"/>
       <c r="B20" s="162">
         <v>0</v>
       </c>
@@ -4029,67 +4033,67 @@
       <c r="E20" s="163"/>
       <c r="F20" s="163"/>
       <c r="G20" s="164"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="222"/>
-      <c r="K20" s="225"/>
-      <c r="L20" s="226"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="206"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="213" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="188" t="s">
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="191">
-        <v>0</v>
-      </c>
-      <c r="L21" s="193">
+      <c r="K21" s="225">
+        <v>0</v>
+      </c>
+      <c r="L21" s="204">
         <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="172"/>
+      <c r="A22" s="211"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="205"/>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="177"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="172"/>
+      <c r="A23" s="211"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="205"/>
     </row>
     <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="178"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="165" t="s">
         <v>134</v>
       </c>
@@ -4108,42 +4112,42 @@
       <c r="G24" s="166">
         <v>0</v>
       </c>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="190"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="224"/>
       <c r="K24" s="167">
         <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="173"/>
+      <c r="L24" s="207"/>
     </row>
     <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="213" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="200" t="s">
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="199" t="s">
         <v>136</v>
       </c>
       <c r="K25" s="168">
         <v>0</v>
       </c>
-      <c r="L25" s="172">
+      <c r="L25" s="205">
         <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="178"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="169" t="s">
         <v>134</v>
       </c>
@@ -4160,14 +4164,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="166"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="201"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="233"/>
       <c r="K26" s="167">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="173"/>
+      <c r="L26" s="207"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4185,11 +4189,11 @@
         <v>12</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="174">
+      <c r="K28" s="208">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="175"/>
+      <c r="L28" s="209"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="171" t="s">
@@ -4211,6 +4215,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:G23"/>
+    <mergeCell ref="H21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:E5"/>
@@ -4223,26 +4247,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:G23"/>
-    <mergeCell ref="H21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4324,10 +4328,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -4341,10 +4345,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4361,79 +4365,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="246"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="243"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4463,12 +4467,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
-      <c r="B15" s="245" t="s">
+      <c r="A15" s="234"/>
+      <c r="B15" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="236"/>
       <c r="E15" s="18"/>
       <c r="F15" s="128"/>
       <c r="G15" s="128"/>
@@ -4482,12 +4486,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="244"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
       <c r="E16" s="18"/>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -4504,8 +4508,8 @@
       <c r="B17" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="18"/>
       <c r="F17" s="128"/>
       <c r="G17" s="128"/>
@@ -4519,11 +4523,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
       <c r="E18" s="18"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
@@ -4540,8 +4544,8 @@
       <c r="B19" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
       <c r="E19" s="20"/>
       <c r="F19" s="128"/>
       <c r="G19" s="128"/>
@@ -4591,12 +4595,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="246" t="s">
+      <c r="B22" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="247"/>
-      <c r="D22" s="247"/>
-      <c r="E22" s="248"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="240"/>
       <c r="F22" s="128"/>
       <c r="G22" s="128"/>
       <c r="H22" s="128"/>
@@ -4720,11 +4724,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4738,6 +4737,11 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4820,10 +4824,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -4837,10 +4841,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4857,80 +4861,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="246"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="243"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4960,12 +4964,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
-      <c r="B15" s="245" t="s">
+      <c r="A15" s="234"/>
+      <c r="B15" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="236"/>
       <c r="E15" s="18"/>
       <c r="F15" s="128"/>
       <c r="G15" s="128"/>
@@ -4979,12 +4983,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="244"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
       <c r="E16" s="18"/>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -5001,8 +5005,8 @@
       <c r="B17" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="18"/>
       <c r="F17" s="128"/>
       <c r="G17" s="128"/>
@@ -5019,8 +5023,8 @@
       <c r="B18" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
       <c r="E18" s="18"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
@@ -5034,11 +5038,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="20"/>
       <c r="F19" s="128"/>
       <c r="G19" s="128"/>
@@ -5055,8 +5059,8 @@
       <c r="B20" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
       <c r="E20" s="18"/>
       <c r="F20" s="128"/>
       <c r="G20" s="128"/>
@@ -5221,13 +5225,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5240,6 +5237,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5322,10 +5326,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -5339,10 +5343,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5359,80 +5363,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="242"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="235"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="242"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="235"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="235"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="242"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="242"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5469,12 +5473,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="244"/>
-      <c r="B16" s="245" t="s">
+      <c r="A16" s="234"/>
+      <c r="B16" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
       <c r="E16" s="18"/>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -5488,12 +5492,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="244"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="18"/>
       <c r="F17" s="128"/>
       <c r="G17" s="128"/>
@@ -5510,8 +5514,8 @@
       <c r="B18" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
       <c r="E18" s="18"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
@@ -5528,8 +5532,8 @@
       <c r="B19" s="251" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
       <c r="E19" s="18"/>
       <c r="F19" s="128"/>
       <c r="G19" s="128"/>
@@ -5546,8 +5550,8 @@
       <c r="B20" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
       <c r="E20" s="252"/>
       <c r="F20" s="128"/>
       <c r="G20" s="128"/>
@@ -5564,8 +5568,8 @@
       <c r="B21" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
       <c r="E21" s="18"/>
       <c r="F21" s="128"/>
       <c r="G21" s="128"/>
@@ -5579,12 +5583,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="246" t="s">
+      <c r="B22" s="238" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="247"/>
-      <c r="D22" s="247"/>
-      <c r="E22" s="248"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="240"/>
       <c r="F22" s="128"/>
       <c r="G22" s="128"/>
       <c r="H22" s="128"/>
@@ -5737,13 +5741,6 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5756,6 +5753,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5843,10 +5847,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -5860,10 +5864,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5880,79 +5884,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="246"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="243"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6262,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6329,10 +6333,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -6346,10 +6350,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6366,79 +6370,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="246"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="243"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6464,13 +6468,32 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="56"/>
+      <c r="A15" s="267"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="269"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="269"/>
+      <c r="K15" s="269"/>
+      <c r="L15" s="270"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="A16" s="268"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="246"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108" t="s">
@@ -6509,7 +6532,10 @@
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="62"/>
-      <c r="E20" s="129"/>
+      <c r="E20" s="129">
+        <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"D",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"S",""))</f>
+        <v>0</v>
+      </c>
       <c r="F20" s="90">
         <v>0.5</v>
       </c>
@@ -6528,7 +6554,10 @@
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="62"/>
-      <c r="E21" s="129"/>
+      <c r="E21" s="129">
+        <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"M",""))</f>
+        <v>0</v>
+      </c>
       <c r="F21" s="90">
         <v>0.3</v>
       </c>
@@ -6547,7 +6576,10 @@
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="62"/>
-      <c r="E22" s="129"/>
+      <c r="E22" s="129">
+        <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"E",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"L",""))</f>
+        <v>0</v>
+      </c>
       <c r="F22" s="90">
         <v>0.1</v>
       </c>
@@ -6615,7 +6647,11 @@
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="62"/>
-      <c r="E27" s="129"/>
+      <c r="E27" s="129">
+        <f xml:space="preserve">
+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
+        <v>0</v>
+      </c>
       <c r="F27" s="47" t="s">
         <v>51</v>
       </c>
@@ -6719,7 +6755,8 @@
       <c r="L42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A15:L16"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
@@ -6749,7 +6786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6816,10 +6853,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -6833,10 +6870,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6853,79 +6890,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="246"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="243"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6951,13 +6988,32 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="56"/>
+      <c r="A15" s="267"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="269"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="269"/>
+      <c r="K15" s="269"/>
+      <c r="L15" s="270"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="A16" s="268"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="246"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108" t="s">
@@ -6997,6 +7053,7 @@
       <c r="C20" s="47"/>
       <c r="D20" s="62"/>
       <c r="E20" s="129">
+        <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"D",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"S",""))</f>
         <v>0</v>
       </c>
       <c r="F20" s="90">
@@ -7022,6 +7079,7 @@
       <c r="C21" s="47"/>
       <c r="D21" s="62"/>
       <c r="E21" s="129">
+        <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"M",""))</f>
         <v>0</v>
       </c>
       <c r="F21" s="90">
@@ -7047,6 +7105,7 @@
       <c r="C22" s="47"/>
       <c r="D22" s="62"/>
       <c r="E22" s="129">
+        <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"E",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"L",""))</f>
         <v>0</v>
       </c>
       <c r="F22" s="90">
@@ -7140,6 +7199,8 @@
       <c r="C28" s="48"/>
       <c r="D28" s="62"/>
       <c r="E28" s="129">
+        <f xml:space="preserve">
+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
       </c>
       <c r="F28" s="47" t="s">
@@ -7238,7 +7299,8 @@
       <c r="L42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A15:L16"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7267,8 +7329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="B10" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A10" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7334,10 +7396,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -7351,10 +7413,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7371,80 +7433,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="246"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="243"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="243"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7463,16 +7525,16 @@
       <c r="A15" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="255" t="s">
+      <c r="B15" s="257" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="257"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="258"/>
+      <c r="I15" s="259"/>
       <c r="J15" s="79" t="s">
         <v>7</v>
       </c>
@@ -7485,16 +7547,16 @@
     </row>
     <row r="16" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="254"/>
-      <c r="B16" s="258" t="s">
+      <c r="B16" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="259"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="259"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="261"/>
       <c r="J16" s="82" t="s">
         <v>8</v>
       </c>
@@ -7506,7 +7568,7 @@
       <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="265" t="s">
+      <c r="A17" s="255" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="262" t="s">
@@ -7530,17 +7592,17 @@
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="266"/>
-      <c r="B18" s="260" t="s">
+      <c r="A18" s="256"/>
+      <c r="B18" s="265" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="261"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="266"/>
       <c r="J18" s="85" t="s">
         <v>9</v>
       </c>
@@ -7581,7 +7643,7 @@
     <row r="22" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L22" s="69"/>
     </row>
-    <row r="23" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="50" t="s">
         <v>64</v>
       </c>
@@ -7610,12 +7672,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7627,6 +7683,12 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7641,24 +7703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7724,10 +7768,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7748,18 +7819,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555A08D-8DC5-412B-8A2C-041C63AC520C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79705BF1-4209-4895-A594-11753D17F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -382,12 +382,6 @@
   </si>
   <si>
     <t>Mellanklass lag</t>
-  </si>
-  <si>
-    <t>Svår klass juniorlag</t>
-  </si>
-  <si>
-    <t>Svår klass seniorlag</t>
   </si>
   <si>
     <t>Lag kür</t>
@@ -818,6 +812,12 @@
 • Undviker tom häst
 • Övningar som inte överbelastar hästen</t>
     </r>
+  </si>
+  <si>
+    <t>Svår klass seniorlag 3*</t>
+  </si>
+  <si>
+    <t>Svår klass juniorlag 2*</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1734,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2082,9 +2082,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2176,6 +2173,173 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2200,199 +2364,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2404,6 +2386,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2416,6 +2413,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2458,10 +2459,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2887,27 +2884,27 @@
   <sheetData>
     <row r="1" spans="1:8" s="126" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="125" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="126" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="126" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="126" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="138" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="138" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="138" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="138" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2966,17 +2963,17 @@
         <v>81</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="117"/>
       <c r="F15" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G15" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="116" t="s">
         <v>85</v>
@@ -3000,17 +2997,17 @@
         <v>81</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="117"/>
       <c r="F17" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H17" s="116" t="s">
         <v>85</v>
@@ -3034,17 +3031,17 @@
         <v>81</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="117"/>
       <c r="F19" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" s="116" t="s">
         <v>85</v>
@@ -3108,25 +3105,25 @@
         <v>81</v>
       </c>
       <c r="C25" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H25" s="116" t="s">
         <v>85</v>
       </c>
       <c r="I25" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3148,25 +3145,25 @@
         <v>81</v>
       </c>
       <c r="C27" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F27" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H27" s="116" t="s">
         <v>85</v>
       </c>
       <c r="I27" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3188,25 +3185,25 @@
         <v>81</v>
       </c>
       <c r="C29" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G29" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H29" s="116" t="s">
         <v>85</v>
       </c>
       <c r="I29" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3282,17 +3279,17 @@
         <v>81</v>
       </c>
       <c r="C37" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E37" s="117"/>
       <c r="F37" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G37" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H37" s="116" t="s">
         <v>85</v>
@@ -3301,7 +3298,7 @@
         <v>81</v>
       </c>
       <c r="K37" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L37" s="116" t="s">
         <v>85</v>
@@ -3328,17 +3325,17 @@
         <v>81</v>
       </c>
       <c r="C39" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="117"/>
       <c r="F39" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G39" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="116" t="s">
         <v>85</v>
@@ -3347,7 +3344,7 @@
         <v>81</v>
       </c>
       <c r="K39" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L39" s="116" t="s">
         <v>85</v>
@@ -3374,17 +3371,17 @@
         <v>81</v>
       </c>
       <c r="C41" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H41" s="116" t="s">
         <v>85</v>
@@ -3393,7 +3390,7 @@
         <v>81</v>
       </c>
       <c r="K41" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L41" s="116" t="s">
         <v>85</v>
@@ -3494,37 +3491,37 @@
         <v>81</v>
       </c>
       <c r="C49" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E49" s="116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F49" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G49" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H49" s="116" t="s">
         <v>85</v>
       </c>
       <c r="I49" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J49" s="116" t="s">
         <v>81</v>
       </c>
       <c r="K49" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L49" s="116" t="s">
         <v>85</v>
       </c>
       <c r="M49" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3550,37 +3547,37 @@
         <v>81</v>
       </c>
       <c r="C51" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E51" s="116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G51" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H51" s="116" t="s">
         <v>85</v>
       </c>
       <c r="I51" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J51" s="116" t="s">
         <v>81</v>
       </c>
       <c r="K51" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L51" s="116" t="s">
         <v>85</v>
       </c>
       <c r="M51" s="116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3606,42 +3603,42 @@
         <v>81</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F53" s="116" t="s">
         <v>81</v>
       </c>
       <c r="G53" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H53" s="116" t="s">
         <v>85</v>
       </c>
       <c r="I53" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J53" s="116" t="s">
         <v>81</v>
       </c>
       <c r="K53" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L53" s="116" t="s">
         <v>85</v>
       </c>
       <c r="M53" s="116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="126" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A56" s="124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="123" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
@@ -3659,47 +3656,47 @@
         <v>78</v>
       </c>
       <c r="F57" s="122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="120" t="s">
+      <c r="D58" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="120" t="s">
+      <c r="F58" s="120" t="s">
         <v>94</v>
-      </c>
-      <c r="D58" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="120" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="120" t="s">
+      <c r="E59" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="120" t="s">
-        <v>100</v>
-      </c>
       <c r="F59" s="120" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="121" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -3709,7 +3706,7 @@
       <c r="D60" s="120"/>
       <c r="E60" s="120"/>
       <c r="F60" s="120" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3750,428 +3747,428 @@
     <col min="13" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="140" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" s="140" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="141" t="s">
+    <row r="1" spans="1:12" s="139" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" s="139" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143" t="s">
+      <c r="G2" s="141"/>
+      <c r="H2" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
-    </row>
-    <row r="3" spans="1:12" s="140" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="147" t="s">
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="145"/>
+    </row>
+    <row r="3" spans="1:12" s="139" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143" t="s">
+      <c r="G3" s="141"/>
+      <c r="H3" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
-    </row>
-    <row r="4" spans="1:12" s="140" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="148" t="s">
+      <c r="I3" s="143"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="145"/>
+    </row>
+    <row r="4" spans="1:12" s="139" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="149"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143" t="s">
+      <c r="B4" s="147"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="148"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="146"/>
-    </row>
-    <row r="5" spans="1:12" s="140" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="150" t="s">
+      <c r="I4" s="143"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="145"/>
+    </row>
+    <row r="5" spans="1:12" s="139" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143" t="s">
+      <c r="B5" s="149"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146"/>
-    </row>
-    <row r="6" spans="1:12" s="140" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="150" t="s">
+      <c r="I5" s="150"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="145"/>
+    </row>
+    <row r="6" spans="1:12" s="139" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="G6" s="140" t="s">
+      <c r="B6" s="149"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="G6" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="152"/>
-    </row>
-    <row r="7" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="150" t="s">
+      <c r="K6" s="151"/>
+    </row>
+    <row r="7" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="G7" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="178"/>
-    </row>
-    <row r="8" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="148" t="s">
+      <c r="B7" s="149"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="G7" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="230"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="232"/>
+    </row>
+    <row r="8" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="G8" s="150" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="G8" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="172"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="174"/>
-    </row>
-    <row r="9" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="150" t="s">
+      <c r="H8" s="226"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="228"/>
+    </row>
+    <row r="9" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="G9" s="150" t="s">
+      <c r="B9" s="149"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="G9" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="172"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="174"/>
-    </row>
-    <row r="10" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150" t="s">
+      <c r="H9" s="226"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="228"/>
+    </row>
+    <row r="10" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="G10" s="150" t="s">
+      <c r="B10" s="149"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="G10" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="172"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="174"/>
-    </row>
-    <row r="11" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="150" t="s">
+      <c r="H10" s="226"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="228"/>
+    </row>
+    <row r="11" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="174"/>
-    </row>
-    <row r="12" spans="1:12" s="140" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="154"/>
-      <c r="G12" s="150" t="s">
+      <c r="H11" s="226"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="228"/>
+    </row>
+    <row r="12" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="153"/>
+      <c r="G12" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="172"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="174"/>
-    </row>
-    <row r="13" spans="1:12" s="140" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="228"/>
+    </row>
+    <row r="13" spans="1:12" s="139" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="153"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="179" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="180"/>
-      <c r="J14" s="181" t="s">
+      <c r="I14" s="202"/>
+      <c r="J14" s="203" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="182"/>
-      <c r="L14" s="183"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="205"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="206" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="210" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="220" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="188" t="s">
+      <c r="K15" s="222">
+        <f>SUM(B20:G20)/6</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="192">
+        <f>ROUND(K15*0.6,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="207"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="171"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="207"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="171"/>
+    </row>
+    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="207"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="171"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="208"/>
+      <c r="B19" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="198" t="s">
+      <c r="C19" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="201">
-        <f>SUM(B20:G20)/6</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="204">
-        <f>ROUND(K15*0.6,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="185"/>
-      <c r="B16" s="190"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="205"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="185"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="205"/>
-    </row>
-    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="185"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="205"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="186"/>
-      <c r="B19" s="158" t="s">
+      <c r="D19" s="159" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="159" t="s">
+      <c r="E19" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="F19" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="159" t="s">
+      <c r="G19" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="159" t="s">
+      <c r="H19" s="216"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="171"/>
+    </row>
+    <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="209"/>
+      <c r="B20" s="161">
+        <v>0</v>
+      </c>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="225"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="161" t="s">
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="187" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="190">
+        <v>0</v>
+      </c>
+      <c r="L21" s="192">
+        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="176"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="171"/>
+    </row>
+    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="176"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="171"/>
+    </row>
+    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="177"/>
+      <c r="B24" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="194"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="205"/>
-    </row>
-    <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
-      <c r="B20" s="162">
-        <v>0</v>
-      </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="206"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="210" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="213" t="s">
+      <c r="C24" s="165">
+        <v>0</v>
+      </c>
+      <c r="D24" s="165">
+        <v>0</v>
+      </c>
+      <c r="E24" s="165">
+        <v>0</v>
+      </c>
+      <c r="F24" s="165">
+        <v>0</v>
+      </c>
+      <c r="G24" s="165">
+        <v>0</v>
+      </c>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="166">
+        <f>SUM(C24:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="172"/>
+    </row>
+    <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="222" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="225">
-        <v>0</v>
-      </c>
-      <c r="L21" s="204">
-        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
-      <c r="B22" s="214"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="226"/>
-      <c r="L22" s="205"/>
-    </row>
-    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="211"/>
-      <c r="B23" s="215"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="226"/>
-      <c r="L23" s="205"/>
-    </row>
-    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="212"/>
-      <c r="B24" s="165" t="s">
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="199" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="166">
-        <v>0</v>
-      </c>
-      <c r="D24" s="166">
-        <v>0</v>
-      </c>
-      <c r="E24" s="166">
-        <v>0</v>
-      </c>
-      <c r="F24" s="166">
-        <v>0</v>
-      </c>
-      <c r="G24" s="166">
-        <v>0</v>
-      </c>
-      <c r="H24" s="220"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="167">
-        <f>SUM(C24:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="207"/>
-    </row>
-    <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="210" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="213" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="230"/>
-      <c r="J25" s="199" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" s="168">
-        <v>0</v>
-      </c>
-      <c r="L25" s="205">
+      <c r="K25" s="167">
+        <v>0</v>
+      </c>
+      <c r="L25" s="171">
         <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="212"/>
-      <c r="B26" s="169" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="166">
-        <v>0</v>
-      </c>
-      <c r="D26" s="166">
-        <v>0</v>
-      </c>
-      <c r="E26" s="166">
-        <v>0</v>
-      </c>
-      <c r="F26" s="166">
-        <v>0</v>
-      </c>
-      <c r="G26" s="166"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="167">
+      <c r="A26" s="177"/>
+      <c r="B26" s="168" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="165">
+        <v>0</v>
+      </c>
+      <c r="D26" s="165">
+        <v>0</v>
+      </c>
+      <c r="E26" s="165">
+        <v>0</v>
+      </c>
+      <c r="F26" s="165">
+        <v>0</v>
+      </c>
+      <c r="G26" s="165"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="166">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="207"/>
+      <c r="L26" s="172"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4189,32 +4186,52 @@
         <v>12</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="208">
+      <c r="K28" s="173">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="209"/>
+      <c r="L28" s="174"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="171" t="s">
+      <c r="A32" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="148" t="s">
+      <c r="B32" s="170"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A21:A24"/>
@@ -4227,26 +4244,6 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H25:I26"/>
     <mergeCell ref="J25:J26"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4263,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4284,7 +4281,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -4296,7 +4293,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
@@ -4328,10 +4325,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -4345,10 +4342,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4365,79 +4362,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="246"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="240"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4467,12 +4464,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="234"/>
-      <c r="B15" s="235" t="s">
+      <c r="A15" s="243"/>
+      <c r="B15" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
       <c r="E15" s="18"/>
       <c r="F15" s="128"/>
       <c r="G15" s="128"/>
@@ -4486,12 +4483,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="237" t="s">
+      <c r="A16" s="243"/>
+      <c r="B16" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="236"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="18"/>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -4505,11 +4502,11 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="236" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="18"/>
       <c r="F17" s="128"/>
       <c r="G17" s="128"/>
@@ -4523,11 +4520,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="247" t="s">
+      <c r="B18" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="248"/>
-      <c r="D18" s="248"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="18"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
@@ -4541,11 +4538,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="237" t="s">
+      <c r="B19" s="236" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="20"/>
       <c r="F19" s="128"/>
       <c r="G19" s="128"/>
@@ -4595,12 +4592,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="238" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
+      <c r="B22" s="245" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247"/>
       <c r="F22" s="128"/>
       <c r="G22" s="128"/>
       <c r="H22" s="128"/>
@@ -4724,6 +4721,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4737,11 +4739,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4759,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4780,7 +4777,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -4792,7 +4789,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
@@ -4824,10 +4821,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -4841,10 +4838,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4861,80 +4858,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="246"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="240"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4964,12 +4961,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="234"/>
-      <c r="B15" s="235" t="s">
+      <c r="A15" s="243"/>
+      <c r="B15" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
       <c r="E15" s="18"/>
       <c r="F15" s="128"/>
       <c r="G15" s="128"/>
@@ -4983,12 +4980,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="237" t="s">
+      <c r="A16" s="243"/>
+      <c r="B16" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="236"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="18"/>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -5002,11 +4999,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="18"/>
       <c r="F17" s="128"/>
       <c r="G17" s="128"/>
@@ -5020,11 +5017,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="251" t="s">
+      <c r="B18" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="18"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
@@ -5038,11 +5035,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="247" t="s">
+      <c r="B19" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="248"/>
-      <c r="D19" s="248"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="20"/>
       <c r="F19" s="128"/>
       <c r="G19" s="128"/>
@@ -5056,11 +5053,11 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="237" t="s">
+      <c r="B20" s="236" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="18"/>
       <c r="F20" s="128"/>
       <c r="G20" s="128"/>
@@ -5092,11 +5089,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="249" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="250"/>
-      <c r="D22" s="250"/>
+      <c r="B22" s="248" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
       <c r="E22" s="49"/>
       <c r="F22" s="128"/>
       <c r="G22" s="128"/>
@@ -5225,6 +5222,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5237,13 +5241,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5261,7 +5258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
@@ -5326,10 +5323,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -5343,10 +5340,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5363,80 +5360,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="239"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="242"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="242"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="242"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="242"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="242"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="234"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5473,12 +5470,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="235" t="s">
+      <c r="A16" s="243"/>
+      <c r="B16" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="236"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="18"/>
       <c r="F16" s="128"/>
       <c r="G16" s="128"/>
@@ -5492,12 +5489,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="234"/>
-      <c r="B17" s="237" t="s">
+      <c r="A17" s="243"/>
+      <c r="B17" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="18"/>
       <c r="F17" s="128"/>
       <c r="G17" s="128"/>
@@ -5511,11 +5508,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="18"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
@@ -5529,11 +5526,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="251" t="s">
+      <c r="B19" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="18"/>
       <c r="F19" s="128"/>
       <c r="G19" s="128"/>
@@ -5547,12 +5544,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="237" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="252"/>
+      <c r="B20" s="236" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="251"/>
       <c r="F20" s="128"/>
       <c r="G20" s="128"/>
       <c r="H20" s="128"/>
@@ -5565,11 +5562,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="237" t="s">
+      <c r="B21" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="236"/>
-      <c r="D21" s="236"/>
+      <c r="C21" s="237"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="18"/>
       <c r="F21" s="128"/>
       <c r="G21" s="128"/>
@@ -5583,12 +5580,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="238" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
+      <c r="B22" s="245" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247"/>
       <c r="F22" s="128"/>
       <c r="G22" s="128"/>
       <c r="H22" s="128"/>
@@ -5741,6 +5738,13 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5753,13 +5757,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5803,7 +5800,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -5847,10 +5844,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -5864,10 +5861,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5884,79 +5881,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="246"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="240"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6266,7 +6263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6289,7 +6286,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -6333,10 +6330,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -6350,10 +6347,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6370,79 +6367,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="246"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="240"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6468,32 +6465,32 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="267"/>
-      <c r="B15" s="269"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="269"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="269"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="270"/>
+      <c r="A15" s="252"/>
+      <c r="B15" s="253"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="268"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="245"/>
-      <c r="F16" s="245"/>
-      <c r="G16" s="245"/>
-      <c r="H16" s="245"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="245"/>
-      <c r="L16" s="246"/>
+      <c r="A16" s="255"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="239"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="240"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108" t="s">
@@ -6809,7 +6806,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -6853,10 +6850,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -6870,10 +6867,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6890,79 +6887,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="246"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="240"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6988,32 +6985,32 @@
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="267"/>
-      <c r="B15" s="269"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="269"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="269"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="270"/>
+      <c r="A15" s="252"/>
+      <c r="B15" s="253"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="268"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="245"/>
-      <c r="F16" s="245"/>
-      <c r="G16" s="245"/>
-      <c r="H16" s="245"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="245"/>
-      <c r="L16" s="246"/>
+      <c r="A16" s="255"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="239"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="240"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108" t="s">
@@ -7060,7 +7057,7 @@
         <v>0.4</v>
       </c>
       <c r="G20" s="91"/>
-      <c r="H20" s="139">
+      <c r="H20" s="63">
         <f>IF(E20&gt;24,25,E20)</f>
         <v>0</v>
       </c>
@@ -7086,7 +7083,7 @@
         <v>0.3</v>
       </c>
       <c r="G21" s="91"/>
-      <c r="H21" s="139">
+      <c r="H21" s="63">
         <f>IF(SUM(E20:E21)&gt;24,25-H20,E21)</f>
         <v>0</v>
       </c>
@@ -7112,7 +7109,7 @@
         <v>0.1</v>
       </c>
       <c r="G22" s="91"/>
-      <c r="H22" s="139">
+      <c r="H22" s="63">
         <f>IF(SUM(E20:E22)&gt;24,IF(25-SUM(H20:H21)&gt;0,25-SUM(H20:H21),0),E22)</f>
         <v>0</v>
       </c>
@@ -7352,7 +7349,7 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
@@ -7396,10 +7393,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>13</v>
@@ -7413,10 +7410,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7433,80 +7430,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="246"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="240"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7522,19 +7519,19 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="57.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="253" t="s">
+      <c r="A15" s="256" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="257" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="258"/>
-      <c r="I15" s="259"/>
+      <c r="B15" s="260" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="261"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="261"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="261"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="262"/>
       <c r="J15" s="79" t="s">
         <v>7</v>
       </c>
@@ -7546,17 +7543,17 @@
       <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="254"/>
-      <c r="B16" s="260" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="261"/>
+      <c r="A16" s="257"/>
+      <c r="B16" s="263" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="264"/>
+      <c r="I16" s="264"/>
       <c r="J16" s="82" t="s">
         <v>8</v>
       </c>
@@ -7568,21 +7565,21 @@
       <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="255" t="s">
+      <c r="A17" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="262" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="263"/>
-      <c r="F17" s="263"/>
-      <c r="G17" s="263"/>
-      <c r="H17" s="263"/>
-      <c r="I17" s="264"/>
+      <c r="B17" s="265" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="266"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="266"/>
+      <c r="H17" s="266"/>
+      <c r="I17" s="267"/>
       <c r="J17" s="79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K17" s="133"/>
       <c r="L17" s="84">
@@ -7592,17 +7589,17 @@
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="256"/>
-      <c r="B18" s="265" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
+      <c r="A18" s="259"/>
+      <c r="B18" s="268" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="269"/>
+      <c r="I18" s="269"/>
       <c r="J18" s="85" t="s">
         <v>9</v>
       </c>
@@ -7672,6 +7669,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7683,12 +7686,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7703,6 +7700,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7768,37 +7783,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7819,9 +7807,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79705BF1-4209-4895-A594-11753D17F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E06E4-E464-4C5F-B990-17CAC847DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -62,6 +62,7 @@
     <definedName name="firstvaulter" localSheetId="6">'Lag kür tekn junior'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="5">'Lag kür tekn mellan'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="7">'Lag kür tekn sr'!$I$7</definedName>
+    <definedName name="header" localSheetId="1">'Häst, lag'!$A$2</definedName>
     <definedName name="id" localSheetId="1">'Häst, lag'!$U$1</definedName>
     <definedName name="id" localSheetId="2">'Lag grund A'!$U$1</definedName>
     <definedName name="id" localSheetId="3">'Lag grund B'!$U$1</definedName>
@@ -2293,16 +2294,16 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2489,7 +2490,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Information"/>
@@ -2520,7 +2521,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Information"/>
@@ -2551,9 +2552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2591,9 +2592,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2626,26 +2627,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2678,26 +2662,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3728,8 +3695,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4261,7 +4228,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5258,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7700,24 +7667,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7783,30 +7732,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7821,4 +7765,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E06E4-E464-4C5F-B990-17CAC847DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AE8D9-4D35-4FBE-A780-2BF9E5063307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
     <sheet name="Häst, lag" sheetId="30" r:id="rId2"/>
     <sheet name="Lag grund A" sheetId="22" r:id="rId3"/>
-    <sheet name="Lag grund B" sheetId="18" r:id="rId4"/>
-    <sheet name="Lag grund D" sheetId="17" r:id="rId5"/>
+    <sheet name="Lag grund D" sheetId="17" r:id="rId4"/>
+    <sheet name="Lag grund B" sheetId="18" r:id="rId5"/>
     <sheet name="Lag kür tekn mellan" sheetId="29" r:id="rId6"/>
     <sheet name="Lag kür tekn junior" sheetId="6" r:id="rId7"/>
     <sheet name="Lag kür tekn sr" sheetId="20" r:id="rId8"/>
@@ -32,32 +32,32 @@
     <definedName name="Antal_tävlingsdagar">[2]Information!$H$5</definedName>
     <definedName name="bord" localSheetId="1">'Häst, lag'!$K$3</definedName>
     <definedName name="bord" localSheetId="2">'Lag grund A'!$L$3</definedName>
-    <definedName name="bord" localSheetId="3">'Lag grund B'!$L$3</definedName>
-    <definedName name="bord" localSheetId="4">'Lag grund D'!$L$3</definedName>
+    <definedName name="bord" localSheetId="4">'Lag grund B'!$L$3</definedName>
+    <definedName name="bord" localSheetId="3">'Lag grund D'!$L$3</definedName>
     <definedName name="bord" localSheetId="8">'Lag kür art'!$L$3</definedName>
     <definedName name="bord" localSheetId="6">'Lag kür tekn junior'!$L$3</definedName>
     <definedName name="bord" localSheetId="5">'Lag kür tekn mellan'!$L$3</definedName>
     <definedName name="bord" localSheetId="7">'Lag kür tekn sr'!$L$3</definedName>
     <definedName name="datum" localSheetId="1">'Häst, lag'!$C$4</definedName>
     <definedName name="datum" localSheetId="2">'Lag grund A'!$C$4</definedName>
-    <definedName name="datum" localSheetId="3">'Lag grund B'!$C$4</definedName>
-    <definedName name="datum" localSheetId="4">'Lag grund D'!$C$4</definedName>
+    <definedName name="datum" localSheetId="4">'Lag grund B'!$C$4</definedName>
+    <definedName name="datum" localSheetId="3">'Lag grund D'!$C$4</definedName>
     <definedName name="datum" localSheetId="8">'Lag kür art'!$C$4</definedName>
     <definedName name="datum" localSheetId="6">'Lag kür tekn junior'!$C$4</definedName>
     <definedName name="datum" localSheetId="5">'Lag kür tekn mellan'!$C$4</definedName>
     <definedName name="datum" localSheetId="7">'Lag kür tekn sr'!$C$4</definedName>
     <definedName name="domare" localSheetId="1">'Häst, lag'!$C$32</definedName>
     <definedName name="domare" localSheetId="2">'Lag grund A'!$C$33</definedName>
-    <definedName name="domare" localSheetId="3">'Lag grund B'!$C$32</definedName>
-    <definedName name="domare" localSheetId="4">'Lag grund D'!$C$33</definedName>
-    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$26</definedName>
+    <definedName name="domare" localSheetId="4">'Lag grund B'!$C$32</definedName>
+    <definedName name="domare" localSheetId="3">'Lag grund D'!$C$33</definedName>
+    <definedName name="domare" localSheetId="8">'Lag kür art'!$C$27</definedName>
     <definedName name="domare" localSheetId="6">'Lag kür tekn junior'!$C$42</definedName>
     <definedName name="domare" localSheetId="5">'Lag kür tekn mellan'!$C$42</definedName>
     <definedName name="domare" localSheetId="7">'Lag kür tekn sr'!$C$42</definedName>
     <definedName name="firstvaulter" localSheetId="1">'Häst, lag'!$H$7</definedName>
     <definedName name="firstvaulter" localSheetId="2">'Lag grund A'!$I$7</definedName>
-    <definedName name="firstvaulter" localSheetId="3">'Lag grund B'!$I$7</definedName>
-    <definedName name="firstvaulter" localSheetId="4">'Lag grund D'!$I$7</definedName>
+    <definedName name="firstvaulter" localSheetId="4">'Lag grund B'!$I$7</definedName>
+    <definedName name="firstvaulter" localSheetId="3">'Lag grund D'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="8">'Lag kür art'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="6">'Lag kür tekn junior'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="5">'Lag kür tekn mellan'!$I$7</definedName>
@@ -65,33 +65,33 @@
     <definedName name="header" localSheetId="1">'Häst, lag'!$A$2</definedName>
     <definedName name="id" localSheetId="1">'Häst, lag'!$U$1</definedName>
     <definedName name="id" localSheetId="2">'Lag grund A'!$U$1</definedName>
-    <definedName name="id" localSheetId="3">'Lag grund B'!$U$1</definedName>
-    <definedName name="id" localSheetId="4">'Lag grund D'!$U$1</definedName>
+    <definedName name="id" localSheetId="4">'Lag grund B'!$U$1</definedName>
+    <definedName name="id" localSheetId="3">'Lag grund D'!$U$1</definedName>
     <definedName name="id" localSheetId="8">'Lag kür art'!$U$1</definedName>
     <definedName name="id" localSheetId="6">'Lag kür tekn junior'!$U$1</definedName>
     <definedName name="id" localSheetId="5">'Lag kür tekn mellan'!$U$1</definedName>
     <definedName name="id" localSheetId="7">'Lag kür tekn sr'!$U$1</definedName>
     <definedName name="klass" localSheetId="1">'Häst, lag'!$K$4</definedName>
     <definedName name="klass" localSheetId="2">'Lag grund A'!$L$4</definedName>
-    <definedName name="klass" localSheetId="3">'Lag grund B'!$L$4</definedName>
-    <definedName name="klass" localSheetId="4">'Lag grund D'!$L$4</definedName>
+    <definedName name="klass" localSheetId="4">'Lag grund B'!$L$4</definedName>
+    <definedName name="klass" localSheetId="3">'Lag grund D'!$L$4</definedName>
     <definedName name="klass" localSheetId="8">'Lag kür art'!$L$4</definedName>
     <definedName name="klass" localSheetId="6">'Lag kür tekn junior'!$L$4</definedName>
     <definedName name="klass" localSheetId="5">'Lag kür tekn mellan'!$L$4</definedName>
     <definedName name="klass" localSheetId="7">'Lag kür tekn sr'!$L$4</definedName>
     <definedName name="moment" localSheetId="1">'Häst, lag'!$K$5</definedName>
     <definedName name="moment" localSheetId="2">'Lag grund A'!$L$5</definedName>
-    <definedName name="moment" localSheetId="3">'Lag grund B'!$L$5</definedName>
-    <definedName name="moment" localSheetId="4">'Lag grund D'!$L$5</definedName>
+    <definedName name="moment" localSheetId="4">'Lag grund B'!$L$5</definedName>
+    <definedName name="moment" localSheetId="3">'Lag grund D'!$L$5</definedName>
     <definedName name="moment" localSheetId="8">'Lag kür art'!$L$5</definedName>
     <definedName name="moment" localSheetId="6">'Lag kür tekn junior'!$L$5</definedName>
     <definedName name="moment" localSheetId="5">'Lag kür tekn mellan'!$L$5</definedName>
     <definedName name="moment" localSheetId="7">'Lag kür tekn sr'!$L$5</definedName>
     <definedName name="result" localSheetId="1">'Häst, lag'!$K$28</definedName>
     <definedName name="result" localSheetId="2">'Lag grund A'!$L$29</definedName>
-    <definedName name="result" localSheetId="3">'Lag grund B'!$L$29</definedName>
-    <definedName name="result" localSheetId="4">'Lag grund D'!$L$29</definedName>
-    <definedName name="result" localSheetId="8">'Lag kür art'!$L$23</definedName>
+    <definedName name="result" localSheetId="4">'Lag grund B'!$L$29</definedName>
+    <definedName name="result" localSheetId="3">'Lag grund D'!$L$29</definedName>
+    <definedName name="result" localSheetId="8">'Lag kür art'!$L$24</definedName>
     <definedName name="result" localSheetId="6">'Lag kür tekn junior'!$L$34</definedName>
     <definedName name="result" localSheetId="5">'Lag kür tekn mellan'!$L$34</definedName>
     <definedName name="result" localSheetId="7">'Lag kür tekn sr'!$L$35</definedName>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="143">
   <si>
     <t>1)</t>
   </si>
@@ -133,18 +133,6 @@
   </si>
   <si>
     <t>Nation:</t>
-  </si>
-  <si>
-    <t>C1
-25%</t>
-  </si>
-  <si>
-    <t>C2
-25%</t>
-  </si>
-  <si>
-    <t>C4
-20%</t>
   </si>
   <si>
     <t>A2
@@ -439,94 +427,10 @@
     <t xml:space="preserve">Obs! Arbetsboken är skyddad med lösenordet 123 för att undvika att celler och formler ändras av misstag. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variation av övningar</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
-• En proportion mellan singel-, dubbel- och trippelövningar.
-• Ett urval av övningar och övergångar från olika strukturgrupper.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat mellanhopp.
-• Jämnt deltagande av alla voltigörer, ingen överanvändning av en eller två voltigörer.</t>
-    </r>
-  </si>
-  <si>
     <t>Grund</t>
   </si>
   <si>
     <t>Lag kür svårklass junior</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept
-• Fängslande tolkning av musiken
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
-• Komplext kroppsspråk samt gester och rörelser i många olika riktningar.</t>
-    </r>
   </si>
   <si>
     <t>Sving framlänges</t>
@@ -781,11 +685,17 @@
 15%</t>
   </si>
   <si>
-    <t>Sidhopp del 1, tryck av inåt</t>
-  </si>
-  <si>
-    <t>C3
-30%</t>
+    <t>Svår klass seniorlag 3*</t>
+  </si>
+  <si>
+    <t>Svår klass juniorlag 2*</t>
+  </si>
+  <si>
+    <t>Sidhopp del 1, 
+följt av avgång inåt</t>
+  </si>
+  <si>
+    <t>HÄNSYN TILL HÄSTEN</t>
   </si>
   <si>
     <r>
@@ -796,7 +706,97 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sammanhållning av sammansättning och komplexitet</t>
+      <t>Hänsyn till hästen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Urval av element och sekvenser i harmoni med hästen, baserat på vikt, sammansättning och balans.
+• Övningar som inte överbelastar hästen.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CoH
+20%</t>
+  </si>
+  <si>
+    <t>C1
+20%</t>
+  </si>
+  <si>
+    <t>C2
+10%</t>
+  </si>
+  <si>
+    <t>C3
+25%</t>
+  </si>
+  <si>
+    <t>C4
+25%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av övningar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
+• Använder singel- och dubbelövningar. Trippelövningar är tillåtet.
+• Urval av kombinationer.
+• Ett urval av övningar och övergångar från olika strukturgrupper.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av position</t>
     </r>
     <r>
       <rPr>
@@ -806,19 +806,60 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-• Val av element och sekvenser i harmoni med hästen.
-• Mjuka övergångar och rörelser som visar på sammanhållning och flyt.
-• Hög komplexitet av element, övergångar, positioner och kombinationer av övningar.
-• Förmåga att kontrollera och länka samman röresler och positioner i instabil jämvikt. Rörelsefrihet. 
-• Undviker tom häst
-• Övningar som inte överbelastar hästen</t>
+• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
+• Balanserad användning av utrymme; användning av alla delar av hästens rygg och hals, inklusive studs.
+• Jämnt deltagande av alla voltigörer.
+• Jämnt även i roller och artistiskt engagemang.</t>
     </r>
   </si>
   <si>
-    <t>Svår klass seniorlag 3*</t>
-  </si>
-  <si>
-    <t>Svår klass juniorlag 2*</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+•  Mjuka övergångar och rörelser som visar flyt, kontroll och sammanhållning.
+•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar komplexitet och rörelsefrihet.
+•  Undviker tom häst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken.
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
+• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -834,7 +875,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -936,13 +977,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Symbol"/>
@@ -1732,10 +1766,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1849,9 +1883,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2018,10 +2049,10 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2046,8 +2077,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2126,34 +2157,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2174,6 +2205,25 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2195,31 +2245,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2266,19 +2316,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2403,21 +2453,44 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2430,35 +2503,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2849,831 +2916,831 @@
     <col min="1" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="126" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="125" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="126" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="126" t="s">
+    <row r="1" spans="1:8" s="125" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="124" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="125" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="125" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="125" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="126" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="138" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="138" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="138" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="138" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" s="112" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="112" t="s">
+    <row r="4" spans="1:8" s="137" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="137" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="137" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="137" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" s="111" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="112"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="112"/>
+    </row>
+    <row r="12" spans="1:8" s="113" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="F13" s="114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-    </row>
-    <row r="12" spans="1:8" s="114" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="114" t="s">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="113" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="115" t="s">
+      <c r="C14" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="F13" s="115" t="s">
+      <c r="D14" s="113" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="114" t="s">
+      <c r="E14" s="113"/>
+      <c r="F14" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="112"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+    </row>
+    <row r="17" spans="1:9" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="116"/>
+      <c r="F17" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="112"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="116"/>
+      <c r="F19" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="112"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+    </row>
+    <row r="22" spans="1:9" s="113" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="114" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="112"/>
+      <c r="F23" s="114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="F24" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="113" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="112"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+    </row>
+    <row r="27" spans="1:9" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="112"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+    </row>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+    </row>
+    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="114" t="s">
+    </row>
+    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="112"/>
+      <c r="F35" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="116"/>
+      <c r="F37" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="L37" s="115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="112"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+    </row>
+    <row r="39" spans="1:17" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="116"/>
+      <c r="F39" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" s="115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="112"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+    </row>
+    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="116"/>
+      <c r="F41" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="112"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+    </row>
+    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="112"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+    </row>
+    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="112"/>
+      <c r="F47" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="112"/>
+      <c r="N47" s="114"/>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="114" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113" t="s">
+      <c r="F48" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+    </row>
+    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="I49" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="M49" s="115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="112"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="117"/>
+    </row>
+    <row r="51" spans="1:13" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="J51" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="L51" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="M51" s="115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="112"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+    </row>
+    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-    </row>
-    <row r="17" spans="1:9" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="117"/>
-      <c r="F17" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-    </row>
-    <row r="22" spans="1:9" s="114" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="114" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="115" t="s">
+      <c r="B53" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="L53" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="M53" s="115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="125" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A56" s="123" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="122" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="121"/>
+      <c r="B57" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="F23" s="115" t="s">
+      <c r="D57" s="121" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="114" t="s">
+      <c r="E57" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="114" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-    </row>
-    <row r="27" spans="1:9" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-    </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="116" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="137"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="114" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="113"/>
-      <c r="F35" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="115" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="J36" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" s="114" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="117"/>
-      <c r="F37" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="L37" s="116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="113"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-    </row>
-    <row r="39" spans="1:17" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="J39" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="L39" s="116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="113"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-    </row>
-    <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="117"/>
-      <c r="F41" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="J41" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="L41" s="116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="113"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
-    </row>
-    <row r="43" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="113"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="114" t="s">
+      <c r="F57" s="121" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="113"/>
-      <c r="F47" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="K47" s="113"/>
-      <c r="N47" s="115"/>
-    </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="J48" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="L48" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-    </row>
-    <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="H49" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="J49" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="L49" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="M49" s="116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="113"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-    </row>
-    <row r="51" spans="1:13" s="113" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="J51" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="L51" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="M51" s="116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="113"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-    </row>
-    <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="J53" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="L53" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="M53" s="116" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="126" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A56" s="124" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="123" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="122"/>
-      <c r="B57" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="122" t="s">
+    <row r="58" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="119" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="120" t="s">
+      <c r="D58" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="120" t="s">
+      <c r="F58" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="120" t="s">
+    </row>
+    <row r="59" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="120" t="s">
+      <c r="B59" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="120" t="s">
+      <c r="D59" s="119" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="120" t="s">
+      <c r="E59" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="120" t="s">
+      <c r="F59" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="120" t="s">
+    </row>
+    <row r="60" spans="1:13" s="120" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="119"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119" t="s">
         <v>96</v>
-      </c>
-      <c r="D59" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="120" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="121" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="120"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +3762,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3714,428 +3781,428 @@
     <col min="13" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="139" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" s="139" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="140" t="s">
+    <row r="1" spans="1:12" s="138" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" s="138" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="140"/>
+      <c r="H2" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144"/>
+    </row>
+    <row r="3" spans="1:12" s="138" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144"/>
+    </row>
+    <row r="4" spans="1:12" s="138" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="141"/>
-      <c r="H2" s="142" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="145"/>
-    </row>
-    <row r="3" spans="1:12" s="139" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="146" t="s">
+      <c r="B4" s="146"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="147"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="142"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="144"/>
+    </row>
+    <row r="5" spans="1:12" s="138" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="142" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="145"/>
-    </row>
-    <row r="4" spans="1:12" s="139" customFormat="1" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="147" t="s">
+      <c r="B5" s="148"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="149"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="144"/>
+    </row>
+    <row r="6" spans="1:12" s="138" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="148"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="G6" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="150"/>
+    </row>
+    <row r="7" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="148"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="G7" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="235"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="237"/>
+    </row>
+    <row r="8" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="146"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="G8" s="148" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="231"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
+    </row>
+    <row r="9" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="148"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="143"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="145"/>
-    </row>
-    <row r="5" spans="1:12" s="139" customFormat="1" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="145"/>
-    </row>
-    <row r="6" spans="1:12" s="139" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="149" t="s">
+      <c r="B9" s="148"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="G9" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="231"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
+    </row>
+    <row r="10" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="148"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="G10" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="231"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="233"/>
+    </row>
+    <row r="11" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="231"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="233"/>
+    </row>
+    <row r="12" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="152"/>
+      <c r="G12" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="231"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233"/>
+    </row>
+    <row r="13" spans="1:12" s="138" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="152"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="206" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="209"/>
+      <c r="L14" s="210"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="215" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="225" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="227">
+        <f>SUM(B20:G20)/6</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="197">
+        <f>ROUND(K15*0.6,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="212"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="176"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="212"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="176"/>
+    </row>
+    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="212"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="176"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="213"/>
+      <c r="B19" s="156" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="157" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="221"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="228"/>
+      <c r="L19" s="176"/>
+    </row>
+    <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="214"/>
+      <c r="B20" s="160">
+        <v>0</v>
+      </c>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="230"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="183" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="195">
+        <v>0</v>
+      </c>
+      <c r="L21" s="197">
+        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="181"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="176"/>
+    </row>
+    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="181"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="176"/>
+    </row>
+    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="182"/>
+      <c r="B24" s="163" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="164">
+        <v>0</v>
+      </c>
+      <c r="D24" s="164">
+        <v>0</v>
+      </c>
+      <c r="E24" s="164">
+        <v>0</v>
+      </c>
+      <c r="F24" s="164">
+        <v>0</v>
+      </c>
+      <c r="G24" s="164">
+        <v>0</v>
+      </c>
+      <c r="H24" s="190"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="165">
+        <f>SUM(C24:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="177"/>
+    </row>
+    <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="G6" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="151"/>
-    </row>
-    <row r="7" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="G7" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="230"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="232"/>
-    </row>
-    <row r="8" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="G8" s="149" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="228"/>
-    </row>
-    <row r="9" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="G9" s="149" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="226"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="228"/>
-    </row>
-    <row r="10" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="G10" s="149" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="226"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="227"/>
-      <c r="K10" s="228"/>
-    </row>
-    <row r="11" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="226"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="227"/>
-      <c r="K11" s="228"/>
-    </row>
-    <row r="12" spans="1:12" s="139" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="153"/>
-      <c r="G12" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="226"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="228"/>
-    </row>
-    <row r="13" spans="1:12" s="139" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="153"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="139"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="201" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="204"/>
-      <c r="L14" s="205"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="206" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="210" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="220" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="222">
-        <f>SUM(B20:G20)/6</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="192">
-        <f>ROUND(K15*0.6,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="207"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="171"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="207"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="171"/>
-    </row>
-    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="207"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="171"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="208"/>
-      <c r="B19" s="157" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="158" t="s">
+      <c r="B25" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="204" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="166">
+        <v>0</v>
+      </c>
+      <c r="L25" s="176">
+        <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="182"/>
+      <c r="B26" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="159" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="158" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="160" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="216"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="223"/>
-      <c r="L19" s="171"/>
-    </row>
-    <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="209"/>
-      <c r="B20" s="161">
-        <v>0</v>
-      </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="225"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="175" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="178" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="187" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="190">
-        <v>0</v>
-      </c>
-      <c r="L21" s="192">
-        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="176"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="171"/>
-    </row>
-    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="176"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="171"/>
-    </row>
-    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="177"/>
-      <c r="B24" s="164" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="165">
-        <v>0</v>
-      </c>
-      <c r="D24" s="165">
-        <v>0</v>
-      </c>
-      <c r="E24" s="165">
-        <v>0</v>
-      </c>
-      <c r="F24" s="165">
-        <v>0</v>
-      </c>
-      <c r="G24" s="165">
-        <v>0</v>
-      </c>
-      <c r="H24" s="185"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="166">
-        <f>SUM(C24:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="172"/>
-    </row>
-    <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="175" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="178" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="199" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="167">
-        <v>0</v>
-      </c>
-      <c r="L25" s="171">
-        <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="177"/>
-      <c r="B26" s="168" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="165">
-        <v>0</v>
-      </c>
-      <c r="D26" s="165">
-        <v>0</v>
-      </c>
-      <c r="E26" s="165">
-        <v>0</v>
-      </c>
-      <c r="F26" s="165">
-        <v>0</v>
-      </c>
-      <c r="G26" s="165"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="166">
+      <c r="C26" s="164">
+        <v>0</v>
+      </c>
+      <c r="D26" s="164">
+        <v>0</v>
+      </c>
+      <c r="E26" s="164">
+        <v>0</v>
+      </c>
+      <c r="F26" s="164">
+        <v>0</v>
+      </c>
+      <c r="G26" s="164"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="165">
         <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="172"/>
+      <c r="L26" s="177"/>
     </row>
     <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44"/>
@@ -4146,36 +4213,36 @@
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
-      <c r="K27" s="58"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I28" s="45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J28" s="46"/>
-      <c r="K28" s="173">
+      <c r="K28" s="178">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="174"/>
+      <c r="L28" s="179"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
+      <c r="A32" s="169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -4248,11 +4315,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -4260,11 +4327,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -4272,136 +4339,136 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="127"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="136"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="107"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="235"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="240"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="240"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="240"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="240"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4427,96 +4494,96 @@
         <v>6</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="243"/>
-      <c r="B15" s="244" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
+      <c r="A15" s="248"/>
+      <c r="B15" s="249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="19">
         <f>SUM(F15:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="243"/>
-      <c r="B16" s="236" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
+      <c r="A16" s="248"/>
+      <c r="B16" s="241" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="19">
         <f t="shared" ref="L16:L22" si="0">SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="236" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="237"/>
-      <c r="D17" s="237"/>
+      <c r="B17" s="241" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
       <c r="L17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="241" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="246" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="236" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
+      <c r="B19" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
       <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4524,17 +4591,17 @@
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
       <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4542,35 +4609,35 @@
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="245" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="246"/>
-      <c r="D22" s="246"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
+      <c r="B22" s="250" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4579,7 +4646,7 @@
     <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4588,7 +4655,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L15:L22)</f>
@@ -4600,7 +4667,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(+L24/6,3)</f>
@@ -4623,7 +4690,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -4631,11 +4698,11 @@
     <row r="29" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
+      <c r="I29" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
       <c r="L29" s="37">
         <f>ROUND(+L25/8,3)</f>
         <v>0</v>
@@ -4660,7 +4727,7 @@
     <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4668,7 +4735,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4720,508 +4787,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L34"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="11" width="7.265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="H7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="240"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="H8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="235"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
-      <c r="H9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
-      <c r="H10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
-      <c r="H12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
-        <v>2</v>
-      </c>
-      <c r="H14" s="17">
-        <v>3</v>
-      </c>
-      <c r="I14" s="17">
-        <v>4</v>
-      </c>
-      <c r="J14" s="17">
-        <v>5</v>
-      </c>
-      <c r="K14" s="17">
-        <v>6</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="243"/>
-      <c r="B15" s="244" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="19">
-        <f>SUM(F15:K15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="243"/>
-      <c r="B16" s="236" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="19">
-        <f t="shared" ref="L16:L22" si="0">SUM(F16:K16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="236" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="237"/>
-      <c r="D17" s="237"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="250" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="237"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="241" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="236" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="248" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="23"/>
-      <c r="K24" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="19">
-        <f>SUM(L15:L22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="27">
-        <f>ROUND(L24/6,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="32"/>
-      <c r="K27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="29"/>
-    </row>
-    <row r="28" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="38"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="37">
-        <f>ROUND(+L25/8,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="38"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="38"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="38"/>
-      <c r="H32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="38"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="38"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C9:F9"/>
-  </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G
-&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter xml:space="preserve">&amp;R2019-06-01
-</oddFooter>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
@@ -5246,11 +4811,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5258,11 +4823,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5270,137 +4835,137 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="127"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="136"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="107"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="244"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="239"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="239"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="239"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="239"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5433,132 +4998,132 @@
         <v>6</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="243"/>
-      <c r="B16" s="244" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
+      <c r="A16" s="248"/>
+      <c r="B16" s="249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="19">
         <f>SUM(F16:K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="243"/>
-      <c r="B17" s="236" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="237"/>
-      <c r="D17" s="237"/>
+      <c r="A17" s="248"/>
+      <c r="B17" s="241" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
       <c r="L17" s="19">
         <f t="shared" ref="L17:L21" si="0">SUM(F17:K17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="236" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="237"/>
-      <c r="D18" s="237"/>
+      <c r="B18" s="241" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="250" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
+      <c r="B19" s="253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
       <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="236" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
+      <c r="B20" s="241" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="242"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
       <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="236" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="237"/>
-      <c r="D21" s="237"/>
+      <c r="B21" s="241" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="245" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="246"/>
-      <c r="D22" s="246"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
+      <c r="B22" s="250" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="19">
         <f>SUM(F22:K22)</f>
         <v>0</v>
@@ -5569,7 +5134,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5578,7 +5143,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L16:L22)</f>
@@ -5590,7 +5155,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(+L24/6,3)</f>
@@ -5613,7 +5178,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -5621,7 +5186,7 @@
     <row r="29" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="33"/>
       <c r="I29" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="36"/>
@@ -5649,7 +5214,7 @@
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -5657,7 +5222,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5740,6 +5305,508 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="11" width="7.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="135"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="H8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="240"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
+      <c r="H9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="240"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
+      <c r="H10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="240"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="240"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14"/>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
+        <v>4</v>
+      </c>
+      <c r="J14" s="17">
+        <v>5</v>
+      </c>
+      <c r="K14" s="17">
+        <v>6</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="248"/>
+      <c r="B15" s="249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="19">
+        <f>SUM(F15:K15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="248"/>
+      <c r="B16" s="241" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="19">
+        <f t="shared" ref="L16:L22" si="0">SUM(F16:K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="241" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="253" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="241" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="242"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="255" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="256"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="23"/>
+      <c r="K24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="19">
+        <f>SUM(L15:L22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="27">
+        <f>ROUND(L24/6,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="31"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="32"/>
+      <c r="K27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="38"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="37">
+        <f>ROUND(+L25/8,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="38"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="38"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="38"/>
+      <c r="H32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="38"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="38"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R2024-01-28</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L42"/>
@@ -5767,11 +5834,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5779,11 +5846,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5791,136 +5858,136 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="127"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="136"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="107"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="235"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="240"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="240"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="240"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="240"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5930,8 +5997,8 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>24</v>
+      <c r="A14" s="52" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5942,24 +6009,24 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="56"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -5967,92 +6034,92 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
-      <c r="H19" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="57"/>
+      <c r="H19" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="56"/>
       <c r="K19" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
-        <v>52</v>
+      <c r="B20" s="88" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="47"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="90">
+      <c r="D20" s="61"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="89">
         <v>0.5</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94">
+      <c r="G20" s="101"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="89" t="s">
-        <v>53</v>
+      <c r="B21" s="88" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="47"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="90">
+      <c r="D21" s="61"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="89">
         <v>0.3</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94">
+      <c r="G21" s="101"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="89" t="s">
-        <v>54</v>
+      <c r="B22" s="88" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="47"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="90">
+      <c r="D22" s="61"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="89">
         <v>0.1</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94">
+      <c r="G22" s="101"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93">
         <f>F22*H22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="63">
+      <c r="E23" s="62">
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="93"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -6060,23 +6127,23 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="73" t="s">
-        <v>58</v>
+      <c r="G24" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104">
+      <c r="J24" s="102"/>
+      <c r="K24" s="103">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
-      <c r="L24" s="76">
+      <c r="L24" s="75">
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6086,32 +6153,32 @@
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="64">
+      <c r="G27" s="61"/>
+      <c r="H27" s="63">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="64">
         <f>IFERROR(E27/H27,10)</f>
         <v>10</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="66">
+      <c r="J27" s="59"/>
+      <c r="K27" s="65">
         <f>10-I27</f>
         <v>0</v>
       </c>
@@ -6123,77 +6190,77 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="61"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="70" t="s">
-        <v>41</v>
+      <c r="E30" s="69" t="s">
+        <v>38</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="130"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="129"/>
     </row>
     <row r="31" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="69"/>
-      <c r="L31" s="58"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="73" t="s">
-        <v>49</v>
+      <c r="G32" s="72" t="s">
+        <v>46</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75">
+      <c r="J32" s="73"/>
+      <c r="K32" s="74">
         <f>K27-K30</f>
         <v>0</v>
       </c>
-      <c r="L32" s="76">
+      <c r="L32" s="75">
         <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I34" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="105">
+      <c r="I34" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="104">
         <f>ROUND(K24*0.3 + K32*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="106"/>
+      <c r="L35" s="105"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="106"/>
+      <c r="L36" s="105"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L37" s="106"/>
+      <c r="L37" s="105"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -6230,8 +6297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6239,11 +6306,11 @@
     <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="1"/>
     <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" style="1" customWidth="1"/>
     <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
@@ -6253,11 +6320,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6265,11 +6332,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6277,136 +6344,136 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="127"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="136"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="107"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="235"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="240"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="240"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="240"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="240"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6416,8 +6483,8 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>24</v>
+      <c r="A14" s="52" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6428,145 +6495,145 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="252"/>
-      <c r="B15" s="253"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
+      <c r="A15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="262"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="262"/>
+      <c r="I15" s="262"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="262"/>
+      <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="255"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="240"/>
+      <c r="A16" s="264"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
-      <c r="H19" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="57"/>
+      <c r="H19" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="56"/>
       <c r="K19" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
-        <v>52</v>
+      <c r="B20" s="88" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="47"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="129">
+      <c r="D20" s="61"/>
+      <c r="E20" s="128">
         <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"D",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"S",""))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="89">
         <v>0.5</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94">
+      <c r="G20" s="101"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="89" t="s">
-        <v>53</v>
+      <c r="B21" s="88" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="47"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="129">
+      <c r="D21" s="61"/>
+      <c r="E21" s="128">
         <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"M",""))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="89">
         <v>0.3</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94">
+      <c r="G21" s="101"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="89" t="s">
-        <v>54</v>
+      <c r="B22" s="88" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="47"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="129">
+      <c r="D22" s="61"/>
+      <c r="E22" s="128">
         <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"E",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"L",""))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="89">
         <v>0.1</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94">
+      <c r="G22" s="101"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93">
         <f>F22*H22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="63">
+      <c r="E23" s="62">
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="93"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -6574,23 +6641,23 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="73" t="s">
-        <v>58</v>
+      <c r="G24" s="72" t="s">
+        <v>55</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104">
+      <c r="J24" s="102"/>
+      <c r="K24" s="103">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
-      <c r="L24" s="76">
+      <c r="L24" s="75">
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6600,36 +6667,36 @@
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="48"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="129">
+      <c r="D27" s="61"/>
+      <c r="E27" s="128">
         <f xml:space="preserve">
 (LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="64">
+        <v>48</v>
+      </c>
+      <c r="G27" s="61"/>
+      <c r="H27" s="63">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="64">
         <f>IFERROR(E27/H27,10)</f>
         <v>10</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="66">
+      <c r="J27" s="59"/>
+      <c r="K27" s="65">
         <f>10-I27</f>
         <v>0</v>
       </c>
@@ -6641,77 +6708,80 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="61"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="70" t="s">
-        <v>41</v>
+      <c r="E30" s="69" t="s">
+        <v>38</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="130"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="171">
+        <f>SUM(E17:J17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="69"/>
-      <c r="L31" s="58"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="73" t="s">
-        <v>49</v>
+      <c r="G32" s="72" t="s">
+        <v>46</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75">
+      <c r="J32" s="73"/>
+      <c r="K32" s="74">
         <f>K27-K30</f>
         <v>0</v>
       </c>
-      <c r="L32" s="76">
+      <c r="L32" s="75">
         <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I34" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="105">
+      <c r="I34" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="104">
         <f>ROUND(K24*0.3 + K32*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L35" s="106"/>
+      <c r="L35" s="105"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="106"/>
+      <c r="L36" s="105"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L37" s="106"/>
+      <c r="L37" s="105"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -6750,8 +6820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6762,8 +6832,8 @@
     <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
     <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.3984375" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
@@ -6773,11 +6843,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6785,11 +6855,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6797,136 +6867,136 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="127"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="136"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="107"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="235"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="240"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="240"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="240"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="240"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6936,8 +7006,8 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>24</v>
+      <c r="A14" s="52" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6948,141 +7018,153 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="252"/>
-      <c r="B15" s="253"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
+      <c r="A15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="262"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="262"/>
+      <c r="I15" s="262"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="262"/>
+      <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="255"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="240"/>
+      <c r="A16" s="264"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
+      <c r="E17" s="129">
+        <v>0</v>
+      </c>
+      <c r="F17" s="129">
+        <v>0</v>
+      </c>
+      <c r="G17" s="129">
+        <v>0</v>
+      </c>
+      <c r="H17" s="129">
+        <v>0</v>
+      </c>
+      <c r="I17" s="129">
+        <v>0</v>
+      </c>
+      <c r="J17" s="129">
+        <v>0</v>
+      </c>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
-      <c r="H19" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="57"/>
+      <c r="H19" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="56"/>
       <c r="K19" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
-        <v>52</v>
+      <c r="B20" s="88" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="47"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="129">
+      <c r="D20" s="61"/>
+      <c r="E20" s="128">
         <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"D",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"S",""))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="89">
         <v>0.4</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="63">
+      <c r="G20" s="90"/>
+      <c r="H20" s="62">
         <f>IF(E20&gt;24,25,E20)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94">
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93">
         <f>F20*H20</f>
         <v>0</v>
       </c>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="89" t="s">
-        <v>53</v>
+      <c r="B21" s="88" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="47"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="129">
+      <c r="D21" s="61"/>
+      <c r="E21" s="128">
         <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"M",""))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="89">
         <v>0.3</v>
       </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="63">
+      <c r="G21" s="90"/>
+      <c r="H21" s="62">
         <f>IF(SUM(E20:E21)&gt;24,25-H20,E21)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94">
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93">
         <f>F21*H21</f>
         <v>0</v>
       </c>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="89" t="s">
-        <v>54</v>
+      <c r="B22" s="88" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="47"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="129">
+      <c r="D22" s="61"/>
+      <c r="E22" s="128">
         <f>LEN(A$15)-LEN(SUBSTITUTE(A$15,"E",""))+LEN(A$15)-LEN(SUBSTITUTE(A$15,"L",""))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="89">
         <v>0.1</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="63">
+      <c r="G22" s="90"/>
+      <c r="H22" s="62">
         <f>IF(SUM(E20:E22)&gt;24,IF(25-SUM(H20:H21)&gt;0,25-SUM(H20:H21),0),E22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94">
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93">
         <f>F22*H22</f>
         <v>0</v>
       </c>
@@ -7090,39 +7172,39 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
-      <c r="E23" s="63">
+      <c r="E23" s="62">
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="75">
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="74">
         <f>IF(SUM(K20:K23)&gt;10,10,SUM(K20:K23))</f>
         <v>0</v>
       </c>
-      <c r="L24" s="76">
+      <c r="L24" s="75">
         <v>0.3</v>
       </c>
     </row>
@@ -7130,18 +7212,18 @@
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="76"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="75"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7151,36 +7233,36 @@
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="48"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="129">
+      <c r="D28" s="61"/>
+      <c r="E28" s="128">
         <f xml:space="preserve">
 (LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$15,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="64">
+        <v>48</v>
+      </c>
+      <c r="G28" s="61"/>
+      <c r="H28" s="63">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="170">
         <f>IFERROR(E28/H28,10)</f>
         <v>10</v>
       </c>
-      <c r="J28" s="60"/>
-      <c r="K28" s="66">
+      <c r="J28" s="59"/>
+      <c r="K28" s="65">
         <f>10-I28</f>
         <v>0</v>
       </c>
@@ -7192,70 +7274,71 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="70" t="s">
-        <v>41</v>
+      <c r="E31" s="69" t="s">
+        <v>38</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="130">
+      <c r="I31" s="70"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="171">
+        <f>SUM(E17:J17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K32" s="69"/>
-      <c r="L32" s="58"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="57"/>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G33" s="73" t="s">
-        <v>49</v>
+      <c r="G33" s="72" t="s">
+        <v>46</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75">
+      <c r="J33" s="73"/>
+      <c r="K33" s="74">
         <f>K28-K31</f>
         <v>0</v>
       </c>
-      <c r="L33" s="76">
+      <c r="L33" s="75">
         <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78">
+      <c r="I35" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77">
         <f>ROUND(K24*0.3 + K33*0.7,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -7282,7 +7365,7 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter xml:space="preserve">&amp;R2019-06-01
+    <oddFooter xml:space="preserve">&amp;R2024-01-23
 </oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -7291,15 +7374,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M26"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A10" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="1"/>
     <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
@@ -7316,11 +7402,11 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7328,11 +7414,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7340,139 +7426,139 @@
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="127"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="136"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="107"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="235"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="240"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="240"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="240"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="240"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
+    </row>
+    <row r="13" spans="1:13" ht="8.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="H13" s="3"/>
       <c r="I13" s="42"/>
@@ -7480,168 +7566,201 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="14"/>
+      <c r="I14" s="66"/>
       <c r="K14" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="57.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="256" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="172" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="265" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="266"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="267"/>
+      <c r="J15" s="173" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175">
+        <f>K15*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="70.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="273"/>
+      <c r="D16" s="273"/>
+      <c r="E16" s="273"/>
+      <c r="F16" s="273"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="130"/>
+      <c r="L16" s="79">
+        <f>K16*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="269"/>
+      <c r="B17" s="272" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="273"/>
+      <c r="H17" s="273"/>
+      <c r="I17" s="273"/>
+      <c r="J17" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="131"/>
+      <c r="L17" s="82">
+        <f>K17*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="270" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="278"/>
+      <c r="D18" s="278"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="278"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="132"/>
+      <c r="L18" s="83">
+        <f>K18*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="271"/>
+      <c r="B19" s="274" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="275"/>
+      <c r="I19" s="276"/>
+      <c r="J19" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="133"/>
+      <c r="L19" s="85">
+        <f>K19*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="80"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="86">
+        <f>SUM(L16:L19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="134"/>
+    </row>
+    <row r="23" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="68"/>
+    </row>
+    <row r="24" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="260" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="261"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="131"/>
-      <c r="L15" s="80">
-        <f>K15*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="81"/>
-    </row>
-    <row r="16" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="257"/>
-      <c r="B16" s="263" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="264"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="132"/>
-      <c r="L16" s="83">
-        <f>K16*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="81"/>
-    </row>
-    <row r="17" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="258" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="265" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="266"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="267"/>
-      <c r="J17" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="133"/>
-      <c r="L17" s="84">
-        <f>K17*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="81"/>
-    </row>
-    <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="259"/>
-      <c r="B18" s="268" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="269"/>
-      <c r="I18" s="269"/>
-      <c r="J18" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="86">
-        <f>K18*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="87">
-        <f>SUM(L15:L18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="69"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="135"/>
-    </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L22" s="69"/>
-    </row>
-    <row r="23" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78">
-        <f>SUM(L15:L18)-L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77">
+        <f>SUM(L15:L19)-L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="8.65" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B15:I15"/>
+  <mergeCells count="18">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
@@ -7659,14 +7778,22 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter xml:space="preserve">&amp;R2022-01-01
-</oddFooter>
+    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7732,7 +7859,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7741,16 +7868,22 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7767,25 +7900,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AE8D9-4D35-4FBE-A780-2BF9E5063307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF55DA-ED75-4E67-BB96-D48762D57093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="datum" localSheetId="6">'Lag kür tekn junior'!$C$4</definedName>
     <definedName name="datum" localSheetId="5">'Lag kür tekn mellan'!$C$4</definedName>
     <definedName name="datum" localSheetId="7">'Lag kür tekn sr'!$C$4</definedName>
-    <definedName name="domare" localSheetId="1">'Häst, lag'!$C$32</definedName>
+    <definedName name="domare" localSheetId="1">'Häst, lag'!$C$36</definedName>
     <definedName name="domare" localSheetId="2">'Lag grund A'!$C$33</definedName>
     <definedName name="domare" localSheetId="4">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="3">'Lag grund D'!$C$33</definedName>
@@ -87,7 +87,7 @@
     <definedName name="moment" localSheetId="6">'Lag kür tekn junior'!$L$5</definedName>
     <definedName name="moment" localSheetId="5">'Lag kür tekn mellan'!$L$5</definedName>
     <definedName name="moment" localSheetId="7">'Lag kür tekn sr'!$L$5</definedName>
-    <definedName name="result" localSheetId="1">'Häst, lag'!$K$28</definedName>
+    <definedName name="result" localSheetId="1">'Häst, lag'!$K$32</definedName>
     <definedName name="result" localSheetId="2">'Lag grund A'!$L$29</definedName>
     <definedName name="result" localSheetId="4">'Lag grund B'!$L$29</definedName>
     <definedName name="result" localSheetId="3">'Lag grund D'!$L$29</definedName>
@@ -95,7 +95,7 @@
     <definedName name="result" localSheetId="6">'Lag kür tekn junior'!$L$34</definedName>
     <definedName name="result" localSheetId="5">'Lag kür tekn mellan'!$L$34</definedName>
     <definedName name="result" localSheetId="7">'Lag kür tekn sr'!$L$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Häst, lag'!$A$1:$L$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Häst, lag'!$A$1:$L$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="145">
   <si>
     <t>1)</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Signatur:</t>
-  </si>
-  <si>
-    <t>Hästens voltigerbarhet</t>
   </si>
   <si>
     <t>Anteckningar</t>
@@ -861,6 +858,15 @@
 • Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
     </r>
   </si>
+  <si>
+    <t>Vilja/lydnad</t>
+  </si>
+  <si>
+    <t>Balanserat tempo</t>
+  </si>
+  <si>
+    <t>Håller voltspåret</t>
+  </si>
 </sst>
 </file>
 
@@ -875,7 +881,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1023,6 +1029,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1044,7 +1056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1562,19 +1574,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1736,12 +1735,36 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1749,11 +1772,46 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1769,7 +1827,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2040,7 +2098,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2139,7 +2197,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2181,7 +2239,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2195,7 +2253,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -2211,7 +2269,7 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2224,173 +2282,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2398,9 +2289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2412,20 +2300,170 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2437,26 +2475,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2471,17 +2500,47 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2491,41 +2550,127 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2918,34 +3063,34 @@
   <sheetData>
     <row r="1" spans="1:8" s="125" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="125" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="125" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="137" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="137" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="137" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" s="111" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A8" s="111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2956,61 +3101,61 @@
     </row>
     <row r="12" spans="1:8" s="113" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="112"/>
       <c r="F13" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="D14" s="113" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>73</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="113" t="s">
+      <c r="H14" s="113" t="s">
         <v>72</v>
-      </c>
-      <c r="H14" s="113" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="116"/>
       <c r="F15" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3025,26 +3170,26 @@
     </row>
     <row r="17" spans="1:9" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="116"/>
       <c r="F17" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3059,26 +3204,26 @@
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="116"/>
       <c r="F19" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3093,71 +3238,71 @@
     </row>
     <row r="22" spans="1:9" s="113" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="112"/>
       <c r="F23" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="D24" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="113" t="s">
-        <v>73</v>
-      </c>
       <c r="E24" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="113" t="s">
+      <c r="H24" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="113" t="s">
-        <v>73</v>
-      </c>
       <c r="I24" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3173,31 +3318,31 @@
     </row>
     <row r="27" spans="1:9" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H27" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3213,31 +3358,31 @@
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="115" t="s">
-        <v>82</v>
-      </c>
       <c r="I29" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3260,82 +3405,82 @@
     </row>
     <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="112"/>
       <c r="F35" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="113" t="s">
+      <c r="D36" s="113" t="s">
         <v>72</v>
-      </c>
-      <c r="D36" s="113" t="s">
-        <v>73</v>
       </c>
       <c r="E36" s="113"/>
       <c r="F36" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="113" t="s">
+      <c r="H36" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="113" t="s">
-        <v>73</v>
-      </c>
       <c r="J36" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="113" t="s">
+      <c r="L36" s="113" t="s">
         <v>72</v>
-      </c>
-      <c r="L36" s="113" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="116"/>
       <c r="F37" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H37" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K37" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L37" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3353,35 +3498,35 @@
     </row>
     <row r="39" spans="1:17" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="116"/>
       <c r="F39" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H39" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K39" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L39" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3399,35 +3544,35 @@
     </row>
     <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="116"/>
       <c r="F41" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H41" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K41" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L41" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3458,59 +3603,59 @@
     </row>
     <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A45" s="113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="112"/>
       <c r="F47" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J47" s="114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K47" s="112"/>
       <c r="N47" s="114"/>
     </row>
     <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="113" t="s">
+      <c r="D48" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="113" t="s">
-        <v>73</v>
-      </c>
       <c r="E48" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="113" t="s">
+      <c r="H48" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="113" t="s">
-        <v>73</v>
-      </c>
       <c r="I48" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J48" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="K48" s="113" t="s">
+      <c r="L48" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="L48" s="113" t="s">
-        <v>73</v>
-      </c>
       <c r="M48" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N48" s="113"/>
       <c r="O48" s="113"/>
@@ -3519,43 +3664,43 @@
     </row>
     <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G49" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H49" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J49" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K49" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L49" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M49" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3575,43 +3720,43 @@
     </row>
     <row r="51" spans="1:13" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H51" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J51" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K51" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L51" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M51" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3631,106 +3776,106 @@
     </row>
     <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="H53" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="115" t="s">
-        <v>82</v>
-      </c>
       <c r="I53" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J53" s="115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K53" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L53" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M53" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="125" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A56" s="123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="122" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A57" s="121"/>
       <c r="B57" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="121" t="s">
+      <c r="D57" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="121" t="s">
-        <v>73</v>
-      </c>
       <c r="E57" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F57" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="119" t="s">
+      <c r="C58" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="D58" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="119" t="s">
+      <c r="F58" s="119" t="s">
         <v>90</v>
-      </c>
-      <c r="F58" s="119" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="119" t="s">
+      <c r="D59" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="119" t="s">
+      <c r="E59" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="119" t="s">
-        <v>95</v>
-      </c>
       <c r="F59" s="119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="120" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -3740,7 +3885,7 @@
       <c r="D60" s="119"/>
       <c r="E60" s="119"/>
       <c r="F60" s="119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3760,9 +3905,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3788,7 +3933,7 @@
       </c>
       <c r="G2" s="140"/>
       <c r="H2" s="141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="142"/>
       <c r="J2" s="143"/>
@@ -3800,7 +3945,7 @@
       </c>
       <c r="G3" s="140"/>
       <c r="H3" s="141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="142"/>
       <c r="J3" s="143"/>
@@ -3811,12 +3956,12 @@
         <v>11</v>
       </c>
       <c r="B4" s="146"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="147"/>
       <c r="G4" s="140"/>
       <c r="H4" s="141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="142"/>
       <c r="J4" s="143"/>
@@ -3827,9 +3972,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="148"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
       <c r="G5" s="140"/>
       <c r="H5" s="141" t="s">
         <v>10</v>
@@ -3843,9 +3988,9 @@
         <v>13</v>
       </c>
       <c r="B6" s="148"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
       <c r="G6" s="138" t="s">
         <v>15</v>
       </c>
@@ -3853,7 +3998,7 @@
     </row>
     <row r="7" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="148" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="148"/>
       <c r="C7" s="151"/>
@@ -3862,77 +4007,77 @@
       <c r="G7" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="235"/>
-      <c r="I7" s="236"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="237"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
     </row>
     <row r="8" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="146"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
       <c r="G8" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="231"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
     </row>
     <row r="9" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="148" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="148"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
       <c r="G9" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="231"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
     </row>
     <row r="10" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="148"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
       <c r="G10" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="231"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="233"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
     </row>
     <row r="11" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="231"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="233"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
     </row>
     <row r="12" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="152"/>
       <c r="G12" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="231"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
     </row>
     <row r="13" spans="1:12" s="138" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="152"/>
@@ -3950,302 +4095,378 @@
       <c r="E14" s="155"/>
       <c r="F14" s="155"/>
       <c r="G14" s="138"/>
-      <c r="H14" s="206" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="209"/>
-      <c r="L14" s="210"/>
+      <c r="H14" s="181" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="182"/>
+      <c r="J14" s="183" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="184"/>
+      <c r="L14" s="185"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="186" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="215" t="s">
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="216"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="225" t="s">
+      <c r="K15" s="300">
+        <f>SUM(B20:G20)/6</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="302">
+        <f>ROUND(K15*0.6,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="187"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="303"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="187"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="303"/>
+    </row>
+    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="187"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="303"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="188"/>
+      <c r="B19" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="227">
-        <f>SUM(B20:G20)/6</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="197">
-        <f>ROUND(K15*0.6,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="228"/>
-      <c r="L16" s="176"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="228"/>
-      <c r="L17" s="176"/>
-    </row>
-    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="212"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="228"/>
-      <c r="L18" s="176"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="213"/>
-      <c r="B19" s="156" t="s">
+      <c r="C19" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="D19" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="E19" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="157" t="s">
+      <c r="F19" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="157" t="s">
+      <c r="G19" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="221"/>
-      <c r="I19" s="222"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="228"/>
-      <c r="L19" s="176"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="303"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="214"/>
-      <c r="B20" s="160">
-        <v>0</v>
-      </c>
+      <c r="A20" s="189"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="161"/>
       <c r="D20" s="161"/>
       <c r="E20" s="161"/>
       <c r="F20" s="161"/>
       <c r="G20" s="162"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="229"/>
-      <c r="L20" s="230"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="304"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="180" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="207"/>
+      <c r="B21" s="210" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="292" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="293">
+        <f>SUMPRODUCT(B26:G26,B25:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="296">
+        <f>IF((K21-K28)&gt;=0,ROUND((K21-K28)*0.25,3),0.000000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="208"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="269"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="297"/>
+    </row>
+    <row r="23" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="208"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="269"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="297"/>
+    </row>
+    <row r="24" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="208"/>
+      <c r="B24" s="270" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="271"/>
+      <c r="D24" s="272" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="273"/>
+      <c r="F24" s="274" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="275"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="269"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="297"/>
+    </row>
+    <row r="25" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="208"/>
+      <c r="B25" s="276">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="279"/>
+      <c r="F25" s="280">
+        <v>0.25</v>
+      </c>
+      <c r="G25" s="281"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="269"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="297"/>
+    </row>
+    <row r="26" spans="1:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="208"/>
+      <c r="B26" s="282"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="283"/>
+      <c r="G26" s="286"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="269"/>
+      <c r="K26" s="295"/>
+      <c r="L26" s="297"/>
+    </row>
+    <row r="27" spans="1:12" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="208"/>
+      <c r="B27" s="288"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="290"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="291"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="269"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="297"/>
+    </row>
+    <row r="28" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="209"/>
+      <c r="B28" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="192" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="195">
-        <v>0</v>
-      </c>
-      <c r="L21" s="197">
-        <f>IF((K21-K24)&gt;=0,ROUND((K21-K24)*0.25,3),0.000000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="181"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="196"/>
-      <c r="L22" s="176"/>
-    </row>
-    <row r="23" spans="1:12" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="181"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="196"/>
-      <c r="L23" s="176"/>
-    </row>
-    <row r="24" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="182"/>
-      <c r="B24" s="163" t="s">
+      <c r="C28" s="299"/>
+      <c r="D28" s="299"/>
+      <c r="E28" s="299"/>
+      <c r="F28" s="299"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="165">
+        <f>SUM(C28:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="298"/>
+    </row>
+    <row r="29" spans="1:12" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="207" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="164">
-        <v>0</v>
-      </c>
-      <c r="D24" s="164">
-        <v>0</v>
-      </c>
-      <c r="E24" s="164">
-        <v>0</v>
-      </c>
-      <c r="F24" s="164">
-        <v>0</v>
-      </c>
-      <c r="G24" s="164">
-        <v>0</v>
-      </c>
-      <c r="H24" s="190"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="165">
-        <f>SUM(C24:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="177"/>
-    </row>
-    <row r="25" spans="1:12" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="180" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="183" t="s">
+      <c r="C29" s="220"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="201" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="198"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="204" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="166">
-        <v>0</v>
-      </c>
-      <c r="L25" s="176">
-        <f>IF((K25-K26)&gt;=0,ROUND((K25-K26)*0.15,3),0.00000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="182"/>
-      <c r="B26" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="164">
-        <v>0</v>
-      </c>
-      <c r="D26" s="164">
-        <v>0</v>
-      </c>
-      <c r="E26" s="164">
-        <v>0</v>
-      </c>
-      <c r="F26" s="164">
-        <v>0</v>
-      </c>
-      <c r="G26" s="164"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="165">
-        <f>SUM(C26:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="177"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="K27" s="57"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="45" t="s">
+      <c r="K29" s="166">
+        <v>0</v>
+      </c>
+      <c r="L29" s="203">
+        <f>IF((K29-K30)&gt;=0,ROUND((K29-K30)*0.15,3),0.00000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="209"/>
+      <c r="B30" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="165">
+        <f>SUM(C30:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="204"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:12" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="178">
-        <f>SUM(L15:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="179"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="169" t="s">
+      <c r="J32" s="46"/>
+      <c r="K32" s="205">
+        <f>SUM(L15:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="206"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="146" t="s">
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="41">
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:G23"/>
+    <mergeCell ref="H21:I28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:E5"/>
@@ -4258,29 +4479,14 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:G23"/>
-    <mergeCell ref="H21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:J26"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Endast siffror giltiga" error="Ej giltig siffra_x000a_Kan du ha skrivit komma  istället för punkt eller tvärt om" sqref="C30:G30 C28 D28 E28 F28 G28 F26:G26 D26:E26 B26:C26 K29 B20 C20 D20 E20 F20 G20" xr:uid="{717696C7-3684-477B-A49A-9E6458A0FA01}">
+      <formula1>11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
@@ -4315,11 +4521,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -4327,11 +4533,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -4348,7 +4554,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -4359,10 +4565,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -4376,17 +4582,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -4396,79 +4602,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="245"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="240"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4498,12 +4704,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="248"/>
-      <c r="B15" s="249" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="242"/>
-      <c r="D15" s="242"/>
+      <c r="A15" s="227"/>
+      <c r="B15" s="228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
       <c r="E15" s="18"/>
       <c r="F15" s="127"/>
       <c r="G15" s="127"/>
@@ -4517,12 +4723,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="248"/>
-      <c r="B16" s="241" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="230" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="229"/>
+      <c r="D16" s="229"/>
       <c r="E16" s="18"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
@@ -4536,11 +4742,11 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="241" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
+      <c r="B17" s="230" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
       <c r="E17" s="18"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
@@ -4554,11 +4760,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="246" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
+      <c r="B18" s="240" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="18"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
@@ -4572,11 +4778,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="241" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
+      <c r="B19" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="229"/>
+      <c r="D19" s="229"/>
       <c r="E19" s="20"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
@@ -4591,7 +4797,7 @@
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
@@ -4609,7 +4815,7 @@
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -4626,12 +4832,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="250" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="251"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="252"/>
+      <c r="B22" s="231" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -4646,7 +4852,7 @@
     <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4655,7 +4861,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L15:L22)</f>
@@ -4667,7 +4873,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(+L24/6,3)</f>
@@ -4690,7 +4896,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -4699,7 +4905,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="I29" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" s="50"/>
       <c r="K29" s="51"/>
@@ -4755,11 +4961,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4773,6 +4974,11 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4811,11 +5017,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -4823,11 +5029,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -4844,7 +5050,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -4855,10 +5061,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -4872,17 +5078,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -4892,80 +5098,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="244"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="238"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="239"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="239"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="239"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5002,12 +5208,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="248"/>
-      <c r="B16" s="249" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="229"/>
+      <c r="D16" s="229"/>
       <c r="E16" s="18"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
@@ -5021,12 +5227,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="248"/>
-      <c r="B17" s="241" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
+      <c r="A17" s="227"/>
+      <c r="B17" s="230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
       <c r="E17" s="18"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
@@ -5040,11 +5246,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="241" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="230" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
       <c r="E18" s="18"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
@@ -5058,11 +5264,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="253" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
+      <c r="B19" s="242" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="229"/>
+      <c r="D19" s="229"/>
       <c r="E19" s="18"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
@@ -5076,12 +5282,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="241" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="254"/>
+      <c r="B20" s="230" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="229"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="243"/>
       <c r="F20" s="127"/>
       <c r="G20" s="127"/>
       <c r="H20" s="127"/>
@@ -5094,11 +5300,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="241" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
+      <c r="B21" s="230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="229"/>
+      <c r="D21" s="229"/>
       <c r="E21" s="18"/>
       <c r="F21" s="127"/>
       <c r="G21" s="127"/>
@@ -5112,12 +5318,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="250" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="251"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="252"/>
+      <c r="B22" s="231" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -5134,7 +5340,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5143,7 +5349,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L16:L22)</f>
@@ -5155,7 +5361,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(+L24/6,3)</f>
@@ -5178,7 +5384,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -5186,7 +5392,7 @@
     <row r="29" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="33"/>
       <c r="I29" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="36"/>
@@ -5270,13 +5476,6 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5289,6 +5488,13 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5330,11 +5536,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5342,11 +5548,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5363,7 +5569,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -5374,10 +5580,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -5391,17 +5597,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -5411,80 +5617,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="245"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="240"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -5514,13 +5720,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="248"/>
-      <c r="B15" s="249" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="260"/>
+      <c r="A15" s="227"/>
+      <c r="B15" s="228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="245"/>
       <c r="F15" s="127"/>
       <c r="G15" s="127"/>
       <c r="H15" s="127"/>
@@ -5533,13 +5739,13 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="248"/>
-      <c r="B16" s="241" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="254"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="229"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="243"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
       <c r="H16" s="127"/>
@@ -5552,12 +5758,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="241" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="254"/>
+      <c r="B17" s="230" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="243"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
       <c r="H17" s="127"/>
@@ -5570,12 +5776,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="253" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="258"/>
+      <c r="B18" s="242" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="249"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
       <c r="H18" s="127"/>
@@ -5588,12 +5794,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="241" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="254"/>
+      <c r="B19" s="230" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="229"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="243"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
@@ -5606,12 +5812,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="241" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="254"/>
+      <c r="B20" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="229"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="243"/>
       <c r="F20" s="127"/>
       <c r="G20" s="127"/>
       <c r="H20" s="127"/>
@@ -5624,12 +5830,12 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="241" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="254"/>
+      <c r="B21" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="229"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="243"/>
       <c r="F21" s="127"/>
       <c r="G21" s="127"/>
       <c r="H21" s="127"/>
@@ -5642,12 +5848,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="256"/>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
+      <c r="B22" s="246" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="247"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="247"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -5662,7 +5868,7 @@
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5671,7 +5877,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="23"/>
       <c r="K24" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="19">
         <f>SUM(L15:L22)</f>
@@ -5683,7 +5889,7 @@
       <c r="H25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" s="27">
         <f>ROUND(L24/6,3)</f>
@@ -5706,7 +5912,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="32"/>
       <c r="K27" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="29"/>
     </row>
@@ -5715,7 +5921,7 @@
       <c r="F29" s="38"/>
       <c r="H29" s="33"/>
       <c r="I29" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" s="50"/>
       <c r="K29" s="51"/>
@@ -5775,14 +5981,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5795,6 +5993,14 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5834,11 +6040,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5846,11 +6052,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5867,7 +6073,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -5878,10 +6084,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -5895,17 +6101,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -5915,79 +6121,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="245"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="240"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5998,7 +6204,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6023,7 +6229,7 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="108"/>
       <c r="C17" s="69"/>
@@ -6039,22 +6245,22 @@
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
       <c r="H19" s="100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="56"/>
       <c r="K19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="61"/>
@@ -6073,7 +6279,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="61"/>
@@ -6092,7 +6298,7 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="61"/>
@@ -6111,7 +6317,7 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -6128,7 +6334,7 @@
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G24" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -6143,7 +6349,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6160,13 +6366,13 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="61"/>
       <c r="E27" s="128"/>
       <c r="F27" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="61"/>
       <c r="H27" s="63">
@@ -6202,7 +6408,7 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -6217,7 +6423,7 @@
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -6233,7 +6439,7 @@
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I34" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="76"/>
       <c r="K34" s="76"/>
@@ -6320,11 +6526,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6332,11 +6538,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6353,7 +6559,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -6364,10 +6570,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -6381,17 +6587,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -6401,79 +6607,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="245"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="240"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6484,7 +6690,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6499,36 +6705,36 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="261"/>
-      <c r="B15" s="262"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="262"/>
-      <c r="L15" s="263"/>
+      <c r="A15" s="250"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="264"/>
-      <c r="B16" s="244"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="A16" s="253"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="239"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="108"/>
       <c r="C17" s="69"/>
@@ -6544,22 +6750,22 @@
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
       <c r="H19" s="100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="56"/>
       <c r="K19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="61"/>
@@ -6581,7 +6787,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="61"/>
@@ -6603,7 +6809,7 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="61"/>
@@ -6625,7 +6831,7 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -6642,7 +6848,7 @@
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G24" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -6657,7 +6863,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6674,7 +6880,7 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="61"/>
@@ -6684,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="61"/>
       <c r="H27" s="63">
@@ -6720,7 +6926,7 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -6738,7 +6944,7 @@
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -6754,7 +6960,7 @@
     <row r="33" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I34" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="76"/>
       <c r="K34" s="76"/>
@@ -6843,11 +7049,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6855,11 +7061,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6876,7 +7082,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -6887,10 +7093,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -6904,17 +7110,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -6924,79 +7130,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="245"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="240"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -7007,7 +7213,7 @@
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7022,36 +7228,36 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="261"/>
-      <c r="B15" s="262"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="262"/>
-      <c r="L15" s="263"/>
+      <c r="A15" s="250"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="264"/>
-      <c r="B16" s="244"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="A16" s="253"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="239"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="108"/>
       <c r="C17" s="69"/>
@@ -7079,22 +7285,22 @@
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="26"/>
       <c r="H19" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="56"/>
       <c r="K19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="61"/>
@@ -7120,7 +7326,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="61"/>
@@ -7146,7 +7352,7 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="61"/>
@@ -7172,7 +7378,7 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -7195,7 +7401,7 @@
       <c r="E24" s="92"/>
       <c r="F24" s="92"/>
       <c r="G24" s="94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
@@ -7223,7 +7429,7 @@
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7240,7 +7446,7 @@
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="61"/>
@@ -7250,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="61"/>
       <c r="H28" s="63">
@@ -7286,7 +7492,7 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -7304,7 +7510,7 @@
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -7320,7 +7526,7 @@
     <row r="34" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I35" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35" s="76"/>
       <c r="K35" s="76"/>
@@ -7379,7 +7585,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -7402,11 +7608,11 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7414,11 +7620,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7435,7 +7641,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -7446,10 +7652,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -7463,17 +7669,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -7483,80 +7689,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="245"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="236"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="240"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="236"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:13" ht="8.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7570,25 +7776,25 @@
       <c r="C14" s="14"/>
       <c r="I14" s="66"/>
       <c r="K14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="172" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="173" t="s">
         <v>133</v>
-      </c>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="267"/>
-      <c r="J15" s="173" t="s">
-        <v>134</v>
       </c>
       <c r="K15" s="174"/>
       <c r="L15" s="175">
@@ -7597,21 +7803,21 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="70.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="268" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="272" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="273"/>
-      <c r="D16" s="273"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="273"/>
-      <c r="G16" s="273"/>
-      <c r="H16" s="273"/>
-      <c r="I16" s="273"/>
+      <c r="A16" s="254" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="258" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="259"/>
       <c r="J16" s="78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K16" s="130"/>
       <c r="L16" s="79">
@@ -7621,19 +7827,19 @@
       <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="269"/>
-      <c r="B17" s="272" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="273"/>
-      <c r="D17" s="273"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="273"/>
-      <c r="H17" s="273"/>
-      <c r="I17" s="273"/>
+      <c r="A17" s="255"/>
+      <c r="B17" s="258" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
       <c r="J17" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K17" s="131"/>
       <c r="L17" s="82">
@@ -7643,21 +7849,21 @@
       <c r="M17" s="80"/>
     </row>
     <row r="18" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="270" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="277" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="278"/>
-      <c r="D18" s="278"/>
-      <c r="E18" s="278"/>
-      <c r="F18" s="278"/>
-      <c r="G18" s="278"/>
-      <c r="H18" s="278"/>
-      <c r="I18" s="279"/>
+      <c r="A18" s="256" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="260" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="262"/>
       <c r="J18" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" s="132"/>
       <c r="L18" s="83">
@@ -7667,19 +7873,19 @@
       <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="274" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="275"/>
-      <c r="I19" s="276"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="263" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="264"/>
+      <c r="I19" s="265"/>
       <c r="J19" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K19" s="133"/>
       <c r="L19" s="85">
@@ -7702,7 +7908,7 @@
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="48"/>
@@ -7720,7 +7926,7 @@
     </row>
     <row r="24" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
@@ -7754,12 +7960,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
@@ -7772,6 +7972,12 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7785,12 +7991,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7860,25 +8066,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7901,9 +8100,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF55DA-ED75-4E67-BB96-D48762D57093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE158A-834D-4AB9-8AAB-46D79CAEDA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -284,14 +284,6 @@
   </si>
   <si>
     <t>Klass nr</t>
-  </si>
-  <si>
-    <t>STRUKTUR
-50%</t>
-  </si>
-  <si>
-    <t>KOREOGRAFI
-50%</t>
   </si>
   <si>
     <t>Poäng
@@ -616,66 +608,7 @@
 10 %</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>• Vilja/lydnad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Inget motstånd eller tvekan. Lyhörd och uppmärksam för linförarens hjälper. Harmoni och lätthet.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>• Balanserat tempo (såväl framåt som med samlat):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Konstant, korrekt tempo och energi utan att öka eller minska. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>• Håller voltspåret (inåt/utåt):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. Konstant volt med min 15 m diameter utan att falla in eller dra utåt.  </t>
-    </r>
-  </si>
-  <si>
     <t>Avdrag:</t>
-  </si>
-  <si>
-    <t>• Longeringen ska visa på ett enkelt och harmoniskt samarbete och kommunikation mellan linförare och häst. Korrekt och diskret använda hjälper. Korrekt position och hållning. Lämplig klädsel. Väl anpassad utrustning.
-• Inspring, hälsning och travvolt: Ska genomföras med flyt, från inspring tills hästen kommer fram i galopp och fram till dess att den första voltigören tar i hästen.</t>
   </si>
   <si>
     <t>A3
@@ -733,20 +666,141 @@
 20%</t>
   </si>
   <si>
-    <t>C1
-20%</t>
-  </si>
-  <si>
     <t>C2
 10%</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+•  Mjuka övergångar och rörelser som visar flyt, kontroll och sammanhållning.
+•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar komplexitet och rörelsefrihet.
+•  Undviker tom häst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken.
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
+• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vilja/lydnad</t>
+  </si>
+  <si>
+    <t>Balanserat tempo</t>
+  </si>
+  <si>
+    <t>Håller voltspåret</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>• Vilja/lydnad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Inget motstånd eller tvekan. Lyhörd och uppmärksam för linförarens hjälper. Harmoni och lätthet.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>• Balanserat tempo (framåt/bakåt):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Konstant korrekt tempo (tempo och energi utan att öka eller minska). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>• Håller voltspåret (inåt/utåt):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Konstant volt med min 15 m diameter utan att falla in eller utåt.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Longeringen ska visa på ett enkelt och harmoniskt samarbete och kommunikation mellan linförare och häst. 
+• Korrekt och diskret använda hjälper.
+• Korrekt position och hållning.
+• Lämplig klädsel. 
+• Väl anpassad utrustning.
+• Inspring, hälsning och travvolt: Ska genomföras med flyt, från inspring tills hästen kommer fram i galopp och fram till dess att voltigören rör hästen.</t>
+  </si>
+  <si>
+    <t>C1
+10%</t>
+  </si>
+  <si>
     <t>C3
-25%</t>
+30%</t>
   </si>
   <si>
     <t>C4
-25%</t>
+30%</t>
   </si>
   <si>
     <r>
@@ -778,9 +832,9 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
-• Använder singel- och dubbelövningar. Trippelövningar är tillåtet.
+• Använding av singel- och dubbelövningar. Trippelövningar är tillåtet.
 • Urval av kombinationer.
-• Ett urval av övningar och övergångar från olika strukturgrupper.
+• Ett urval av övningar, positioner och övergångar från olika strukturgrupper.
 </t>
     </r>
   </si>
@@ -803,69 +857,17 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balanserad användning av utrymme; användning av alla delar av hästens rygg och hals, inklusive studs.
-• Jämnt deltagande av alla voltigörer.
-• Jämnt även i roller och artistiskt engagemang.</t>
+• Variation av position av övingar, dels relaterat till hästen men också i riktningar av övningar.
+• Balanserad användning utrymmen; användning av alla delar av hästens rygg och hals, inklusive studs..
+• Någorlunda jämnt deltagande av alla voltigörer.
+• Någorlunda jämnt gällande roller och artistiskt engagemang.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sammanhållning av sammansättning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•  Mjuka övergångar och rörelser som visar flyt, kontroll och sammanhållning.
-•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar komplexitet och rörelsefrihet.
-•  Undviker tom häst.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
-• Fängslande tolkning av musiken.
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
-• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
-    </r>
-  </si>
-  <si>
-    <t>Vilja/lydnad</t>
-  </si>
-  <si>
-    <t>Balanserat tempo</t>
-  </si>
-  <si>
-    <t>Håller voltspåret</t>
+    <t>STRUKTUR</t>
+  </si>
+  <si>
+    <t>KOREOGRAFI</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1829,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2282,6 +2284,26 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2366,6 +2388,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2393,9 +2430,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2414,9 +2448,24 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2437,6 +2486,74 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,10 +2629,10 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2549,128 +2666,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3063,34 +3058,34 @@
   <sheetData>
     <row r="1" spans="1:8" s="125" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="124" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="125" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="125" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="137" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="137" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="137" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" s="111" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A8" s="111" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -3101,61 +3096,61 @@
     </row>
     <row r="12" spans="1:8" s="113" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="113" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="112"/>
       <c r="F13" s="114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="113" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="113" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="113" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="116"/>
       <c r="F15" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H15" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3170,26 +3165,26 @@
     </row>
     <row r="17" spans="1:9" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17" s="116"/>
       <c r="F17" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H17" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3204,26 +3199,26 @@
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" s="116"/>
       <c r="F19" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3238,71 +3233,71 @@
     </row>
     <row r="22" spans="1:9" s="113" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="113" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="112"/>
       <c r="F23" s="114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="113" t="s">
+      <c r="E24" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="113" t="s">
-        <v>74</v>
-      </c>
       <c r="F24" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="113" t="s">
+      <c r="I24" s="113" t="s">
         <v>72</v>
-      </c>
-      <c r="I24" s="113" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F25" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G25" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H25" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3318,31 +3313,31 @@
     </row>
     <row r="27" spans="1:9" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="115" t="s">
-        <v>81</v>
-      </c>
       <c r="I27" s="115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3358,31 +3353,31 @@
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F29" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G29" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H29" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I29" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3405,82 +3400,82 @@
     </row>
     <row r="33" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="112"/>
       <c r="F35" s="114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J35" s="114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="113" t="s">
         <v>70</v>
-      </c>
-      <c r="C36" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="113" t="s">
-        <v>72</v>
       </c>
       <c r="E36" s="113"/>
       <c r="F36" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="113" t="s">
-        <v>72</v>
-      </c>
       <c r="J36" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="113" t="s">
         <v>70</v>
-      </c>
-      <c r="K36" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="L36" s="113" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" s="116"/>
       <c r="F37" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G37" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H37" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J37" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K37" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L37" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3498,35 +3493,35 @@
     </row>
     <row r="39" spans="1:17" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" s="115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E39" s="116"/>
       <c r="F39" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G39" s="115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H39" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J39" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K39" s="115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L39" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3544,35 +3539,35 @@
     </row>
     <row r="41" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" s="116"/>
       <c r="F41" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H41" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J41" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K41" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L41" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3603,59 +3598,59 @@
     </row>
     <row r="45" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A45" s="113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="112"/>
       <c r="F47" s="114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J47" s="114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K47" s="112"/>
       <c r="N47" s="114"/>
     </row>
     <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="113" t="s">
+      <c r="E48" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="113" t="s">
-        <v>74</v>
-      </c>
       <c r="F48" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="113" t="s">
+      <c r="I48" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="I48" s="113" t="s">
-        <v>74</v>
-      </c>
       <c r="J48" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="K48" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="L48" s="113" t="s">
+      <c r="M48" s="113" t="s">
         <v>72</v>
-      </c>
-      <c r="M48" s="113" t="s">
-        <v>74</v>
       </c>
       <c r="N48" s="113"/>
       <c r="O48" s="113"/>
@@ -3664,43 +3659,43 @@
     </row>
     <row r="49" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" s="115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F49" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G49" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H49" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I49" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J49" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K49" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L49" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M49" s="115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3720,43 +3715,43 @@
     </row>
     <row r="51" spans="1:13" s="112" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="115" t="s">
-        <v>81</v>
-      </c>
       <c r="I51" s="115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J51" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K51" s="115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L51" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M51" s="115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3776,106 +3771,106 @@
     </row>
     <row r="53" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B53" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E53" s="115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F53" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G53" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H53" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I53" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J53" s="115" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K53" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L53" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M53" s="115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="125" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A56" s="123" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="122" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A57" s="121"/>
       <c r="B57" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="121" t="s">
+      <c r="E57" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="121" t="s">
-        <v>74</v>
-      </c>
       <c r="F57" s="121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="119" t="s">
+      <c r="D58" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="F58" s="119" t="s">
         <v>88</v>
-      </c>
-      <c r="D58" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="119" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="119" t="s">
+      <c r="E59" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="119" t="s">
-        <v>94</v>
-      </c>
       <c r="F59" s="119" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="120" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -3885,7 +3880,7 @@
       <c r="D60" s="119"/>
       <c r="E60" s="119"/>
       <c r="F60" s="119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3907,7 +3902,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3933,7 +3928,7 @@
       </c>
       <c r="G2" s="140"/>
       <c r="H2" s="141" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="142"/>
       <c r="J2" s="143"/>
@@ -3945,7 +3940,7 @@
       </c>
       <c r="G3" s="140"/>
       <c r="H3" s="141" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="142"/>
       <c r="J3" s="143"/>
@@ -3956,8 +3951,8 @@
         <v>11</v>
       </c>
       <c r="B4" s="146"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="147"/>
       <c r="G4" s="140"/>
       <c r="H4" s="141" t="s">
@@ -3972,9 +3967,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="148"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
       <c r="G5" s="140"/>
       <c r="H5" s="141" t="s">
         <v>10</v>
@@ -3988,9 +3983,9 @@
         <v>13</v>
       </c>
       <c r="B6" s="148"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
       <c r="G6" s="138" t="s">
         <v>15</v>
       </c>
@@ -3998,7 +3993,7 @@
     </row>
     <row r="7" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="148" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="148"/>
       <c r="C7" s="151"/>
@@ -4007,77 +4002,77 @@
       <c r="G7" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
     </row>
     <row r="8" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="146"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
       <c r="G8" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
     </row>
     <row r="9" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="148" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="148"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
       <c r="G9" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
     </row>
     <row r="10" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="148" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="148"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
       <c r="G10" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="176"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
     </row>
     <row r="11" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
     </row>
     <row r="12" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="152"/>
       <c r="G12" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="176"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
     </row>
     <row r="13" spans="1:12" s="138" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="152"/>
@@ -4095,306 +4090,306 @@
       <c r="E14" s="155"/>
       <c r="F14" s="155"/>
       <c r="G14" s="138"/>
-      <c r="H14" s="181" t="s">
+      <c r="H14" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="184"/>
-      <c r="L14" s="185"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="191" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="195" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="190" t="s">
+      <c r="K15" s="208">
+        <f>SUM(B20:G20)/6</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="210">
+        <f>ROUND(K15*0.6,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="192"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="211"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="192"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="211"/>
+    </row>
+    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="192"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="211"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="193"/>
+      <c r="B19" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="200" t="s">
+      <c r="C19" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="300">
-        <f>SUM(B20:G20)/6</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="302">
-        <f>ROUND(K15*0.6,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="301"/>
-      <c r="L16" s="303"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="301"/>
-      <c r="L17" s="303"/>
-    </row>
-    <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="187"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="301"/>
-      <c r="L18" s="303"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="188"/>
-      <c r="B19" s="156" t="s">
+      <c r="D19" s="158" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="E19" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="F19" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="157" t="s">
+      <c r="G19" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="159" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="301"/>
-      <c r="L19" s="303"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="211"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="189"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="160"/>
       <c r="C20" s="161"/>
       <c r="D20" s="161"/>
       <c r="E20" s="161"/>
       <c r="F20" s="161"/>
       <c r="G20" s="162"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="301"/>
-      <c r="L20" s="304"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="207"/>
-      <c r="B21" s="210" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="292" t="s">
+      <c r="H20" s="203"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="212"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="217"/>
+      <c r="B21" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="293">
+      <c r="K21" s="249">
         <f>SUMPRODUCT(B26:G26,B25:G25)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="296">
+      <c r="L21" s="231">
         <f>IF((K21-K28)&gt;=0,ROUND((K21-K28)*0.25,3),0.000000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="208"/>
-      <c r="B22" s="211"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="269"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="297"/>
+      <c r="A22" s="218"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="229"/>
+      <c r="K22" s="250"/>
+      <c r="L22" s="232"/>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="208"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="269"/>
-      <c r="K23" s="294"/>
-      <c r="L23" s="297"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="208"/>
-      <c r="B24" s="270" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="271"/>
-      <c r="D24" s="272" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="273"/>
-      <c r="F24" s="274" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="275"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="269"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="297"/>
-    </row>
-    <row r="25" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="208"/>
-      <c r="B25" s="276">
+      <c r="A23" s="218"/>
+      <c r="B23" s="221"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="232"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="218"/>
+      <c r="B24" s="241" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="244"/>
+      <c r="F24" s="245" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="246"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="229"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="232"/>
+    </row>
+    <row r="25" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="218"/>
+      <c r="B25" s="247">
         <v>0.5</v>
       </c>
-      <c r="C25" s="277"/>
-      <c r="D25" s="278">
+      <c r="C25" s="248"/>
+      <c r="D25" s="252">
         <v>0.25</v>
       </c>
-      <c r="E25" s="279"/>
-      <c r="F25" s="280">
+      <c r="E25" s="253"/>
+      <c r="F25" s="254">
         <v>0.25</v>
       </c>
-      <c r="G25" s="281"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="269"/>
-      <c r="K25" s="294"/>
-      <c r="L25" s="297"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="250"/>
+      <c r="L25" s="232"/>
     </row>
     <row r="26" spans="1:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="208"/>
-      <c r="B26" s="282"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
-      <c r="E26" s="285"/>
-      <c r="F26" s="283"/>
-      <c r="G26" s="286"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="269"/>
-      <c r="K26" s="295"/>
-      <c r="L26" s="297"/>
+      <c r="A26" s="218"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="225"/>
+      <c r="J26" s="229"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="232"/>
     </row>
     <row r="27" spans="1:12" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="208"/>
-      <c r="B27" s="288"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="291"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="269"/>
-      <c r="K27" s="287"/>
-      <c r="L27" s="297"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="225"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="232"/>
     </row>
     <row r="28" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="209"/>
+      <c r="A28" s="219"/>
       <c r="B28" s="163" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="219"/>
+        <v>122</v>
+      </c>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="230"/>
       <c r="K28" s="165">
         <f>SUM(C28:G28)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="298"/>
-    </row>
-    <row r="29" spans="1:12" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="207" t="s">
+      <c r="L28" s="233"/>
+    </row>
+    <row r="29" spans="1:12" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="210" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="222"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="201" t="s">
-        <v>127</v>
+      <c r="B29" s="220" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="237"/>
+      <c r="J29" s="206" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="166">
         <v>0</v>
       </c>
-      <c r="L29" s="203">
+      <c r="L29" s="213">
         <f>IF((K29-K30)&gt;=0,ROUND((K29-K30)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="209"/>
+      <c r="A30" s="219"/>
       <c r="B30" s="167" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C30" s="164"/>
       <c r="D30" s="164"/>
       <c r="E30" s="164"/>
       <c r="F30" s="164"/>
       <c r="G30" s="164"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="226"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="240"/>
       <c r="K30" s="165">
         <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="204"/>
+      <c r="L30" s="214"/>
     </row>
     <row r="31" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44"/>
@@ -4412,11 +4407,11 @@
         <v>9</v>
       </c>
       <c r="J32" s="46"/>
-      <c r="K32" s="205">
+      <c r="K32" s="215">
         <f>SUM(L15:L29)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="206"/>
+      <c r="L32" s="216"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="169" t="s">
@@ -4438,7 +4433,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K21:K26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="B26:C26"/>
@@ -4459,6 +4453,7 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K21:K26"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A20"/>
@@ -4486,11 +4481,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.47244094488188981" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R2020-03-22</oddFooter>
+    <oddFooter>&amp;R2025-03-16</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -4521,11 +4516,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -4533,11 +4528,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -4565,10 +4560,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -4582,17 +4577,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -4602,79 +4597,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="239"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="270"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="270"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="270"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="270"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4704,12 +4699,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="227"/>
-      <c r="B15" s="228" t="s">
+      <c r="A15" s="261"/>
+      <c r="B15" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
       <c r="E15" s="18"/>
       <c r="F15" s="127"/>
       <c r="G15" s="127"/>
@@ -4723,12 +4718,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="227"/>
-      <c r="B16" s="230" t="s">
+      <c r="A16" s="261"/>
+      <c r="B16" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
       <c r="E16" s="18"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
@@ -4742,11 +4737,11 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
       <c r="E17" s="18"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
@@ -4760,11 +4755,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="274" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
+      <c r="C18" s="275"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="18"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
@@ -4778,11 +4773,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="D19" s="229"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
       <c r="E19" s="20"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
@@ -4832,12 +4827,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="231" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233"/>
+      <c r="B22" s="265" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="267"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -5017,11 +5012,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5029,11 +5024,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5061,10 +5056,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -5078,17 +5073,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -5098,80 +5093,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="269"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="235"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="269"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="235"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="235"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="269"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5208,12 +5203,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="227"/>
-      <c r="B16" s="228" t="s">
+      <c r="A16" s="261"/>
+      <c r="B16" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
       <c r="E16" s="18"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
@@ -5227,12 +5222,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227"/>
-      <c r="B17" s="230" t="s">
+      <c r="A17" s="261"/>
+      <c r="B17" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
       <c r="E17" s="18"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
@@ -5246,11 +5241,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="229"/>
-      <c r="D18" s="229"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
       <c r="E18" s="18"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
@@ -5264,11 +5259,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="D19" s="229"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
       <c r="E19" s="18"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
@@ -5282,12 +5277,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="230" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="243"/>
+      <c r="B20" s="264" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="277"/>
       <c r="F20" s="127"/>
       <c r="G20" s="127"/>
       <c r="H20" s="127"/>
@@ -5300,11 +5295,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="229"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
       <c r="E21" s="18"/>
       <c r="F21" s="127"/>
       <c r="G21" s="127"/>
@@ -5318,12 +5313,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="231" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233"/>
+      <c r="B22" s="265" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="267"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -5536,11 +5531,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -5548,11 +5543,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -5580,10 +5575,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -5597,17 +5592,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -5617,80 +5612,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="239"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="270"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="270"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="270"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="270"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -5720,13 +5715,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="227"/>
-      <c r="B15" s="228" t="s">
+      <c r="A15" s="261"/>
+      <c r="B15" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="245"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="279"/>
       <c r="F15" s="127"/>
       <c r="G15" s="127"/>
       <c r="H15" s="127"/>
@@ -5739,13 +5734,13 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="227"/>
-      <c r="B16" s="230" t="s">
+      <c r="A16" s="261"/>
+      <c r="B16" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="243"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="277"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
       <c r="H16" s="127"/>
@@ -5758,12 +5753,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="243"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="277"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
       <c r="H17" s="127"/>
@@ -5776,12 +5771,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="248"/>
-      <c r="D18" s="248"/>
-      <c r="E18" s="249"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="283"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
       <c r="H18" s="127"/>
@@ -5794,12 +5789,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="243"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="277"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
@@ -5812,12 +5807,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="230" t="s">
+      <c r="B20" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="243"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="277"/>
       <c r="F20" s="127"/>
       <c r="G20" s="127"/>
       <c r="H20" s="127"/>
@@ -5830,12 +5825,12 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="229"/>
-      <c r="E21" s="243"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="277"/>
       <c r="F21" s="127"/>
       <c r="G21" s="127"/>
       <c r="H21" s="127"/>
@@ -5848,12 +5843,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="246" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="247"/>
-      <c r="D22" s="247"/>
-      <c r="E22" s="247"/>
+      <c r="B22" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="281"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -6040,11 +6035,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6056,7 +6051,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6084,10 +6079,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -6101,17 +6096,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -6121,79 +6116,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="239"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="270"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="270"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="270"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="270"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6526,11 +6521,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -6542,7 +6537,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -6570,10 +6565,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -6587,17 +6582,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -6607,79 +6602,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="239"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="270"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="270"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="270"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="270"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6705,32 +6700,32 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="250"/>
-      <c r="B15" s="251"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
+      <c r="A15" s="284"/>
+      <c r="B15" s="285"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="285"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="285"/>
+      <c r="K15" s="285"/>
+      <c r="L15" s="286"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="253"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="239"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="272"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="272"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="273"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107" t="s">
@@ -7049,11 +7044,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7065,7 +7060,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7093,10 +7088,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -7110,17 +7105,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -7130,79 +7125,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="239"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="270"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="270"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="270"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="270"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -7228,32 +7223,32 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="250"/>
-      <c r="B15" s="251"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
+      <c r="A15" s="284"/>
+      <c r="B15" s="285"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="285"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="285"/>
+      <c r="K15" s="285"/>
+      <c r="L15" s="286"/>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="253"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="239"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="272"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="272"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="273"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107" t="s">
@@ -7585,7 +7580,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -7608,11 +7603,11 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -7624,7 +7619,7 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
@@ -7652,10 +7647,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -7669,17 +7664,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="70"/>
@@ -7689,80 +7684,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="239"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="270"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="236"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="270"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="234"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="236"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="270"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="236"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="270"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="236"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="270"/>
     </row>
     <row r="13" spans="1:13" ht="8.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7776,25 +7771,25 @@
       <c r="C14" s="14"/>
       <c r="I14" s="66"/>
       <c r="K14" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="172" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="266" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="267"/>
-      <c r="I15" s="268"/>
+        <v>127</v>
+      </c>
+      <c r="B15" s="300" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="301"/>
+      <c r="D15" s="301"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="301"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="301"/>
+      <c r="I15" s="302"/>
       <c r="J15" s="173" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K15" s="174"/>
       <c r="L15" s="175">
@@ -7802,44 +7797,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="70.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="254" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="258" t="s">
+    <row r="16" spans="1:13" ht="66.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="288" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="292" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="293"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="293"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="78" t="s">
         <v>138</v>
-      </c>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="259"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="78" t="s">
-        <v>134</v>
       </c>
       <c r="K16" s="130"/>
       <c r="L16" s="79">
-        <f>K16*0.2</f>
+        <f>K16*0.1</f>
         <v>0</v>
       </c>
       <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="255"/>
-      <c r="B17" s="258" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="259"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="259"/>
+      <c r="A17" s="289"/>
+      <c r="B17" s="292" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="293"/>
       <c r="J17" s="81" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K17" s="131"/>
       <c r="L17" s="82">
@@ -7849,47 +7844,47 @@
       <c r="M17" s="80"/>
     </row>
     <row r="18" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="256" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="260" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="262"/>
+      <c r="A18" s="290" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="294" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="295"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="295"/>
+      <c r="G18" s="295"/>
+      <c r="H18" s="295"/>
+      <c r="I18" s="296"/>
       <c r="J18" s="78" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K18" s="132"/>
       <c r="L18" s="83">
-        <f>K18*0.25</f>
+        <f>K18*0.3</f>
         <v>0</v>
       </c>
       <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="257"/>
-      <c r="B19" s="263" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="264"/>
-      <c r="I19" s="265"/>
+      <c r="A19" s="291"/>
+      <c r="B19" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="298"/>
+      <c r="I19" s="299"/>
       <c r="J19" s="84" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K19" s="133"/>
       <c r="L19" s="85">
-        <f>K19*0.25</f>
+        <f>K19*0.3</f>
         <v>0</v>
       </c>
       <c r="M19" s="80"/>
@@ -7926,7 +7921,7 @@
     </row>
     <row r="24" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
@@ -7984,13 +7979,22 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G
 &amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
-    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
+    <oddFooter>&amp;R&amp;8 2025-03-16</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7999,7 +8003,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8065,16 +8069,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8082,7 +8092,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8097,19 +8107,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_lag_sv-r_mellan(mall).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE158A-834D-4AB9-8AAB-46D79CAEDA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54E0CEE-B78A-46E4-8FB4-DD51AEAB4E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="Lag kür tekn junior" sheetId="6" r:id="rId7"/>
     <sheet name="Lag kür tekn sr" sheetId="20" r:id="rId8"/>
     <sheet name="Lag kür art" sheetId="21" r:id="rId9"/>
+    <sheet name="Lag kür art senior" sheetId="31" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="Antal_tävlingsdagar" localSheetId="1">[1]Information!$H$5</definedName>
@@ -35,6 +36,7 @@
     <definedName name="bord" localSheetId="4">'Lag grund B'!$L$3</definedName>
     <definedName name="bord" localSheetId="3">'Lag grund D'!$L$3</definedName>
     <definedName name="bord" localSheetId="8">'Lag kür art'!$L$3</definedName>
+    <definedName name="bord" localSheetId="9">'Lag kür art senior'!$L$3</definedName>
     <definedName name="bord" localSheetId="6">'Lag kür tekn junior'!$L$3</definedName>
     <definedName name="bord" localSheetId="5">'Lag kür tekn mellan'!$L$3</definedName>
     <definedName name="bord" localSheetId="7">'Lag kür tekn sr'!$L$3</definedName>
@@ -43,6 +45,7 @@
     <definedName name="datum" localSheetId="4">'Lag grund B'!$C$4</definedName>
     <definedName name="datum" localSheetId="3">'Lag grund D'!$C$4</definedName>
     <definedName name="datum" localSheetId="8">'Lag kür art'!$C$4</definedName>
+    <definedName name="datum" localSheetId="9">'Lag kür art senior'!$C$4</definedName>
     <definedName name="datum" localSheetId="6">'Lag kür tekn junior'!$C$4</definedName>
     <definedName name="datum" localSheetId="5">'Lag kür tekn mellan'!$C$4</definedName>
     <definedName name="datum" localSheetId="7">'Lag kür tekn sr'!$C$4</definedName>
@@ -51,6 +54,7 @@
     <definedName name="domare" localSheetId="4">'Lag grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="3">'Lag grund D'!$C$33</definedName>
     <definedName name="domare" localSheetId="8">'Lag kür art'!$C$27</definedName>
+    <definedName name="domare" localSheetId="9">'Lag kür art senior'!$C$27</definedName>
     <definedName name="domare" localSheetId="6">'Lag kür tekn junior'!$C$42</definedName>
     <definedName name="domare" localSheetId="5">'Lag kür tekn mellan'!$C$42</definedName>
     <definedName name="domare" localSheetId="7">'Lag kür tekn sr'!$C$42</definedName>
@@ -59,6 +63,7 @@
     <definedName name="firstvaulter" localSheetId="4">'Lag grund B'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="3">'Lag grund D'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="8">'Lag kür art'!$I$7</definedName>
+    <definedName name="firstvaulter" localSheetId="9">'Lag kür art senior'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="6">'Lag kür tekn junior'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="5">'Lag kür tekn mellan'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="7">'Lag kür tekn sr'!$I$7</definedName>
@@ -68,6 +73,7 @@
     <definedName name="id" localSheetId="4">'Lag grund B'!$U$1</definedName>
     <definedName name="id" localSheetId="3">'Lag grund D'!$U$1</definedName>
     <definedName name="id" localSheetId="8">'Lag kür art'!$U$1</definedName>
+    <definedName name="id" localSheetId="9">'Lag kür art senior'!$U$1</definedName>
     <definedName name="id" localSheetId="6">'Lag kür tekn junior'!$U$1</definedName>
     <definedName name="id" localSheetId="5">'Lag kür tekn mellan'!$U$1</definedName>
     <definedName name="id" localSheetId="7">'Lag kür tekn sr'!$U$1</definedName>
@@ -76,6 +82,7 @@
     <definedName name="klass" localSheetId="4">'Lag grund B'!$L$4</definedName>
     <definedName name="klass" localSheetId="3">'Lag grund D'!$L$4</definedName>
     <definedName name="klass" localSheetId="8">'Lag kür art'!$L$4</definedName>
+    <definedName name="klass" localSheetId="9">'Lag kür art senior'!$L$4</definedName>
     <definedName name="klass" localSheetId="6">'Lag kür tekn junior'!$L$4</definedName>
     <definedName name="klass" localSheetId="5">'Lag kür tekn mellan'!$L$4</definedName>
     <definedName name="klass" localSheetId="7">'Lag kür tekn sr'!$L$4</definedName>
@@ -84,6 +91,7 @@
     <definedName name="moment" localSheetId="4">'Lag grund B'!$L$5</definedName>
     <definedName name="moment" localSheetId="3">'Lag grund D'!$L$5</definedName>
     <definedName name="moment" localSheetId="8">'Lag kür art'!$L$5</definedName>
+    <definedName name="moment" localSheetId="9">'Lag kür art senior'!$L$5</definedName>
     <definedName name="moment" localSheetId="6">'Lag kür tekn junior'!$L$5</definedName>
     <definedName name="moment" localSheetId="5">'Lag kür tekn mellan'!$L$5</definedName>
     <definedName name="moment" localSheetId="7">'Lag kür tekn sr'!$L$5</definedName>
@@ -92,6 +100,7 @@
     <definedName name="result" localSheetId="4">'Lag grund B'!$L$29</definedName>
     <definedName name="result" localSheetId="3">'Lag grund D'!$L$29</definedName>
     <definedName name="result" localSheetId="8">'Lag kür art'!$L$24</definedName>
+    <definedName name="result" localSheetId="9">'Lag kür art senior'!$L$24</definedName>
     <definedName name="result" localSheetId="6">'Lag kür tekn junior'!$L$34</definedName>
     <definedName name="result" localSheetId="5">'Lag kür tekn mellan'!$L$34</definedName>
     <definedName name="result" localSheetId="7">'Lag kür tekn sr'!$L$35</definedName>
@@ -112,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="149">
   <si>
     <t>1)</t>
   </si>
@@ -868,6 +877,21 @@
   </si>
   <si>
     <t>KOREOGRAFI</t>
+  </si>
+  <si>
+    <t>C1
+20%</t>
+  </si>
+  <si>
+    <t>C3
+25%</t>
+  </si>
+  <si>
+    <t>C4
+25%</t>
+  </si>
+  <si>
+    <t>Lag kür senior</t>
   </si>
 </sst>
 </file>
@@ -2304,6 +2328,239 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2322,265 +2579,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="62" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2592,6 +2601,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2622,6 +2646,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2656,15 +2689,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3895,6 +3919,418 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E92013-7EE9-4BBB-985C-F7F686664514}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="135"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="H8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="H9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
+      <c r="H10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14"/>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
+    </row>
+    <row r="13" spans="1:13" ht="8.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="14"/>
+      <c r="I14" s="66"/>
+      <c r="K14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="172" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="288" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="289"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="289"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="289"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="173" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175">
+        <f>K15*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="66.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="291" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="295" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="296"/>
+      <c r="J16" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="130"/>
+      <c r="L16" s="79">
+        <f>K16*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="292"/>
+      <c r="B17" s="295" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="296"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="296"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="296"/>
+      <c r="I17" s="296"/>
+      <c r="J17" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="131"/>
+      <c r="L17" s="82">
+        <f>K17*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="293" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="298"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="298"/>
+      <c r="F18" s="298"/>
+      <c r="G18" s="298"/>
+      <c r="H18" s="298"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="132"/>
+      <c r="L18" s="83">
+        <f>K18*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="294"/>
+      <c r="B19" s="300" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="301"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="301"/>
+      <c r="G19" s="301"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="133"/>
+      <c r="L19" s="85">
+        <f>K19*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="80"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="86">
+        <f>SUM(L16:L19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="134"/>
+    </row>
+    <row r="23" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="68"/>
+    </row>
+    <row r="24" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77">
+        <f>SUM(L15:L19)-L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="8.65" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;G
+&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LAGTÄVLAN</oddHeader>
+    <oddFooter>&amp;R&amp;8 2025-03-16</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C25329-D17D-4FF2-BF65-A450782F317F}">
   <sheetPr>
@@ -3902,7 +4338,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3951,8 +4387,8 @@
         <v>11</v>
       </c>
       <c r="B4" s="146"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="147"/>
       <c r="G4" s="140"/>
       <c r="H4" s="141" t="s">
@@ -3967,9 +4403,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="148"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
       <c r="G5" s="140"/>
       <c r="H5" s="141" t="s">
         <v>10</v>
@@ -3983,9 +4419,9 @@
         <v>13</v>
       </c>
       <c r="B6" s="148"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
       <c r="G6" s="138" t="s">
         <v>15</v>
       </c>
@@ -4002,77 +4438,77 @@
       <c r="G7" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="184"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
+      <c r="H7" s="259"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="260"/>
     </row>
     <row r="8" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="146"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
       <c r="G8" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="257"/>
     </row>
     <row r="9" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="148" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="148"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
       <c r="G9" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="181"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="182"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
     </row>
     <row r="10" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="148" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="148"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
       <c r="G10" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="181"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="182"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="257"/>
     </row>
     <row r="11" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="181"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="257"/>
     </row>
     <row r="12" spans="1:12" s="138" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="152"/>
       <c r="G12" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="181"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="257"/>
     </row>
     <row r="13" spans="1:12" s="138" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="152"/>
@@ -4090,86 +4526,86 @@
       <c r="E14" s="155"/>
       <c r="F14" s="155"/>
       <c r="G14" s="138"/>
-      <c r="H14" s="186" t="s">
+      <c r="H14" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="187"/>
-      <c r="J14" s="188" t="s">
+      <c r="I14" s="231"/>
+      <c r="J14" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="234"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="235" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="239" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="205" t="s">
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="249" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="208">
+      <c r="K15" s="251">
         <f>SUM(B20:G20)/6</f>
         <v>0</v>
       </c>
-      <c r="L15" s="210">
+      <c r="L15" s="253">
         <f>ROUND(K15*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="192"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="211"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="254"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="192"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="211"/>
+      <c r="A17" s="236"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="254"/>
     </row>
     <row r="18" spans="1:12" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="192"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="211"/>
+      <c r="A18" s="236"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="252"/>
+      <c r="L18" s="254"/>
     </row>
     <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="193"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="156" t="s">
         <v>116</v>
       </c>
@@ -4188,148 +4624,148 @@
       <c r="G19" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="211"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="252"/>
+      <c r="L19" s="254"/>
     </row>
     <row r="20" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="194"/>
+      <c r="A20" s="238"/>
       <c r="B20" s="160"/>
       <c r="C20" s="161"/>
       <c r="D20" s="161"/>
       <c r="E20" s="161"/>
       <c r="F20" s="161"/>
       <c r="G20" s="162"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="212"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="248"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="255"/>
     </row>
     <row r="21" spans="1:12" ht="12.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="217"/>
-      <c r="B21" s="220" t="s">
+      <c r="A21" s="194"/>
+      <c r="B21" s="197" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="220"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="222"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="228" t="s">
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="249">
+      <c r="K21" s="227">
         <f>SUMPRODUCT(B26:G26,B25:G25)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="231">
+      <c r="L21" s="208">
         <f>IF((K21-K28)&gt;=0,ROUND((K21-K28)*0.25,3),0.000000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
-      <c r="B22" s="221"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="224"/>
-      <c r="I22" s="225"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="250"/>
-      <c r="L22" s="232"/>
+      <c r="A22" s="195"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="209"/>
     </row>
     <row r="23" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="221"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="250"/>
-      <c r="L23" s="232"/>
+      <c r="A23" s="195"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="209"/>
     </row>
     <row r="24" spans="1:12" ht="15.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="241" t="s">
+      <c r="A24" s="195"/>
+      <c r="B24" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243" t="s">
+      <c r="C24" s="220"/>
+      <c r="D24" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="244"/>
-      <c r="F24" s="245" t="s">
+      <c r="E24" s="222"/>
+      <c r="F24" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="246"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="229"/>
-      <c r="K24" s="250"/>
-      <c r="L24" s="232"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="209"/>
     </row>
     <row r="25" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
-      <c r="B25" s="247">
+      <c r="A25" s="195"/>
+      <c r="B25" s="225">
         <v>0.5</v>
       </c>
-      <c r="C25" s="248"/>
-      <c r="D25" s="252">
+      <c r="C25" s="226"/>
+      <c r="D25" s="181">
         <v>0.25</v>
       </c>
-      <c r="E25" s="253"/>
-      <c r="F25" s="254">
+      <c r="E25" s="182"/>
+      <c r="F25" s="183">
         <v>0.25</v>
       </c>
-      <c r="G25" s="255"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="225"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="232"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="209"/>
     </row>
     <row r="26" spans="1:12" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="218"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="257"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="225"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="232"/>
+      <c r="A26" s="195"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="229"/>
+      <c r="L26" s="209"/>
     </row>
     <row r="27" spans="1:12" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="218"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="177"/>
       <c r="C27" s="178"/>
       <c r="D27" s="179"/>
       <c r="E27" s="179"/>
       <c r="F27" s="178"/>
       <c r="G27" s="180"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="225"/>
-      <c r="J27" s="229"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="206"/>
       <c r="K27" s="176"/>
-      <c r="L27" s="232"/>
+      <c r="L27" s="209"/>
     </row>
     <row r="28" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="219"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="163" t="s">
         <v>122</v>
       </c>
@@ -4338,42 +4774,42 @@
       <c r="E28" s="164"/>
       <c r="F28" s="164"/>
       <c r="G28" s="164"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="230"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="207"/>
       <c r="K28" s="165">
         <f>SUM(C28:G28)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="233"/>
+      <c r="L28" s="210"/>
     </row>
     <row r="29" spans="1:12" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="217" t="s">
+      <c r="A29" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="197" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="237"/>
-      <c r="J29" s="206" t="s">
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="217" t="s">
         <v>123</v>
       </c>
       <c r="K29" s="166">
         <v>0</v>
       </c>
-      <c r="L29" s="213">
+      <c r="L29" s="190">
         <f>IF((K29-K30)&gt;=0,ROUND((K29-K30)*0.15,3),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="219"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="167" t="s">
         <v>122</v>
       </c>
@@ -4382,14 +4818,14 @@
       <c r="E30" s="164"/>
       <c r="F30" s="164"/>
       <c r="G30" s="164"/>
-      <c r="H30" s="238"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="240"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="165">
         <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="214"/>
+      <c r="L30" s="191"/>
     </row>
     <row r="31" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44"/>
@@ -4407,11 +4843,11 @@
         <v>9</v>
       </c>
       <c r="J32" s="46"/>
-      <c r="K32" s="215">
+      <c r="K32" s="192">
         <f>SUM(L15:L29)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="216"/>
+      <c r="L32" s="193"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="169" t="s">
@@ -4433,11 +4869,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="H15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="A21:A28"/>
@@ -4454,26 +4905,11 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="K21:K26"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="H15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Endast siffror giltiga" error="Ej giltig siffra_x000a_Kan du ha skrivit komma  istället för punkt eller tvärt om" sqref="C30:G30 C28 D28 E28 F28 G28 F26:G26 D26:E26 B26:C26 K29 B20 C20 D20 E20 F20 G20" xr:uid="{717696C7-3684-477B-A49A-9E6458A0FA01}">
@@ -4560,10 +4996,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -4577,10 +5013,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4597,79 +5033,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="270"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="270"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="270"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="270"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -4699,12 +5135,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="261"/>
-      <c r="B15" s="262" t="s">
+      <c r="A15" s="271"/>
+      <c r="B15" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="263"/>
-      <c r="D15" s="263"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="265"/>
       <c r="E15" s="18"/>
       <c r="F15" s="127"/>
       <c r="G15" s="127"/>
@@ -4718,12 +5154,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="261"/>
+      <c r="A16" s="271"/>
       <c r="B16" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="263"/>
-      <c r="D16" s="263"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="265"/>
       <c r="E16" s="18"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
@@ -4740,8 +5176,8 @@
       <c r="B17" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
       <c r="E17" s="18"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
@@ -4755,11 +5191,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="274" t="s">
+      <c r="B18" s="269" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="275"/>
-      <c r="D18" s="275"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
       <c r="E18" s="18"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
@@ -4776,8 +5212,8 @@
       <c r="B19" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
       <c r="E19" s="20"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
@@ -4827,12 +5263,12 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="273" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="266"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="267"/>
+      <c r="C22" s="274"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="275"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -4956,6 +5392,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:F8"/>
@@ -4969,11 +5410,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5056,10 +5492,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -5073,10 +5509,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -5093,80 +5529,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="272"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="267"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="269"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="262"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="262"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="269"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="262"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="269"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="262"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -5203,12 +5639,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="261"/>
-      <c r="B16" s="262" t="s">
+      <c r="A16" s="271"/>
+      <c r="B16" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="263"/>
-      <c r="D16" s="263"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="265"/>
       <c r="E16" s="18"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
@@ -5222,12 +5658,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="261"/>
+      <c r="A17" s="271"/>
       <c r="B17" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
       <c r="E17" s="18"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
@@ -5244,8 +5680,8 @@
       <c r="B18" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
       <c r="E18" s="18"/>
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
@@ -5262,8 +5698,8 @@
       <c r="B19" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
       <c r="E19" s="18"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
@@ -5280,8 +5716,8 @@
       <c r="B20" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="263"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
       <c r="E20" s="277"/>
       <c r="F20" s="127"/>
       <c r="G20" s="127"/>
@@ -5298,8 +5734,8 @@
       <c r="B21" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="263"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="265"/>
       <c r="E21" s="18"/>
       <c r="F21" s="127"/>
       <c r="G21" s="127"/>
@@ -5313,12 +5749,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="273" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="266"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="267"/>
+      <c r="C22" s="274"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="275"/>
       <c r="F22" s="127"/>
       <c r="G22" s="127"/>
       <c r="H22" s="127"/>
@@ -5471,6 +5907,13 @@
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I8:L8"/>
@@ -5483,13 +5926,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5575,10 +6011,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -5592,10 +6028,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -5612,80 +6048,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="270"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="270"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="270"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="270"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -5715,8 +6151,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="261"/>
-      <c r="B15" s="262" t="s">
+      <c r="A15" s="271"/>
+      <c r="B15" s="272" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="278"/>
@@ -5734,12 +6170,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="261"/>
+      <c r="A16" s="271"/>
       <c r="B16" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="263"/>
-      <c r="D16" s="263"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="265"/>
       <c r="E16" s="277"/>
       <c r="F16" s="127"/>
       <c r="G16" s="127"/>
@@ -5756,8 +6192,8 @@
       <c r="B17" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
       <c r="E17" s="277"/>
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
@@ -5792,8 +6228,8 @@
       <c r="B19" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
       <c r="E19" s="277"/>
       <c r="F19" s="127"/>
       <c r="G19" s="127"/>
@@ -5810,8 +6246,8 @@
       <c r="B20" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="263"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
       <c r="E20" s="277"/>
       <c r="F20" s="127"/>
       <c r="G20" s="127"/>
@@ -5828,8 +6264,8 @@
       <c r="B21" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="263"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="265"/>
       <c r="E21" s="277"/>
       <c r="F21" s="127"/>
       <c r="G21" s="127"/>
@@ -5976,6 +6412,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="C6:F6"/>
@@ -5988,14 +6432,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6079,10 +6515,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -6096,10 +6532,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6116,79 +6552,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="270"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="270"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="270"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="270"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6565,10 +7001,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -6582,10 +7018,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6602,79 +7038,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="270"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="270"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="270"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="270"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -6715,17 +7151,17 @@
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="287"/>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="272"/>
-      <c r="I16" s="272"/>
-      <c r="J16" s="272"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="273"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="268"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107" t="s">
@@ -7088,10 +7524,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -7105,10 +7541,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7125,79 +7561,79 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="270"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="270"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="270"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="270"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
@@ -7238,17 +7674,17 @@
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="287"/>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="272"/>
-      <c r="I16" s="272"/>
-      <c r="J16" s="272"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="273"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="268"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107" t="s">
@@ -7581,7 +8017,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScale="110" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7647,10 +8083,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="9"/>
       <c r="I5" s="13" t="s">
         <v>10</v>
@@ -7664,10 +8100,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7684,80 +8120,80 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="268"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
       <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="270"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
       <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="270"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
       <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="270"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="263"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="270"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="263"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="270"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="263"/>
     </row>
     <row r="13" spans="1:13" ht="8.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
@@ -7778,16 +8214,16 @@
       <c r="A15" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="300" t="s">
+      <c r="B15" s="288" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="301"/>
-      <c r="D15" s="301"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="301"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="301"/>
-      <c r="I15" s="302"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="289"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="289"/>
+      <c r="I15" s="290"/>
       <c r="J15" s="173" t="s">
         <v>129</v>
       </c>
@@ -7798,41 +8234,41 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="66.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="288" t="s">
+      <c r="A16" s="291" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="292" t="s">
+      <c r="B16" s="295" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="293"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="293"/>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="293"/>
-      <c r="I16" s="293"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="296"/>
       <c r="J16" s="78" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K16" s="130"/>
       <c r="L16" s="79">
-        <f>K16*0.1</f>
+        <f>K16*0.2</f>
         <v>0</v>
       </c>
       <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="289"/>
-      <c r="B17" s="292" t="s">
+      <c r="A17" s="292"/>
+      <c r="B17" s="295" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="293"/>
-      <c r="I17" s="293"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="296"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="296"/>
+      <c r="I17" s="296"/>
       <c r="J17" s="81" t="s">
         <v>130</v>
       </c>
@@ -7844,47 +8280,47 @@
       <c r="M17" s="80"/>
     </row>
     <row r="18" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="290" t="s">
+      <c r="A18" s="293" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="294" t="s">
+      <c r="B18" s="297" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="295"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="295"/>
-      <c r="I18" s="296"/>
+      <c r="C18" s="298"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="298"/>
+      <c r="F18" s="298"/>
+      <c r="G18" s="298"/>
+      <c r="H18" s="298"/>
+      <c r="I18" s="299"/>
       <c r="J18" s="78" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K18" s="132"/>
       <c r="L18" s="83">
-        <f>K18*0.3</f>
+        <f>K18*0.25</f>
         <v>0</v>
       </c>
       <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="291"/>
-      <c r="B19" s="297" t="s">
+      <c r="A19" s="294"/>
+      <c r="B19" s="300" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="298"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="298"/>
-      <c r="I19" s="299"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="301"/>
+      <c r="G19" s="301"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="302"/>
       <c r="J19" s="84" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K19" s="133"/>
       <c r="L19" s="85">
-        <f>K19*0.3</f>
+        <f>K19*0.25</f>
         <v>0</v>
       </c>
       <c r="M19" s="80"/>
@@ -7955,6 +8391,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C5:F5"/>
@@ -7967,12 +8409,6 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7986,24 +8422,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8069,30 +8487,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8107,4 +8520,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>